--- a/BackTest/2020-01-14 BackTest APIS.xlsx
+++ b/BackTest/2020-01-14 BackTest APIS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N104"/>
+  <dimension ref="A1:M133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>MA60</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6183</v>
+        <v>0.62</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6183</v>
+        <v>0.62</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6183</v>
+        <v>0.62</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6183</v>
+        <v>0.62</v>
       </c>
       <c r="F2" t="n">
-        <v>1307616.6098</v>
+        <v>46233.3132</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6157333333333336</v>
+        <v>-8226526.148599998</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6179733333333332</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6158</v>
+        <v>0.62</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6158</v>
+        <v>0.62</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6158</v>
+        <v>0.62</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6158</v>
+        <v>0.62</v>
       </c>
       <c r="F3" t="n">
-        <v>2033757.7907</v>
+        <v>760218.2998</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6154933333333336</v>
+        <v>-8226526.148599998</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6178716666666665</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6211</v>
+        <v>0.6253</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6212</v>
+        <v>0.626</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6212</v>
+        <v>0.626</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6211</v>
+        <v>0.6253</v>
       </c>
       <c r="F4" t="n">
-        <v>1481085.8099</v>
+        <v>1584419.4739</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6156933333333335</v>
+        <v>-6642106.674699998</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6178749999999998</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.619</v>
+        <v>0.616</v>
       </c>
       <c r="C5" t="n">
-        <v>0.619</v>
+        <v>0.616</v>
       </c>
       <c r="D5" t="n">
-        <v>0.619</v>
+        <v>0.616</v>
       </c>
       <c r="E5" t="n">
-        <v>0.619</v>
+        <v>0.616</v>
       </c>
       <c r="F5" t="n">
-        <v>1036597.5943</v>
+        <v>695908.0876</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6159933333333336</v>
+        <v>-7338014.762299998</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6178366666666666</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.615</v>
+        <v>0.6211</v>
       </c>
       <c r="C6" t="n">
-        <v>0.615</v>
+        <v>0.6211</v>
       </c>
       <c r="D6" t="n">
-        <v>0.615</v>
+        <v>0.6211</v>
       </c>
       <c r="E6" t="n">
-        <v>0.615</v>
+        <v>0.6211</v>
       </c>
       <c r="F6" t="n">
-        <v>606484.5848</v>
+        <v>1690644.2853</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6160600000000003</v>
+        <v>-5647370.476999998</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6177066666666666</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6159</v>
+        <v>0.6193</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6159</v>
+        <v>0.6193</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6159</v>
+        <v>0.6193</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6159</v>
+        <v>0.6193</v>
       </c>
       <c r="F7" t="n">
-        <v>1549629.8342</v>
+        <v>814255.2389</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6161800000000002</v>
+        <v>-6461625.715899998</v>
       </c>
       <c r="H7" t="n">
-        <v>0.617685</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6194</v>
+        <v>0.6224</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6194</v>
+        <v>0.6224</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6194</v>
+        <v>0.6224</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6194</v>
+        <v>0.6224</v>
       </c>
       <c r="F8" t="n">
-        <v>1485210.631</v>
+        <v>1859774.5197</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6165066666666669</v>
+        <v>-4601851.196199998</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6176833333333334</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.6256</v>
+        <v>0.6172</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6256</v>
+        <v>0.6172</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6256</v>
+        <v>0.6172</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6256</v>
+        <v>0.6172</v>
       </c>
       <c r="F9" t="n">
-        <v>1491.9542</v>
+        <v>1962619.6665</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6172466666666669</v>
+        <v>-6564470.862699999</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6178466666666667</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.6253</v>
+        <v>0.622</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6253</v>
+        <v>0.622</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6253</v>
+        <v>0.622</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6253</v>
+        <v>0.622</v>
       </c>
       <c r="F10" t="n">
-        <v>1413543.3952</v>
+        <v>1788765.4217</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6177866666666669</v>
+        <v>-4775705.440999999</v>
       </c>
       <c r="H10" t="n">
-        <v>0.61802</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,36 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6148</v>
+        <v>0.6239</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6148</v>
+        <v>0.6239</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6148</v>
+        <v>0.6239</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6148</v>
+        <v>0.6239</v>
       </c>
       <c r="F11" t="n">
-        <v>24528.6025</v>
+        <v>460838.4352</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6178400000000003</v>
+        <v>-4314867.005799999</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6180316666666668</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.6254999999999999</v>
+        <v>0.6228</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6254999999999999</v>
+        <v>0.6228</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6254999999999999</v>
+        <v>0.6228</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6254999999999999</v>
+        <v>0.6228</v>
       </c>
       <c r="F12" t="n">
-        <v>817.538</v>
+        <v>1972937.6755</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6185733333333336</v>
+        <v>-6287804.681299998</v>
       </c>
       <c r="H12" t="n">
-        <v>0.6182266666666668</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,36 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.6211</v>
+        <v>0.614</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6211</v>
+        <v>0.614</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6211</v>
+        <v>0.614</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6211</v>
+        <v>0.614</v>
       </c>
       <c r="F13" t="n">
-        <v>804531.6403</v>
+        <v>296731.7048</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6189866666666669</v>
+        <v>-6584536.386099999</v>
       </c>
       <c r="H13" t="n">
-        <v>0.6183433333333335</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.6254999999999999</v>
+        <v>0.6173999999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6254999999999999</v>
+        <v>0.6173999999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6254999999999999</v>
+        <v>0.6173999999999999</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6254999999999999</v>
+        <v>0.6173999999999999</v>
       </c>
       <c r="F14" t="n">
-        <v>821.1477</v>
+        <v>1298676.7261</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6197533333333336</v>
+        <v>-5285859.659999998</v>
       </c>
       <c r="H14" t="n">
-        <v>0.6185283333333335</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,36 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.6191</v>
+        <v>0.6256</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6254999999999999</v>
+        <v>0.6256</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6254999999999999</v>
+        <v>0.6256</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6191</v>
+        <v>0.6256</v>
       </c>
       <c r="F15" t="n">
-        <v>1516948.6323</v>
+        <v>968.7019</v>
       </c>
       <c r="G15" t="n">
-        <v>0.620366666666667</v>
+        <v>-5284890.958099999</v>
       </c>
       <c r="H15" t="n">
-        <v>0.6186533333333334</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,36 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.6241</v>
+        <v>0.6215000000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6241</v>
+        <v>0.6215000000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6241</v>
+        <v>0.6215000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6241</v>
+        <v>0.6215000000000001</v>
       </c>
       <c r="F16" t="n">
-        <v>1907313.6174</v>
+        <v>526297.2745000001</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6208000000000004</v>
+        <v>-5811188.232599999</v>
       </c>
       <c r="H16" t="n">
-        <v>0.6187550000000001</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,36 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.6169</v>
+        <v>0.6194</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6169</v>
+        <v>0.6194</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6169</v>
+        <v>0.6194</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6169</v>
+        <v>0.6194</v>
       </c>
       <c r="F17" t="n">
-        <v>874207.9801</v>
+        <v>727319.6213</v>
       </c>
       <c r="G17" t="n">
-        <v>0.620706666666667</v>
+        <v>-6538507.853899999</v>
       </c>
       <c r="H17" t="n">
-        <v>0.6188100000000001</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,36 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.6254999999999999</v>
+        <v>0.6182</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6254999999999999</v>
+        <v>0.6182</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6254999999999999</v>
+        <v>0.6182</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6254999999999999</v>
+        <v>0.6182</v>
       </c>
       <c r="F18" t="n">
-        <v>804.9994</v>
+        <v>1127287.8897</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6213533333333336</v>
+        <v>-7665795.743599999</v>
       </c>
       <c r="H18" t="n">
-        <v>0.6189033333333335</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1084,36 +1028,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.6177</v>
+        <v>0.6145</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6177</v>
+        <v>0.6145</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6177</v>
+        <v>0.6145</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6177</v>
+        <v>0.6145</v>
       </c>
       <c r="F19" t="n">
-        <v>1456642.7751</v>
+        <v>517070.7405</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6211200000000002</v>
+        <v>-8182866.484099999</v>
       </c>
       <c r="H19" t="n">
-        <v>0.6188666666666668</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>1</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1122,36 +1063,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.6254999999999999</v>
+        <v>0.614</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6254999999999999</v>
+        <v>0.614</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6254999999999999</v>
+        <v>0.614</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6254999999999999</v>
+        <v>0.614</v>
       </c>
       <c r="F20" t="n">
-        <v>828.7275</v>
+        <v>592290.5975</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6215533333333336</v>
+        <v>-8775157.081599999</v>
       </c>
       <c r="H20" t="n">
-        <v>0.6189633333333334</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1160,36 +1098,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.6209</v>
+        <v>0.6141</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6209</v>
+        <v>0.6141</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6209</v>
+        <v>0.6141</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6209</v>
+        <v>0.6141</v>
       </c>
       <c r="F21" t="n">
-        <v>1096428.3188</v>
+        <v>1734781.8362</v>
       </c>
       <c r="G21" t="n">
-        <v>0.621946666666667</v>
+        <v>-7040375.245399999</v>
       </c>
       <c r="H21" t="n">
-        <v>0.6190233333333334</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>1</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,36 +1133,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.6177</v>
+        <v>0.6145</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6177</v>
+        <v>0.6145</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6177</v>
+        <v>0.6145</v>
       </c>
       <c r="E22" t="n">
-        <v>0.6177</v>
+        <v>0.6145</v>
       </c>
       <c r="F22" t="n">
-        <v>1991101.7309</v>
+        <v>332929.2595</v>
       </c>
       <c r="G22" t="n">
-        <v>0.622066666666667</v>
+        <v>-6707445.9859</v>
       </c>
       <c r="H22" t="n">
-        <v>0.619055</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,36 +1168,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.6254999999999999</v>
+        <v>0.6145</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6254999999999999</v>
+        <v>0.6145</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6254999999999999</v>
+        <v>0.6145</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6254999999999999</v>
+        <v>0.6145</v>
       </c>
       <c r="F23" t="n">
-        <v>828.1821</v>
+        <v>515550.3375</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6224733333333337</v>
+        <v>-6707445.9859</v>
       </c>
       <c r="H23" t="n">
-        <v>0.6191850000000001</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1274,36 +1203,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.6182</v>
+        <v>0.6172</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6182</v>
+        <v>0.6172</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6182</v>
+        <v>0.6172</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6182</v>
+        <v>0.6172</v>
       </c>
       <c r="F24" t="n">
-        <v>1425378.8208</v>
+        <v>1507806.5507</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6219800000000003</v>
+        <v>-5199639.4352</v>
       </c>
       <c r="H24" t="n">
-        <v>0.6192400000000001</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1312,36 +1238,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.6163</v>
+        <v>0.6145</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6163</v>
+        <v>0.614</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6163</v>
+        <v>0.6145</v>
       </c>
       <c r="E25" t="n">
-        <v>0.6163</v>
+        <v>0.614</v>
       </c>
       <c r="F25" t="n">
-        <v>1377625.0329</v>
+        <v>53558.0045</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6213800000000004</v>
+        <v>-5253197.4397</v>
       </c>
       <c r="H25" t="n">
-        <v>0.6191800000000002</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>1</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1350,36 +1273,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.6149</v>
+        <v>0.6145</v>
       </c>
       <c r="C26" t="n">
-        <v>0.6147</v>
+        <v>0.6145</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6149</v>
+        <v>0.6145</v>
       </c>
       <c r="E26" t="n">
-        <v>0.6147</v>
+        <v>0.6145</v>
       </c>
       <c r="F26" t="n">
-        <v>2243917.0017</v>
+        <v>757327.3989</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6213733333333337</v>
+        <v>-4495870.0408</v>
       </c>
       <c r="H26" t="n">
-        <v>0.6191233333333336</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1388,36 +1308,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.6176</v>
+        <v>0.6149</v>
       </c>
       <c r="C27" t="n">
-        <v>0.6176</v>
+        <v>0.6149</v>
       </c>
       <c r="D27" t="n">
-        <v>0.6176</v>
+        <v>0.6149</v>
       </c>
       <c r="E27" t="n">
-        <v>0.6176</v>
+        <v>0.6149</v>
       </c>
       <c r="F27" t="n">
-        <v>928998.3347</v>
+        <v>1385895.6728</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6208466666666669</v>
+        <v>-3109974.368</v>
       </c>
       <c r="H27" t="n">
-        <v>0.6191166666666669</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>1</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1426,36 +1343,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.6178</v>
+        <v>0.614</v>
       </c>
       <c r="C28" t="n">
-        <v>0.6178</v>
+        <v>0.614</v>
       </c>
       <c r="D28" t="n">
-        <v>0.6178</v>
+        <v>0.614</v>
       </c>
       <c r="E28" t="n">
-        <v>0.6178</v>
+        <v>0.614</v>
       </c>
       <c r="F28" t="n">
-        <v>1902269.9223</v>
+        <v>236688.8352</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6206266666666669</v>
+        <v>-3346663.2032</v>
       </c>
       <c r="H28" t="n">
-        <v>0.6191766666666669</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1464,36 +1378,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.619</v>
+        <v>0.6163</v>
       </c>
       <c r="C29" t="n">
-        <v>0.619</v>
+        <v>0.6163</v>
       </c>
       <c r="D29" t="n">
-        <v>0.619</v>
+        <v>0.6163</v>
       </c>
       <c r="E29" t="n">
-        <v>0.619</v>
+        <v>0.6163</v>
       </c>
       <c r="F29" t="n">
-        <v>1083204.269</v>
+        <v>774518.0422</v>
       </c>
       <c r="G29" t="n">
-        <v>0.6201933333333335</v>
+        <v>-2572145.161</v>
       </c>
       <c r="H29" t="n">
-        <v>0.6191616666666669</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>1</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1502,36 +1413,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.6206</v>
+        <v>0.6176</v>
       </c>
       <c r="C30" t="n">
-        <v>0.6206</v>
+        <v>0.6176</v>
       </c>
       <c r="D30" t="n">
-        <v>0.6206</v>
+        <v>0.6176</v>
       </c>
       <c r="E30" t="n">
-        <v>0.6206</v>
+        <v>0.6176</v>
       </c>
       <c r="F30" t="n">
-        <v>585202.0429</v>
+        <v>1901376.3812</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6198666666666668</v>
+        <v>-670768.7797999999</v>
       </c>
       <c r="H30" t="n">
-        <v>0.619171666666667</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1540,36 +1448,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.6194</v>
+        <v>0.6183</v>
       </c>
       <c r="C31" t="n">
-        <v>0.6194</v>
+        <v>0.6183</v>
       </c>
       <c r="D31" t="n">
-        <v>0.6194</v>
+        <v>0.6183</v>
       </c>
       <c r="E31" t="n">
-        <v>0.6194</v>
+        <v>0.6183</v>
       </c>
       <c r="F31" t="n">
-        <v>530266.2976</v>
+        <v>1307616.6098</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6195533333333335</v>
+        <v>636847.8300000001</v>
       </c>
       <c r="H31" t="n">
-        <v>0.6192033333333337</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>1</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1578,36 +1483,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.6156</v>
+        <v>0.6158</v>
       </c>
       <c r="C32" t="n">
-        <v>0.6156</v>
+        <v>0.6158</v>
       </c>
       <c r="D32" t="n">
-        <v>0.6156</v>
+        <v>0.6158</v>
       </c>
       <c r="E32" t="n">
-        <v>0.6156</v>
+        <v>0.6158</v>
       </c>
       <c r="F32" t="n">
-        <v>1982022.0421</v>
+        <v>2033757.7907</v>
       </c>
       <c r="G32" t="n">
-        <v>0.6194666666666669</v>
+        <v>-1396909.9607</v>
       </c>
       <c r="H32" t="n">
-        <v>0.6191300000000004</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1616,36 +1518,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.6147</v>
+        <v>0.6211</v>
       </c>
       <c r="C33" t="n">
-        <v>0.6147</v>
+        <v>0.6212</v>
       </c>
       <c r="D33" t="n">
-        <v>0.6147</v>
+        <v>0.6212</v>
       </c>
       <c r="E33" t="n">
-        <v>0.6147</v>
+        <v>0.6211</v>
       </c>
       <c r="F33" t="n">
-        <v>488312.2635</v>
+        <v>1481085.8099</v>
       </c>
       <c r="G33" t="n">
-        <v>0.6187466666666669</v>
+        <v>84175.84920000006</v>
       </c>
       <c r="H33" t="n">
-        <v>0.6190416666666672</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>1</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,36 +1553,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.615</v>
+        <v>0.619</v>
       </c>
       <c r="C34" t="n">
-        <v>0.615</v>
+        <v>0.619</v>
       </c>
       <c r="D34" t="n">
-        <v>0.615</v>
+        <v>0.619</v>
       </c>
       <c r="E34" t="n">
-        <v>0.615</v>
+        <v>0.619</v>
       </c>
       <c r="F34" t="n">
-        <v>1084097.9645</v>
+        <v>1036597.5943</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6185666666666669</v>
+        <v>-952421.7450999999</v>
       </c>
       <c r="H34" t="n">
-        <v>0.6189583333333338</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>1</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1692,36 +1588,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.6199</v>
+        <v>0.615</v>
       </c>
       <c r="C35" t="n">
-        <v>0.6199</v>
+        <v>0.615</v>
       </c>
       <c r="D35" t="n">
-        <v>0.6199</v>
+        <v>0.615</v>
       </c>
       <c r="E35" t="n">
-        <v>0.6199</v>
+        <v>0.615</v>
       </c>
       <c r="F35" t="n">
-        <v>820.9135</v>
+        <v>606484.5848</v>
       </c>
       <c r="G35" t="n">
-        <v>0.6181933333333336</v>
+        <v>-1558906.3299</v>
       </c>
       <c r="H35" t="n">
-        <v>0.6188566666666673</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1730,36 +1623,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.6172</v>
+        <v>0.6159</v>
       </c>
       <c r="C36" t="n">
-        <v>0.6199</v>
+        <v>0.6159</v>
       </c>
       <c r="D36" t="n">
-        <v>0.6199</v>
+        <v>0.6159</v>
       </c>
       <c r="E36" t="n">
-        <v>0.6172</v>
+        <v>0.6159</v>
       </c>
       <c r="F36" t="n">
-        <v>1105254.0283</v>
+        <v>1549629.8342</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6181266666666668</v>
+        <v>-9276.495699999854</v>
       </c>
       <c r="H36" t="n">
-        <v>0.6189216666666673</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1768,36 +1658,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.6195000000000001</v>
+        <v>0.6194</v>
       </c>
       <c r="C37" t="n">
-        <v>0.6195000000000001</v>
+        <v>0.6194</v>
       </c>
       <c r="D37" t="n">
-        <v>0.6195000000000001</v>
+        <v>0.6194</v>
       </c>
       <c r="E37" t="n">
-        <v>0.6195000000000001</v>
+        <v>0.6194</v>
       </c>
       <c r="F37" t="n">
-        <v>1941497.9133</v>
+        <v>1485210.631</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6182466666666669</v>
+        <v>1475934.1353</v>
       </c>
       <c r="H37" t="n">
-        <v>0.6188950000000006</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>1</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1806,36 +1693,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.6183</v>
+        <v>0.6256</v>
       </c>
       <c r="C38" t="n">
-        <v>0.6183</v>
+        <v>0.6256</v>
       </c>
       <c r="D38" t="n">
-        <v>0.6183</v>
+        <v>0.6256</v>
       </c>
       <c r="E38" t="n">
-        <v>0.6183</v>
+        <v>0.6256</v>
       </c>
       <c r="F38" t="n">
-        <v>1917628.9286</v>
+        <v>1491.9542</v>
       </c>
       <c r="G38" t="n">
-        <v>0.6177666666666668</v>
+        <v>1477426.0895</v>
       </c>
       <c r="H38" t="n">
-        <v>0.618878333333334</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1844,36 +1728,33 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.6197</v>
+        <v>0.6253</v>
       </c>
       <c r="C39" t="n">
-        <v>0.6197</v>
+        <v>0.6253</v>
       </c>
       <c r="D39" t="n">
-        <v>0.6197</v>
+        <v>0.6253</v>
       </c>
       <c r="E39" t="n">
-        <v>0.6197</v>
+        <v>0.6253</v>
       </c>
       <c r="F39" t="n">
-        <v>16136.84040664838</v>
+        <v>1413543.3952</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6178666666666668</v>
+        <v>63882.69430000032</v>
       </c>
       <c r="H39" t="n">
-        <v>0.618833333333334</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1882,36 +1763,33 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.6153</v>
+        <v>0.6148</v>
       </c>
       <c r="C40" t="n">
-        <v>0.6153</v>
+        <v>0.6148</v>
       </c>
       <c r="D40" t="n">
-        <v>0.6153</v>
+        <v>0.6148</v>
       </c>
       <c r="E40" t="n">
-        <v>0.6153</v>
+        <v>0.6148</v>
       </c>
       <c r="F40" t="n">
-        <v>1512407.2908</v>
+        <v>24528.6025</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6178000000000001</v>
+        <v>39354.09180000032</v>
       </c>
       <c r="H40" t="n">
-        <v>0.6188016666666674</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1920,36 +1798,33 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.617</v>
+        <v>0.6254999999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>0.617</v>
+        <v>0.6254999999999999</v>
       </c>
       <c r="D41" t="n">
-        <v>0.617</v>
+        <v>0.6254999999999999</v>
       </c>
       <c r="E41" t="n">
-        <v>0.617</v>
+        <v>0.6254999999999999</v>
       </c>
       <c r="F41" t="n">
-        <v>1126051.6935</v>
+        <v>817.538</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6179533333333335</v>
+        <v>40171.62980000032</v>
       </c>
       <c r="H41" t="n">
-        <v>0.6187183333333339</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1958,36 +1833,33 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.6168</v>
+        <v>0.6211</v>
       </c>
       <c r="C42" t="n">
-        <v>0.6168</v>
+        <v>0.6211</v>
       </c>
       <c r="D42" t="n">
-        <v>0.6168</v>
+        <v>0.6211</v>
       </c>
       <c r="E42" t="n">
-        <v>0.6168</v>
+        <v>0.6211</v>
       </c>
       <c r="F42" t="n">
-        <v>1637053.3584</v>
+        <v>804531.6403</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6179000000000001</v>
+        <v>-764360.0104999996</v>
       </c>
       <c r="H42" t="n">
-        <v>0.6186000000000006</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1996,36 +1868,33 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.6179</v>
+        <v>0.6254999999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>0.6179</v>
+        <v>0.6254999999999999</v>
       </c>
       <c r="D43" t="n">
-        <v>0.6179</v>
+        <v>0.6254999999999999</v>
       </c>
       <c r="E43" t="n">
-        <v>0.6179</v>
+        <v>0.6254999999999999</v>
       </c>
       <c r="F43" t="n">
-        <v>835.4344</v>
+        <v>821.1477</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6179066666666667</v>
+        <v>-763538.8627999997</v>
       </c>
       <c r="H43" t="n">
-        <v>0.6185183333333339</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2034,36 +1903,33 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.6172</v>
+        <v>0.6191</v>
       </c>
       <c r="C44" t="n">
-        <v>0.6172</v>
+        <v>0.6254999999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>0.6172</v>
+        <v>0.6254999999999999</v>
       </c>
       <c r="E44" t="n">
-        <v>0.6172</v>
+        <v>0.6191</v>
       </c>
       <c r="F44" t="n">
-        <v>1796398.3624</v>
+        <v>1516948.6323</v>
       </c>
       <c r="G44" t="n">
-        <v>0.6177866666666668</v>
+        <v>-763538.8627999997</v>
       </c>
       <c r="H44" t="n">
-        <v>0.6185716666666673</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2072,36 +1938,33 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.6151</v>
+        <v>0.6241</v>
       </c>
       <c r="C45" t="n">
-        <v>0.6151</v>
+        <v>0.6241</v>
       </c>
       <c r="D45" t="n">
-        <v>0.6151</v>
+        <v>0.6241</v>
       </c>
       <c r="E45" t="n">
-        <v>0.6151</v>
+        <v>0.6241</v>
       </c>
       <c r="F45" t="n">
-        <v>602591.9989</v>
+        <v>1907313.6174</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6174200000000002</v>
+        <v>-2670852.4802</v>
       </c>
       <c r="H45" t="n">
-        <v>0.6185333333333339</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2110,36 +1973,33 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.6167</v>
+        <v>0.6169</v>
       </c>
       <c r="C46" t="n">
-        <v>0.6167</v>
+        <v>0.6169</v>
       </c>
       <c r="D46" t="n">
-        <v>0.6167</v>
+        <v>0.6169</v>
       </c>
       <c r="E46" t="n">
-        <v>0.6167</v>
+        <v>0.6169</v>
       </c>
       <c r="F46" t="n">
-        <v>817.8645</v>
+        <v>874207.9801</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6172400000000001</v>
+        <v>-3545060.460299999</v>
       </c>
       <c r="H46" t="n">
-        <v>0.6183850000000006</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2148,36 +2008,33 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.6143</v>
+        <v>0.6254999999999999</v>
       </c>
       <c r="C47" t="n">
-        <v>0.6143</v>
+        <v>0.6254999999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>0.6143</v>
+        <v>0.6254999999999999</v>
       </c>
       <c r="E47" t="n">
-        <v>0.6143</v>
+        <v>0.6254999999999999</v>
       </c>
       <c r="F47" t="n">
-        <v>1729752.224</v>
+        <v>804.9994</v>
       </c>
       <c r="G47" t="n">
-        <v>0.6171533333333333</v>
+        <v>-3544255.460899999</v>
       </c>
       <c r="H47" t="n">
-        <v>0.6182650000000007</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2186,36 +2043,33 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.6167</v>
+        <v>0.6177</v>
       </c>
       <c r="C48" t="n">
-        <v>0.6167</v>
+        <v>0.6177</v>
       </c>
       <c r="D48" t="n">
-        <v>0.6167</v>
+        <v>0.6177</v>
       </c>
       <c r="E48" t="n">
-        <v>0.6167</v>
+        <v>0.6177</v>
       </c>
       <c r="F48" t="n">
-        <v>820</v>
+        <v>1456642.7751</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6172866666666667</v>
+        <v>-5000898.236</v>
       </c>
       <c r="H48" t="n">
-        <v>0.6182200000000008</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2224,36 +2078,33 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.6159</v>
+        <v>0.6254999999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>0.6159</v>
+        <v>0.6254999999999999</v>
       </c>
       <c r="D49" t="n">
-        <v>0.6159</v>
+        <v>0.6254999999999999</v>
       </c>
       <c r="E49" t="n">
-        <v>0.6159</v>
+        <v>0.6254999999999999</v>
       </c>
       <c r="F49" t="n">
-        <v>530384.7131000001</v>
+        <v>828.7275</v>
       </c>
       <c r="G49" t="n">
-        <v>0.6173466666666666</v>
+        <v>-5000069.5085</v>
       </c>
       <c r="H49" t="n">
-        <v>0.6181816666666674</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2262,36 +2113,33 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.6156</v>
+        <v>0.6209</v>
       </c>
       <c r="C50" t="n">
-        <v>0.6156</v>
+        <v>0.6209</v>
       </c>
       <c r="D50" t="n">
-        <v>0.6156</v>
+        <v>0.6209</v>
       </c>
       <c r="E50" t="n">
-        <v>0.6156</v>
+        <v>0.6209</v>
       </c>
       <c r="F50" t="n">
-        <v>940974.1533</v>
+        <v>1096428.3188</v>
       </c>
       <c r="G50" t="n">
-        <v>0.6170600000000001</v>
+        <v>-6096497.827299999</v>
       </c>
       <c r="H50" t="n">
-        <v>0.6182000000000009</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2300,36 +2148,33 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.6156</v>
+        <v>0.6177</v>
       </c>
       <c r="C51" t="n">
-        <v>0.6156</v>
+        <v>0.6177</v>
       </c>
       <c r="D51" t="n">
-        <v>0.6156</v>
+        <v>0.6177</v>
       </c>
       <c r="E51" t="n">
-        <v>0.6156</v>
+        <v>0.6177</v>
       </c>
       <c r="F51" t="n">
-        <v>2035020.0386</v>
+        <v>1991101.7309</v>
       </c>
       <c r="G51" t="n">
-        <v>0.6167733333333334</v>
+        <v>-8087599.558199999</v>
       </c>
       <c r="H51" t="n">
-        <v>0.6182266666666675</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,36 +2183,33 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.6167</v>
+        <v>0.6254999999999999</v>
       </c>
       <c r="C52" t="n">
-        <v>0.6207</v>
+        <v>0.6254999999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>0.6207</v>
+        <v>0.6254999999999999</v>
       </c>
       <c r="E52" t="n">
-        <v>0.6167</v>
+        <v>0.6254999999999999</v>
       </c>
       <c r="F52" t="n">
-        <v>8266427.7525</v>
+        <v>828.1821</v>
       </c>
       <c r="G52" t="n">
-        <v>0.6168533333333334</v>
+        <v>-8086771.376099999</v>
       </c>
       <c r="H52" t="n">
-        <v>0.6183366666666675</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2376,36 +2218,33 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.6163</v>
+        <v>0.6182</v>
       </c>
       <c r="C53" t="n">
-        <v>0.6163</v>
+        <v>0.6182</v>
       </c>
       <c r="D53" t="n">
-        <v>0.6163</v>
+        <v>0.6182</v>
       </c>
       <c r="E53" t="n">
-        <v>0.6163</v>
+        <v>0.6182</v>
       </c>
       <c r="F53" t="n">
-        <v>741284.98</v>
+        <v>1425378.8208</v>
       </c>
       <c r="G53" t="n">
-        <v>0.6167200000000002</v>
+        <v>-9512150.196899999</v>
       </c>
       <c r="H53" t="n">
-        <v>0.6183666666666675</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2414,36 +2253,33 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.6198</v>
+        <v>0.6163</v>
       </c>
       <c r="C54" t="n">
-        <v>0.6198</v>
+        <v>0.6163</v>
       </c>
       <c r="D54" t="n">
-        <v>0.6198</v>
+        <v>0.6163</v>
       </c>
       <c r="E54" t="n">
-        <v>0.6198</v>
+        <v>0.6163</v>
       </c>
       <c r="F54" t="n">
-        <v>1429572.0922</v>
+        <v>1377625.0329</v>
       </c>
       <c r="G54" t="n">
-        <v>0.6167266666666668</v>
+        <v>-10889775.2298</v>
       </c>
       <c r="H54" t="n">
-        <v>0.6184550000000009</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2452,36 +2288,33 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.6148</v>
+        <v>0.6149</v>
       </c>
       <c r="C55" t="n">
-        <v>0.6148</v>
+        <v>0.6147</v>
       </c>
       <c r="D55" t="n">
-        <v>0.6148</v>
+        <v>0.6149</v>
       </c>
       <c r="E55" t="n">
-        <v>0.6148</v>
+        <v>0.6147</v>
       </c>
       <c r="F55" t="n">
-        <v>2039263.8212</v>
+        <v>2243917.0017</v>
       </c>
       <c r="G55" t="n">
-        <v>0.6166933333333335</v>
+        <v>-13133692.2315</v>
       </c>
       <c r="H55" t="n">
-        <v>0.6184150000000009</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2490,36 +2323,33 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.6218</v>
+        <v>0.6176</v>
       </c>
       <c r="C56" t="n">
-        <v>0.6197</v>
+        <v>0.6176</v>
       </c>
       <c r="D56" t="n">
-        <v>0.6218</v>
+        <v>0.6176</v>
       </c>
       <c r="E56" t="n">
-        <v>0.6197</v>
+        <v>0.6176</v>
       </c>
       <c r="F56" t="n">
-        <v>688485.7514</v>
+        <v>928998.3347</v>
       </c>
       <c r="G56" t="n">
-        <v>0.6168733333333336</v>
+        <v>-12204693.8968</v>
       </c>
       <c r="H56" t="n">
-        <v>0.618510000000001</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2528,36 +2358,33 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.6193</v>
+        <v>0.6178</v>
       </c>
       <c r="C57" t="n">
-        <v>0.6193</v>
+        <v>0.6178</v>
       </c>
       <c r="D57" t="n">
-        <v>0.6193</v>
+        <v>0.6178</v>
       </c>
       <c r="E57" t="n">
-        <v>0.6193</v>
+        <v>0.6178</v>
       </c>
       <c r="F57" t="n">
-        <v>1712772.9561</v>
+        <v>1902269.9223</v>
       </c>
       <c r="G57" t="n">
-        <v>0.6170400000000001</v>
+        <v>-10302423.9745</v>
       </c>
       <c r="H57" t="n">
-        <v>0.6185900000000011</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2566,36 +2393,33 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.6163999999999999</v>
+        <v>0.619</v>
       </c>
       <c r="C58" t="n">
-        <v>0.6163999999999999</v>
+        <v>0.619</v>
       </c>
       <c r="D58" t="n">
-        <v>0.6163999999999999</v>
+        <v>0.619</v>
       </c>
       <c r="E58" t="n">
-        <v>0.6163999999999999</v>
+        <v>0.619</v>
       </c>
       <c r="F58" t="n">
-        <v>1537730.1364</v>
+        <v>1083204.269</v>
       </c>
       <c r="G58" t="n">
-        <v>0.6169400000000002</v>
+        <v>-9219219.705500001</v>
       </c>
       <c r="H58" t="n">
-        <v>0.6186150000000011</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2604,36 +2428,33 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.6151</v>
+        <v>0.6206</v>
       </c>
       <c r="C59" t="n">
-        <v>0.6151</v>
+        <v>0.6206</v>
       </c>
       <c r="D59" t="n">
-        <v>0.6151</v>
+        <v>0.6206</v>
       </c>
       <c r="E59" t="n">
-        <v>0.6151</v>
+        <v>0.6206</v>
       </c>
       <c r="F59" t="n">
-        <v>1072204.2458</v>
+        <v>585202.0429</v>
       </c>
       <c r="G59" t="n">
-        <v>0.6168000000000001</v>
+        <v>-8634017.662600001</v>
       </c>
       <c r="H59" t="n">
-        <v>0.6186333333333345</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2642,36 +2463,33 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.6173999999999999</v>
+        <v>0.6194</v>
       </c>
       <c r="C60" t="n">
-        <v>0.6173999999999999</v>
+        <v>0.6194</v>
       </c>
       <c r="D60" t="n">
-        <v>0.6173999999999999</v>
+        <v>0.6194</v>
       </c>
       <c r="E60" t="n">
-        <v>0.6173999999999999</v>
+        <v>0.6194</v>
       </c>
       <c r="F60" t="n">
-        <v>998623.6198</v>
+        <v>530266.2976</v>
       </c>
       <c r="G60" t="n">
-        <v>0.6169533333333335</v>
+        <v>-9164283.960200001</v>
       </c>
       <c r="H60" t="n">
-        <v>0.6186516666666678</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2680,36 +2498,33 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.6204</v>
+        <v>0.6156</v>
       </c>
       <c r="C61" t="n">
-        <v>0.6204</v>
+        <v>0.6156</v>
       </c>
       <c r="D61" t="n">
-        <v>0.6204</v>
+        <v>0.6156</v>
       </c>
       <c r="E61" t="n">
-        <v>0.6204</v>
+        <v>0.6156</v>
       </c>
       <c r="F61" t="n">
-        <v>1238057.744</v>
+        <v>1982022.0421</v>
       </c>
       <c r="G61" t="n">
-        <v>0.6172000000000002</v>
+        <v>-11146306.0023</v>
       </c>
       <c r="H61" t="n">
-        <v>0.6186983333333343</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2718,36 +2533,33 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.6218</v>
+        <v>0.6147</v>
       </c>
       <c r="C62" t="n">
-        <v>0.6218</v>
+        <v>0.6147</v>
       </c>
       <c r="D62" t="n">
-        <v>0.6218</v>
+        <v>0.6147</v>
       </c>
       <c r="E62" t="n">
-        <v>0.6218</v>
+        <v>0.6147</v>
       </c>
       <c r="F62" t="n">
-        <v>954.5509</v>
+        <v>488312.2635</v>
       </c>
       <c r="G62" t="n">
-        <v>0.6177000000000002</v>
+        <v>-11634618.2658</v>
       </c>
       <c r="H62" t="n">
-        <v>0.6187566666666677</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2756,36 +2568,33 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.618</v>
+        <v>0.615</v>
       </c>
       <c r="C63" t="n">
-        <v>0.618</v>
+        <v>0.615</v>
       </c>
       <c r="D63" t="n">
-        <v>0.618</v>
+        <v>0.615</v>
       </c>
       <c r="E63" t="n">
-        <v>0.618</v>
+        <v>0.615</v>
       </c>
       <c r="F63" t="n">
-        <v>773981.8509</v>
+        <v>1084097.9645</v>
       </c>
       <c r="G63" t="n">
-        <v>0.6177866666666669</v>
+        <v>-10550520.3013</v>
       </c>
       <c r="H63" t="n">
-        <v>0.6187933333333344</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,36 +2603,33 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.6142</v>
+        <v>0.6199</v>
       </c>
       <c r="C64" t="n">
-        <v>0.6142</v>
+        <v>0.6199</v>
       </c>
       <c r="D64" t="n">
-        <v>0.6142</v>
+        <v>0.6199</v>
       </c>
       <c r="E64" t="n">
-        <v>0.6142</v>
+        <v>0.6199</v>
       </c>
       <c r="F64" t="n">
-        <v>250298.6283</v>
+        <v>820.9135</v>
       </c>
       <c r="G64" t="n">
-        <v>0.6176733333333336</v>
+        <v>-10549699.3878</v>
       </c>
       <c r="H64" t="n">
-        <v>0.6186766666666677</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2832,36 +2638,33 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.6142</v>
+        <v>0.6172</v>
       </c>
       <c r="C65" t="n">
-        <v>0.6142</v>
+        <v>0.6199</v>
       </c>
       <c r="D65" t="n">
-        <v>0.6142</v>
+        <v>0.6199</v>
       </c>
       <c r="E65" t="n">
-        <v>0.6142</v>
+        <v>0.6172</v>
       </c>
       <c r="F65" t="n">
-        <v>3299.3318</v>
+        <v>1105254.0283</v>
       </c>
       <c r="G65" t="n">
-        <v>0.6175800000000002</v>
+        <v>-10549699.3878</v>
       </c>
       <c r="H65" t="n">
-        <v>0.6185966666666676</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2870,36 +2673,33 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.6201</v>
+        <v>0.6195000000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>0.6201</v>
+        <v>0.6195000000000001</v>
       </c>
       <c r="D66" t="n">
-        <v>0.6201</v>
+        <v>0.6195000000000001</v>
       </c>
       <c r="E66" t="n">
-        <v>0.6201</v>
+        <v>0.6195000000000001</v>
       </c>
       <c r="F66" t="n">
-        <v>843011.7892</v>
+        <v>1941497.9133</v>
       </c>
       <c r="G66" t="n">
-        <v>0.6178800000000002</v>
+        <v>-12491197.3011</v>
       </c>
       <c r="H66" t="n">
-        <v>0.6186816666666676</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2908,36 +2708,33 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.6188</v>
+        <v>0.6183</v>
       </c>
       <c r="C67" t="n">
-        <v>0.6188</v>
+        <v>0.6183</v>
       </c>
       <c r="D67" t="n">
-        <v>0.6188</v>
+        <v>0.6183</v>
       </c>
       <c r="E67" t="n">
-        <v>0.6188</v>
+        <v>0.6183</v>
       </c>
       <c r="F67" t="n">
-        <v>1786647.8209</v>
+        <v>1917628.9286</v>
       </c>
       <c r="G67" t="n">
-        <v>0.6177533333333336</v>
+        <v>-14408826.2297</v>
       </c>
       <c r="H67" t="n">
-        <v>0.6187300000000009</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2946,36 +2743,33 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.6199</v>
+        <v>0.6197</v>
       </c>
       <c r="C68" t="n">
-        <v>0.62</v>
+        <v>0.6197</v>
       </c>
       <c r="D68" t="n">
-        <v>0.62</v>
+        <v>0.6197</v>
       </c>
       <c r="E68" t="n">
-        <v>0.6199</v>
+        <v>0.6197</v>
       </c>
       <c r="F68" t="n">
-        <v>1461864.6689</v>
+        <v>16136.84040664838</v>
       </c>
       <c r="G68" t="n">
-        <v>0.6180000000000002</v>
+        <v>-14392689.38929335</v>
       </c>
       <c r="H68" t="n">
-        <v>0.6187400000000008</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2984,36 +2778,33 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.6188</v>
+        <v>0.6153</v>
       </c>
       <c r="C69" t="n">
-        <v>0.6188</v>
+        <v>0.6153</v>
       </c>
       <c r="D69" t="n">
-        <v>0.6188</v>
+        <v>0.6153</v>
       </c>
       <c r="E69" t="n">
-        <v>0.6188</v>
+        <v>0.6153</v>
       </c>
       <c r="F69" t="n">
-        <v>829954.4963</v>
+        <v>1512407.2908</v>
       </c>
       <c r="G69" t="n">
-        <v>0.6179333333333336</v>
+        <v>-15905096.68009335</v>
       </c>
       <c r="H69" t="n">
-        <v>0.6186266666666675</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3022,36 +2813,33 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.6161</v>
+        <v>0.617</v>
       </c>
       <c r="C70" t="n">
-        <v>0.6161</v>
+        <v>0.617</v>
       </c>
       <c r="D70" t="n">
-        <v>0.6161</v>
+        <v>0.617</v>
       </c>
       <c r="E70" t="n">
-        <v>0.6161</v>
+        <v>0.617</v>
       </c>
       <c r="F70" t="n">
-        <v>1177467.1835</v>
+        <v>1126051.6935</v>
       </c>
       <c r="G70" t="n">
-        <v>0.6180200000000001</v>
+        <v>-14779044.98659335</v>
       </c>
       <c r="H70" t="n">
-        <v>0.6184733333333342</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3060,36 +2848,33 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.6147</v>
+        <v>0.6168</v>
       </c>
       <c r="C71" t="n">
-        <v>0.6131</v>
+        <v>0.6168</v>
       </c>
       <c r="D71" t="n">
-        <v>0.6147</v>
+        <v>0.6168</v>
       </c>
       <c r="E71" t="n">
-        <v>0.6131</v>
+        <v>0.6168</v>
       </c>
       <c r="F71" t="n">
-        <v>4135755.9916</v>
+        <v>1637053.3584</v>
       </c>
       <c r="G71" t="n">
-        <v>0.6175800000000001</v>
+        <v>-16416098.34499335</v>
       </c>
       <c r="H71" t="n">
-        <v>0.6184450000000009</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3098,36 +2883,33 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.616</v>
+        <v>0.6179</v>
       </c>
       <c r="C72" t="n">
-        <v>0.616</v>
+        <v>0.6179</v>
       </c>
       <c r="D72" t="n">
-        <v>0.616</v>
+        <v>0.6179</v>
       </c>
       <c r="E72" t="n">
-        <v>0.616</v>
+        <v>0.6179</v>
       </c>
       <c r="F72" t="n">
-        <v>1637657.4948</v>
+        <v>835.4344</v>
       </c>
       <c r="G72" t="n">
-        <v>0.61736</v>
+        <v>-16415262.91059335</v>
       </c>
       <c r="H72" t="n">
-        <v>0.6182866666666675</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3136,36 +2918,33 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.6183</v>
+        <v>0.6172</v>
       </c>
       <c r="C73" t="n">
-        <v>0.6183</v>
+        <v>0.6172</v>
       </c>
       <c r="D73" t="n">
-        <v>0.6183</v>
+        <v>0.6172</v>
       </c>
       <c r="E73" t="n">
-        <v>0.6183</v>
+        <v>0.6172</v>
       </c>
       <c r="F73" t="n">
-        <v>1141500.1606</v>
+        <v>1796398.3624</v>
       </c>
       <c r="G73" t="n">
-        <v>0.6174866666666666</v>
+        <v>-18211661.27299335</v>
       </c>
       <c r="H73" t="n">
-        <v>0.6182400000000008</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3174,40 +2953,33 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.6156</v>
+        <v>0.6151</v>
       </c>
       <c r="C74" t="n">
-        <v>0.6156</v>
+        <v>0.6151</v>
       </c>
       <c r="D74" t="n">
-        <v>0.6156</v>
+        <v>0.6151</v>
       </c>
       <c r="E74" t="n">
-        <v>0.6156</v>
+        <v>0.6151</v>
       </c>
       <c r="F74" t="n">
-        <v>1868078.0672</v>
+        <v>602591.9989</v>
       </c>
       <c r="G74" t="n">
-        <v>0.6175200000000001</v>
+        <v>-18814253.27189335</v>
       </c>
       <c r="H74" t="n">
-        <v>0.6180750000000008</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.6183</v>
-      </c>
-      <c r="L74" t="n">
-        <v>0.6183</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3216,1172 +2988,2135 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
+        <v>0.6167</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.6167</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.6167</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.6167</v>
+      </c>
+      <c r="F75" t="n">
+        <v>817.8645</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-18813435.40739335</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.6143</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.6143</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.6143</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.6143</v>
+      </c>
+      <c r="F76" t="n">
+        <v>1729752.224</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-20543187.63139335</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.6167</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.6167</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.6167</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.6167</v>
+      </c>
+      <c r="F77" t="n">
+        <v>820</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-20542367.63139335</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.6159</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.6159</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.6159</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.6159</v>
+      </c>
+      <c r="F78" t="n">
+        <v>530384.7131000001</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-21072752.34449335</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.6156</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.6156</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.6156</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.6156</v>
+      </c>
+      <c r="F79" t="n">
+        <v>940974.1533</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-22013726.49779335</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.6156</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.6156</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.6156</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.6156</v>
+      </c>
+      <c r="F80" t="n">
+        <v>2035020.0386</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-22013726.49779335</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.6167</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.6207</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.6207</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.6167</v>
+      </c>
+      <c r="F81" t="n">
+        <v>8266427.7525</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-13747298.74529335</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.6163</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.6163</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.6163</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.6163</v>
+      </c>
+      <c r="F82" t="n">
+        <v>741284.98</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-14488583.72529335</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.6198</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.6198</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.6198</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.6198</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1429572.0922</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-13059011.63309335</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.6148</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.6148</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.6148</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.6148</v>
+      </c>
+      <c r="F84" t="n">
+        <v>2039263.8212</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-15098275.45429335</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.6218</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.6197</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.6218</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.6197</v>
+      </c>
+      <c r="F85" t="n">
+        <v>688485.7514</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-14409789.70289335</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.6193</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.6193</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.6193</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.6193</v>
+      </c>
+      <c r="F86" t="n">
+        <v>1712772.9561</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-16122562.65899335</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.6163999999999999</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.6163999999999999</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.6163999999999999</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.6163999999999999</v>
+      </c>
+      <c r="F87" t="n">
+        <v>1537730.1364</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-17660292.79539335</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.6151</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.6151</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.6151</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.6151</v>
+      </c>
+      <c r="F88" t="n">
+        <v>1072204.2458</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-18732497.04119335</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.6173999999999999</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.6173999999999999</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.6173999999999999</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.6173999999999999</v>
+      </c>
+      <c r="F89" t="n">
+        <v>998623.6198</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-17733873.42139335</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.6204</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.6204</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.6204</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.6204</v>
+      </c>
+      <c r="F90" t="n">
+        <v>1238057.744</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-16495815.67739335</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.6218</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.6218</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.6218</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.6218</v>
+      </c>
+      <c r="F91" t="n">
+        <v>954.5509</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-16494861.12649335</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.618</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.618</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.618</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.618</v>
+      </c>
+      <c r="F92" t="n">
+        <v>773981.8509</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-17268842.97739335</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.6142</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.6142</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.6142</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.6142</v>
+      </c>
+      <c r="F93" t="n">
+        <v>250298.6283</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-17519141.60569335</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.6142</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.6142</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.6142</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.6142</v>
+      </c>
+      <c r="F94" t="n">
+        <v>3299.3318</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-17519141.60569335</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.6201</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.6201</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.6201</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.6201</v>
+      </c>
+      <c r="F95" t="n">
+        <v>843011.7892</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-16676129.81649335</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.6188</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.6188</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.6188</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.6188</v>
+      </c>
+      <c r="F96" t="n">
+        <v>1786647.8209</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-18462777.63739335</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.6199</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.6199</v>
+      </c>
+      <c r="F97" t="n">
+        <v>1461864.6689</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-17000912.96849335</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.6188</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.6188</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.6188</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.6188</v>
+      </c>
+      <c r="F98" t="n">
+        <v>829954.4963</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-17830867.46479335</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.6161</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.6161</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.6161</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.6161</v>
+      </c>
+      <c r="F99" t="n">
+        <v>1177467.1835</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-19008334.64829335</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.6147</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.6131</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.6147</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.6131</v>
+      </c>
+      <c r="F100" t="n">
+        <v>4135755.9916</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-23144090.63989335</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.616</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.616</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.616</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.616</v>
+      </c>
+      <c r="F101" t="n">
+        <v>1637657.4948</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-21506433.14509335</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.6183</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.6183</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.6183</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.6183</v>
+      </c>
+      <c r="F102" t="n">
+        <v>1141500.1606</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-20364932.98449335</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.6156</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0.6156</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.6156</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.6156</v>
+      </c>
+      <c r="F103" t="n">
+        <v>1868078.0672</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-22233011.05169335</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
         <v>0.6186</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C104" t="n">
         <v>0.6186</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D104" t="n">
         <v>0.6186</v>
       </c>
-      <c r="E75" t="n">
+      <c r="E104" t="n">
         <v>0.6186</v>
       </c>
-      <c r="F75" t="n">
+      <c r="F104" t="n">
         <v>1589024.5808</v>
       </c>
-      <c r="G75" t="n">
-        <v>0.6176</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0.6179600000000007</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.6156</v>
-      </c>
-      <c r="L75" t="n">
-        <v>0.6183</v>
-      </c>
-      <c r="M75" t="inlineStr">
+      <c r="G104" t="n">
+        <v>-20643986.47089335</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.6187</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.6187</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.6187</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.6187</v>
+      </c>
+      <c r="F105" t="n">
+        <v>1292074.8858</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-19351911.58509335</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.616</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.616</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.616</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.616</v>
+      </c>
+      <c r="F106" t="n">
+        <v>836867.6621</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-20188779.24719335</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.6186</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.6186</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.6186</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.6186</v>
+      </c>
+      <c r="F107" t="n">
+        <v>502691.6078</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-19686087.63939335</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.6132</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.6132</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.6132</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.6132</v>
+      </c>
+      <c r="F108" t="n">
+        <v>1972975.6305</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-21659063.26989335</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.617</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.617</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.617</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.617</v>
+      </c>
+      <c r="F109" t="n">
+        <v>1645530.6235</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-20013532.64639335</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.6198</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.6198</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.6198</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.6198</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1745183.1009</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-18268349.54549335</v>
+      </c>
+      <c r="H110" t="n">
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.617</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0.617</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.6167</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.6167</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.6167</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.6167</v>
+      </c>
+      <c r="F111" t="n">
+        <v>1641119.2219</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-19909468.76739335</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>0.617</v>
+      </c>
+      <c r="L111" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="N75" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>0.6187</v>
-      </c>
-      <c r="C76" t="n">
-        <v>0.6187</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0.6187</v>
-      </c>
-      <c r="E76" t="n">
-        <v>0.6187</v>
-      </c>
-      <c r="F76" t="n">
-        <v>1292074.8858</v>
-      </c>
-      <c r="G76" t="n">
-        <v>0.6174866666666667</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0.6178700000000007</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>0.6183</v>
-      </c>
-      <c r="M76" t="inlineStr">
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.6197</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.6197</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.6197</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.6197</v>
+      </c>
+      <c r="F112" t="n">
+        <v>948576.6705</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-18960892.09689335</v>
+      </c>
+      <c r="H112" t="n">
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.6167</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0.617</v>
+      </c>
+      <c r="L112" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="N76" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>0.616</v>
-      </c>
-      <c r="C77" t="n">
-        <v>0.616</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0.616</v>
-      </c>
-      <c r="E77" t="n">
-        <v>0.616</v>
-      </c>
-      <c r="F77" t="n">
-        <v>836867.6621</v>
-      </c>
-      <c r="G77" t="n">
-        <v>0.6171000000000001</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0.6178550000000007</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>0.6186</v>
-      </c>
-      <c r="C78" t="n">
-        <v>0.6186</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0.6186</v>
-      </c>
-      <c r="E78" t="n">
-        <v>0.6186</v>
-      </c>
-      <c r="F78" t="n">
-        <v>502691.6078</v>
-      </c>
-      <c r="G78" t="n">
-        <v>0.6171400000000001</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0.6177400000000007</v>
-      </c>
-      <c r="I78" t="n">
-        <v>1</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.616</v>
-      </c>
-      <c r="L78" t="n">
-        <v>0.616</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.6217</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.6217</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.6217</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.6217</v>
+      </c>
+      <c r="F113" t="n">
+        <v>843.91</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-18960048.18689335</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.6158</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.6158</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.6158</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.6158</v>
+      </c>
+      <c r="F114" t="n">
+        <v>499500.0548</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-19459548.24169335</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.6217</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.6217</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.6217</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.6217</v>
+      </c>
+      <c r="F115" t="n">
+        <v>9701.1139</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-19449847.12779335</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.6182</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.6182</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.6182</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.6182</v>
+      </c>
+      <c r="F116" t="n">
+        <v>1697209.4454</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-21147056.57319335</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.6217</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.6217</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.6217</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.6217</v>
+      </c>
+      <c r="F117" t="n">
+        <v>9217.82</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-21137838.75319335</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.6189</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.6189</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.6189</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.6189</v>
+      </c>
+      <c r="F118" t="n">
+        <v>599672.1915</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-21737510.94469335</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.6157</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.6157</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.6157</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.6157</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1981897.035</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-23719407.97969335</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.6173999999999999</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0.6173999999999999</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.6173999999999999</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.6173999999999999</v>
+      </c>
+      <c r="F120" t="n">
+        <v>625007.0057</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-23094400.97399335</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
         <v>0.6132</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C121" t="n">
+        <v>0.6217</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.6217</v>
+      </c>
+      <c r="E121" t="n">
         <v>0.6132</v>
       </c>
-      <c r="D79" t="n">
-        <v>0.6132</v>
-      </c>
-      <c r="E79" t="n">
-        <v>0.6132</v>
-      </c>
-      <c r="F79" t="n">
-        <v>1972975.6305</v>
-      </c>
-      <c r="G79" t="n">
-        <v>0.6170733333333334</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0.6176650000000007</v>
-      </c>
-      <c r="I79" t="n">
-        <v>1</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.6186</v>
-      </c>
-      <c r="L79" t="n">
-        <v>0.616</v>
-      </c>
-      <c r="M79" t="inlineStr">
+      <c r="F121" t="n">
+        <v>4865.721</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-23089535.25299335</v>
+      </c>
+      <c r="H121" t="n">
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.6173999999999999</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
-      <c r="N79" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.6217</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0.6217</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.6217</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.6217</v>
+      </c>
+      <c r="F122" t="n">
+        <v>820.6097</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-23089535.25299335</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.6209</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0.6209</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.6209</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.6209</v>
+      </c>
+      <c r="F123" t="n">
+        <v>1273591.2501</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-24363126.50309335</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.6163999999999999</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0.6163999999999999</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.6163999999999999</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.6163999999999999</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1744415.0205</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-26107541.52359335</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.6215000000000001</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0.6215000000000001</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.6215000000000001</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.6215000000000001</v>
+      </c>
+      <c r="F125" t="n">
+        <v>864063.3504999999</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-25243478.17309336</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
         <v>0.617</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C126" t="n">
         <v>0.617</v>
       </c>
-      <c r="D80" t="n">
+      <c r="D126" t="n">
         <v>0.617</v>
       </c>
-      <c r="E80" t="n">
+      <c r="E126" t="n">
         <v>0.617</v>
       </c>
-      <c r="F80" t="n">
-        <v>1645530.6235</v>
-      </c>
-      <c r="G80" t="n">
-        <v>0.61726</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0.617523333333334</v>
-      </c>
-      <c r="I80" t="n">
-        <v>1</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.6132</v>
-      </c>
-      <c r="L80" t="n">
-        <v>0.616</v>
-      </c>
-      <c r="M80" t="inlineStr">
+      <c r="F126" t="n">
+        <v>1640572.9964</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-26884051.16949335</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="N80" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>0.6198</v>
-      </c>
-      <c r="C81" t="n">
-        <v>0.6198</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0.6198</v>
-      </c>
-      <c r="E81" t="n">
-        <v>0.6198</v>
-      </c>
-      <c r="F81" t="n">
-        <v>1745183.1009</v>
-      </c>
-      <c r="G81" t="n">
-        <v>0.61724</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0.6175050000000006</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>0.6167</v>
-      </c>
-      <c r="C82" t="n">
-        <v>0.6167</v>
-      </c>
-      <c r="D82" t="n">
-        <v>0.6167</v>
-      </c>
-      <c r="E82" t="n">
-        <v>0.6167</v>
-      </c>
-      <c r="F82" t="n">
-        <v>1641119.2219</v>
-      </c>
-      <c r="G82" t="n">
-        <v>0.6171</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0.617488333333334</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>0.6197</v>
-      </c>
-      <c r="C83" t="n">
-        <v>0.6197</v>
-      </c>
-      <c r="D83" t="n">
-        <v>0.6197</v>
-      </c>
-      <c r="E83" t="n">
-        <v>0.6197</v>
-      </c>
-      <c r="F83" t="n">
-        <v>948576.6705</v>
-      </c>
-      <c r="G83" t="n">
-        <v>0.61708</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0.6173916666666673</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>0.6217</v>
-      </c>
-      <c r="C84" t="n">
-        <v>0.6217</v>
-      </c>
-      <c r="D84" t="n">
-        <v>0.6217</v>
-      </c>
-      <c r="E84" t="n">
-        <v>0.6217</v>
-      </c>
-      <c r="F84" t="n">
-        <v>843.91</v>
-      </c>
-      <c r="G84" t="n">
-        <v>0.6172733333333333</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0.6174500000000005</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>0.6158</v>
-      </c>
-      <c r="C85" t="n">
-        <v>0.6158</v>
-      </c>
-      <c r="D85" t="n">
-        <v>0.6158</v>
-      </c>
-      <c r="E85" t="n">
-        <v>0.6158</v>
-      </c>
-      <c r="F85" t="n">
-        <v>499500.0548</v>
-      </c>
-      <c r="G85" t="n">
-        <v>0.6172533333333334</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0.6174416666666672</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>0.6217</v>
-      </c>
-      <c r="C86" t="n">
-        <v>0.6217</v>
-      </c>
-      <c r="D86" t="n">
-        <v>0.6217</v>
-      </c>
-      <c r="E86" t="n">
-        <v>0.6217</v>
-      </c>
-      <c r="F86" t="n">
-        <v>9701.1139</v>
-      </c>
-      <c r="G86" t="n">
-        <v>0.6178266666666669</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0.6175583333333338</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>0.6182</v>
-      </c>
-      <c r="C87" t="n">
-        <v>0.6182</v>
-      </c>
-      <c r="D87" t="n">
-        <v>0.6182</v>
-      </c>
-      <c r="E87" t="n">
-        <v>0.6182</v>
-      </c>
-      <c r="F87" t="n">
-        <v>1697209.4454</v>
-      </c>
-      <c r="G87" t="n">
-        <v>0.6179733333333335</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0.6175683333333338</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>0.6217</v>
-      </c>
-      <c r="C88" t="n">
-        <v>0.6217</v>
-      </c>
-      <c r="D88" t="n">
-        <v>0.6217</v>
-      </c>
-      <c r="E88" t="n">
-        <v>0.6217</v>
-      </c>
-      <c r="F88" t="n">
-        <v>9217.82</v>
-      </c>
-      <c r="G88" t="n">
-        <v>0.6182000000000002</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0.6176333333333337</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>0.6189</v>
-      </c>
-      <c r="C89" t="n">
-        <v>0.6189</v>
-      </c>
-      <c r="D89" t="n">
-        <v>0.6189</v>
-      </c>
-      <c r="E89" t="n">
-        <v>0.6189</v>
-      </c>
-      <c r="F89" t="n">
-        <v>599672.1915</v>
-      </c>
-      <c r="G89" t="n">
-        <v>0.6184200000000002</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0.6176316666666669</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>0.6157</v>
-      </c>
-      <c r="C90" t="n">
-        <v>0.6157</v>
-      </c>
-      <c r="D90" t="n">
-        <v>0.6157</v>
-      </c>
-      <c r="E90" t="n">
-        <v>0.6157</v>
-      </c>
-      <c r="F90" t="n">
-        <v>1981897.035</v>
-      </c>
-      <c r="G90" t="n">
-        <v>0.6182266666666668</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0.6175500000000002</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
         <v>0.6173999999999999</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C127" t="n">
         <v>0.6173999999999999</v>
       </c>
-      <c r="D91" t="n">
+      <c r="D127" t="n">
         <v>0.6173999999999999</v>
       </c>
-      <c r="E91" t="n">
+      <c r="E127" t="n">
         <v>0.6173999999999999</v>
       </c>
-      <c r="F91" t="n">
-        <v>625007.0057</v>
-      </c>
-      <c r="G91" t="n">
-        <v>0.6181400000000001</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0.6175166666666669</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>0.6132</v>
-      </c>
-      <c r="C92" t="n">
-        <v>0.6217</v>
-      </c>
-      <c r="D92" t="n">
-        <v>0.6217</v>
-      </c>
-      <c r="E92" t="n">
-        <v>0.6132</v>
-      </c>
-      <c r="F92" t="n">
-        <v>4865.721</v>
-      </c>
-      <c r="G92" t="n">
-        <v>0.6185200000000002</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0.6176183333333335</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>0.6217</v>
-      </c>
-      <c r="C93" t="n">
-        <v>0.6217</v>
-      </c>
-      <c r="D93" t="n">
-        <v>0.6217</v>
-      </c>
-      <c r="E93" t="n">
-        <v>0.6217</v>
-      </c>
-      <c r="F93" t="n">
-        <v>820.6097</v>
-      </c>
-      <c r="G93" t="n">
-        <v>0.6187266666666669</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0.6177350000000001</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>0.6209</v>
-      </c>
-      <c r="C94" t="n">
-        <v>0.6209</v>
-      </c>
-      <c r="D94" t="n">
-        <v>0.6209</v>
-      </c>
-      <c r="E94" t="n">
-        <v>0.6209</v>
-      </c>
-      <c r="F94" t="n">
-        <v>1273591.2501</v>
-      </c>
-      <c r="G94" t="n">
-        <v>0.6192400000000001</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0.6178333333333335</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>0.6163999999999999</v>
-      </c>
-      <c r="C95" t="n">
-        <v>0.6163999999999999</v>
-      </c>
-      <c r="D95" t="n">
-        <v>0.6163999999999999</v>
-      </c>
-      <c r="E95" t="n">
-        <v>0.6163999999999999</v>
-      </c>
-      <c r="F95" t="n">
-        <v>1744415.0205</v>
-      </c>
-      <c r="G95" t="n">
-        <v>0.6192000000000003</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0.6177750000000001</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>0.6215000000000001</v>
-      </c>
-      <c r="C96" t="n">
-        <v>0.6215000000000001</v>
-      </c>
-      <c r="D96" t="n">
-        <v>0.6215000000000001</v>
-      </c>
-      <c r="E96" t="n">
-        <v>0.6215000000000001</v>
-      </c>
-      <c r="F96" t="n">
-        <v>864063.3504999999</v>
-      </c>
-      <c r="G96" t="n">
-        <v>0.6193133333333336</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0.6178016666666667</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>0.617</v>
-      </c>
-      <c r="C97" t="n">
-        <v>0.617</v>
-      </c>
-      <c r="D97" t="n">
-        <v>0.617</v>
-      </c>
-      <c r="E97" t="n">
-        <v>0.617</v>
-      </c>
-      <c r="F97" t="n">
-        <v>1640572.9964</v>
-      </c>
-      <c r="G97" t="n">
-        <v>0.6193333333333336</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0.61776</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>0.6173999999999999</v>
-      </c>
-      <c r="C98" t="n">
-        <v>0.6173999999999999</v>
-      </c>
-      <c r="D98" t="n">
-        <v>0.6173999999999999</v>
-      </c>
-      <c r="E98" t="n">
-        <v>0.6173999999999999</v>
-      </c>
-      <c r="F98" t="n">
+      <c r="F127" t="n">
         <v>640825.3709</v>
       </c>
-      <c r="G98" t="n">
-        <v>0.6191800000000003</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0.6177449999999999</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
+      <c r="G127" t="n">
+        <v>-26243225.79859335</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
         <v>0.6176</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C128" t="n">
         <v>0.6176</v>
       </c>
-      <c r="D99" t="n">
+      <c r="D128" t="n">
         <v>0.6176</v>
       </c>
-      <c r="E99" t="n">
+      <c r="E128" t="n">
         <v>0.6176</v>
       </c>
-      <c r="F99" t="n">
+      <c r="F128" t="n">
         <v>1603813.4924</v>
       </c>
-      <c r="G99" t="n">
-        <v>0.6189066666666669</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0.61771</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
+      <c r="G128" t="n">
+        <v>-24639412.30619335</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
         <v>0.6202</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C129" t="n">
         <v>0.6202</v>
       </c>
-      <c r="D100" t="n">
+      <c r="D129" t="n">
         <v>0.6202</v>
       </c>
-      <c r="E100" t="n">
+      <c r="E129" t="n">
         <v>0.6202</v>
       </c>
-      <c r="F100" t="n">
+      <c r="F129" t="n">
         <v>572786.759</v>
       </c>
-      <c r="G100" t="n">
-        <v>0.6192000000000003</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0.6177916666666666</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
+      <c r="G129" t="n">
+        <v>-24066625.54719335</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
         <v>0.6216</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C130" t="n">
         <v>0.6216</v>
       </c>
-      <c r="D101" t="n">
+      <c r="D130" t="n">
         <v>0.6216</v>
       </c>
-      <c r="E101" t="n">
+      <c r="E130" t="n">
         <v>0.6216</v>
       </c>
-      <c r="F101" t="n">
+      <c r="F130" t="n">
         <v>830.9085</v>
       </c>
-      <c r="G101" t="n">
-        <v>0.6191933333333336</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0.6178683333333334</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
+      <c r="G130" t="n">
+        <v>-24065794.63869335</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
         <v>0.6203</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C131" t="n">
         <v>0.6203</v>
       </c>
-      <c r="D102" t="n">
+      <c r="D131" t="n">
         <v>0.6203</v>
       </c>
-      <c r="E102" t="n">
+      <c r="E131" t="n">
         <v>0.6203</v>
       </c>
-      <c r="F102" t="n">
+      <c r="F131" t="n">
         <v>1007193.1872</v>
       </c>
-      <c r="G102" t="n">
-        <v>0.6193333333333336</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0.6179266666666667</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
+      <c r="G131" t="n">
+        <v>-25072987.82589335</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
         <v>0.6137</v>
       </c>
-      <c r="C103" t="n">
+      <c r="C132" t="n">
         <v>0.6137</v>
       </c>
-      <c r="D103" t="n">
+      <c r="D132" t="n">
         <v>0.6137</v>
       </c>
-      <c r="E103" t="n">
+      <c r="E132" t="n">
         <v>0.6137</v>
       </c>
-      <c r="F103" t="n">
+      <c r="F132" t="n">
         <v>513422.0242</v>
       </c>
-      <c r="G103" t="n">
-        <v>0.6188000000000002</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0.6178566666666667</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
+      <c r="G132" t="n">
+        <v>-25586409.85009335</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
         <v>0.6141</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C133" t="n">
         <v>0.6141</v>
       </c>
-      <c r="D104" t="n">
+      <c r="D133" t="n">
         <v>0.6141</v>
       </c>
-      <c r="E104" t="n">
+      <c r="E133" t="n">
         <v>0.6141</v>
       </c>
-      <c r="F104" t="n">
+      <c r="F133" t="n">
         <v>589943.362</v>
       </c>
-      <c r="G104" t="n">
-        <v>0.6184800000000003</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0.6178050000000002</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
+      <c r="G133" t="n">
+        <v>-24996466.48809335</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-14 BackTest APIS.xlsx
+++ b/BackTest/2020-01-14 BackTest APIS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M133"/>
+  <dimension ref="A1:N133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -742,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -777,6 +791,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -804,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -812,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -847,6 +863,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -882,6 +899,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -917,6 +935,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -944,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -952,6 +971,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -987,6 +1007,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1022,6 +1043,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1057,6 +1079,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1092,6 +1115,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1127,6 +1151,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1162,6 +1187,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1197,6 +1223,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1232,6 +1259,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1267,6 +1295,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1302,6 +1331,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1337,6 +1367,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1372,6 +1403,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1407,6 +1439,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1442,6 +1475,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1477,6 +1511,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1512,6 +1547,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1547,6 +1583,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1582,6 +1619,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1617,6 +1655,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1652,6 +1691,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1687,6 +1727,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1722,6 +1763,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1757,6 +1799,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1792,6 +1835,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1827,6 +1871,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1854,7 +1899,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -1862,6 +1907,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1889,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
@@ -1897,6 +1943,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1932,6 +1979,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1959,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -1967,6 +2015,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1994,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
@@ -2002,6 +2051,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2037,6 +2087,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2064,7 +2115,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -2072,6 +2123,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2107,6 +2159,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2142,6 +2195,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2169,7 +2223,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -2177,6 +2231,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2212,6 +2267,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2239,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -2247,6 +2303,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2282,6 +2339,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2317,6 +2375,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2352,6 +2411,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2387,6 +2447,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2422,6 +2483,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2457,6 +2519,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2492,6 +2555,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2527,6 +2591,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2562,6 +2627,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2597,6 +2663,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2632,6 +2699,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2667,6 +2735,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2702,6 +2771,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2737,6 +2807,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2772,6 +2843,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2807,6 +2879,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2842,6 +2915,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2877,6 +2951,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2912,6 +2987,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2947,6 +3023,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2982,6 +3059,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3017,6 +3095,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3052,6 +3131,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3087,6 +3167,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3122,6 +3203,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3157,6 +3239,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3192,6 +3275,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3227,6 +3311,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3262,6 +3347,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3297,6 +3383,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3332,6 +3419,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3367,6 +3455,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3402,6 +3491,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3437,6 +3527,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3472,6 +3563,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3507,6 +3599,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3542,6 +3635,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3577,6 +3671,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3612,6 +3707,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3647,6 +3743,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3682,6 +3779,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3717,6 +3815,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3752,6 +3851,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3787,6 +3887,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3822,6 +3923,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3857,6 +3959,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3892,6 +3995,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3927,6 +4031,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3962,6 +4067,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3997,6 +4103,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4032,6 +4139,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4067,6 +4175,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4102,6 +4211,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4137,6 +4247,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4172,6 +4283,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4207,6 +4319,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4246,6 +4359,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4287,6 +4401,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4330,6 +4445,7 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4365,6 +4481,7 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4400,6 +4517,7 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4435,6 +4553,7 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4470,6 +4589,7 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4505,6 +4625,7 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4540,6 +4661,7 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4575,6 +4697,7 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4610,6 +4733,7 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4651,6 +4775,7 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4690,6 +4815,7 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4729,6 +4855,7 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4768,6 +4895,7 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4807,6 +4935,7 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4846,6 +4975,7 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4885,6 +5015,7 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4924,6 +5055,7 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4963,6 +5095,7 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5002,6 +5135,7 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5041,6 +5175,7 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5080,6 +5215,7 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5119,6 +5255,7 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-14 BackTest APIS.xlsx
+++ b/BackTest/2020-01-14 BackTest APIS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N133"/>
+  <dimension ref="A1:N162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.62</v>
+        <v>0.621</v>
       </c>
       <c r="C2" t="n">
-        <v>0.62</v>
+        <v>0.621</v>
       </c>
       <c r="D2" t="n">
-        <v>0.62</v>
+        <v>0.621</v>
       </c>
       <c r="E2" t="n">
-        <v>0.62</v>
+        <v>0.621</v>
       </c>
       <c r="F2" t="n">
-        <v>46233.3132</v>
+        <v>1444677.9511</v>
       </c>
       <c r="G2" t="n">
-        <v>-8226526.148599998</v>
+        <v>-1710019.7046</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.62</v>
+        <v>0.6213</v>
       </c>
       <c r="C3" t="n">
-        <v>0.62</v>
+        <v>0.6213</v>
       </c>
       <c r="D3" t="n">
-        <v>0.62</v>
+        <v>0.6213</v>
       </c>
       <c r="E3" t="n">
-        <v>0.62</v>
+        <v>0.6213</v>
       </c>
       <c r="F3" t="n">
-        <v>760218.2998</v>
+        <v>1224696.6605</v>
       </c>
       <c r="G3" t="n">
-        <v>-8226526.148599998</v>
+        <v>-485323.0440999996</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6253</v>
+        <v>0.6228</v>
       </c>
       <c r="C4" t="n">
-        <v>0.626</v>
+        <v>0.6228</v>
       </c>
       <c r="D4" t="n">
-        <v>0.626</v>
+        <v>0.6228</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6253</v>
+        <v>0.6228</v>
       </c>
       <c r="F4" t="n">
-        <v>1584419.4739</v>
+        <v>1109352.7896</v>
       </c>
       <c r="G4" t="n">
-        <v>-6642106.674699998</v>
+        <v>624029.7455000004</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.616</v>
+        <v>0.6172</v>
       </c>
       <c r="C5" t="n">
-        <v>0.616</v>
+        <v>0.6172</v>
       </c>
       <c r="D5" t="n">
-        <v>0.616</v>
+        <v>0.6172</v>
       </c>
       <c r="E5" t="n">
-        <v>0.616</v>
+        <v>0.6172</v>
       </c>
       <c r="F5" t="n">
-        <v>695908.0876</v>
+        <v>1196021.4944</v>
       </c>
       <c r="G5" t="n">
-        <v>-7338014.762299998</v>
+        <v>-571991.7488999995</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6211</v>
+        <v>0.6195000000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6211</v>
+        <v>0.6195000000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6211</v>
+        <v>0.6195000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6211</v>
+        <v>0.6195000000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>1690644.2853</v>
+        <v>1357292.7956</v>
       </c>
       <c r="G6" t="n">
-        <v>-5647370.476999998</v>
+        <v>785301.0467000005</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6193</v>
+        <v>0.6158</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6193</v>
+        <v>0.6158</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6193</v>
+        <v>0.6158</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6193</v>
+        <v>0.6158</v>
       </c>
       <c r="F7" t="n">
-        <v>814255.2389</v>
+        <v>759469.1718</v>
       </c>
       <c r="G7" t="n">
-        <v>-6461625.715899998</v>
+        <v>25831.87490000052</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6224</v>
+        <v>0.6149</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6224</v>
+        <v>0.6149</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6224</v>
+        <v>0.6149</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6224</v>
+        <v>0.6149</v>
       </c>
       <c r="F8" t="n">
-        <v>1859774.5197</v>
+        <v>506860.7154</v>
       </c>
       <c r="G8" t="n">
-        <v>-4601851.196199998</v>
+        <v>-481028.8404999995</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.6172</v>
+        <v>0.6141</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6172</v>
+        <v>0.6141</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6172</v>
+        <v>0.6141</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6172</v>
+        <v>0.6141</v>
       </c>
       <c r="F9" t="n">
-        <v>1962619.6665</v>
+        <v>704339.9134</v>
       </c>
       <c r="G9" t="n">
-        <v>-6564470.862699999</v>
+        <v>-1185368.753899999</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.622</v>
+        <v>0.6138</v>
       </c>
       <c r="C10" t="n">
-        <v>0.622</v>
+        <v>0.6138</v>
       </c>
       <c r="D10" t="n">
-        <v>0.622</v>
+        <v>0.6138</v>
       </c>
       <c r="E10" t="n">
-        <v>0.622</v>
+        <v>0.6138</v>
       </c>
       <c r="F10" t="n">
-        <v>1788765.4217</v>
+        <v>908741.2293</v>
       </c>
       <c r="G10" t="n">
-        <v>-4775705.440999999</v>
+        <v>-2094109.983199999</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6239</v>
+        <v>0.6141</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6239</v>
+        <v>0.6141</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6239</v>
+        <v>0.6141</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6239</v>
+        <v>0.6141</v>
       </c>
       <c r="F11" t="n">
-        <v>460838.4352</v>
+        <v>1063764.72</v>
       </c>
       <c r="G11" t="n">
-        <v>-4314867.005799999</v>
+        <v>-1030345.263199999</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,28 +798,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.6228</v>
+        <v>0.6143999999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6228</v>
+        <v>0.6143999999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6228</v>
+        <v>0.6143999999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6228</v>
+        <v>0.6143999999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>1972937.6755</v>
+        <v>1687792.9531</v>
       </c>
       <c r="G12" t="n">
-        <v>-6287804.681299998</v>
+        <v>657447.6899000006</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -834,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.614</v>
+        <v>0.6153</v>
       </c>
       <c r="C13" t="n">
-        <v>0.614</v>
+        <v>0.618</v>
       </c>
       <c r="D13" t="n">
-        <v>0.614</v>
+        <v>0.618</v>
       </c>
       <c r="E13" t="n">
-        <v>0.614</v>
+        <v>0.6153</v>
       </c>
       <c r="F13" t="n">
-        <v>296731.7048</v>
+        <v>947281.7387</v>
       </c>
       <c r="G13" t="n">
-        <v>-6584536.386099999</v>
+        <v>1604729.428600001</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.6173999999999999</v>
+        <v>0.618</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6173999999999999</v>
+        <v>0.618</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6173999999999999</v>
+        <v>0.618</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6173999999999999</v>
+        <v>0.618</v>
       </c>
       <c r="F14" t="n">
-        <v>1298676.7261</v>
+        <v>111472.4895</v>
       </c>
       <c r="G14" t="n">
-        <v>-5285859.659999998</v>
+        <v>1604729.428600001</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.6256</v>
+        <v>0.6136</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6256</v>
+        <v>0.6136</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6256</v>
+        <v>0.6136</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6256</v>
+        <v>0.6136</v>
       </c>
       <c r="F15" t="n">
-        <v>968.7019</v>
+        <v>1954181.5709</v>
       </c>
       <c r="G15" t="n">
-        <v>-5284890.958099999</v>
+        <v>-349452.1422999993</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -942,28 +942,28 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.6215000000000001</v>
+        <v>0.6199</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6215000000000001</v>
+        <v>0.6199</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6215000000000001</v>
+        <v>0.6199</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6215000000000001</v>
+        <v>0.6199</v>
       </c>
       <c r="F16" t="n">
-        <v>526297.2745000001</v>
+        <v>842.3786</v>
       </c>
       <c r="G16" t="n">
-        <v>-5811188.232599999</v>
+        <v>-348609.7636999993</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -978,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.6194</v>
+        <v>0.6199</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6194</v>
+        <v>0.6199</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6194</v>
+        <v>0.6199</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6194</v>
+        <v>0.6199</v>
       </c>
       <c r="F17" t="n">
-        <v>727319.6213</v>
+        <v>77825.92230000001</v>
       </c>
       <c r="G17" t="n">
-        <v>-6538507.853899999</v>
+        <v>-348609.7636999993</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1014,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.6182</v>
+        <v>0.6197</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6182</v>
+        <v>0.6197</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6182</v>
+        <v>0.6197</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6182</v>
+        <v>0.6197</v>
       </c>
       <c r="F18" t="n">
-        <v>1127287.8897</v>
+        <v>1683261.8594</v>
       </c>
       <c r="G18" t="n">
-        <v>-7665795.743599999</v>
+        <v>-2031871.623099999</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1050,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.6145</v>
+        <v>0.6173</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6145</v>
+        <v>0.6173</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6145</v>
+        <v>0.6173</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6145</v>
+        <v>0.6173</v>
       </c>
       <c r="F19" t="n">
-        <v>517070.7405</v>
+        <v>979818.5986</v>
       </c>
       <c r="G19" t="n">
-        <v>-8182866.484099999</v>
+        <v>-3011690.221699999</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1086,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.614</v>
+        <v>0.6158</v>
       </c>
       <c r="C20" t="n">
-        <v>0.614</v>
+        <v>0.6158</v>
       </c>
       <c r="D20" t="n">
-        <v>0.614</v>
+        <v>0.6158</v>
       </c>
       <c r="E20" t="n">
-        <v>0.614</v>
+        <v>0.6158</v>
       </c>
       <c r="F20" t="n">
-        <v>592290.5975</v>
+        <v>1715469.3687</v>
       </c>
       <c r="G20" t="n">
-        <v>-8775157.081599999</v>
+        <v>-4727159.590399999</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1122,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.6141</v>
+        <v>0.6177</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6141</v>
+        <v>0.6177</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6141</v>
+        <v>0.6177</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6141</v>
+        <v>0.6177</v>
       </c>
       <c r="F21" t="n">
-        <v>1734781.8362</v>
+        <v>1235060.5803</v>
       </c>
       <c r="G21" t="n">
-        <v>-7040375.245399999</v>
+        <v>-3492099.010099999</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1158,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.6145</v>
+        <v>0.6149</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6145</v>
+        <v>0.6149</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6145</v>
+        <v>0.6149</v>
       </c>
       <c r="E22" t="n">
-        <v>0.6145</v>
+        <v>0.6149</v>
       </c>
       <c r="F22" t="n">
-        <v>332929.2595</v>
+        <v>1327567.994</v>
       </c>
       <c r="G22" t="n">
-        <v>-6707445.9859</v>
+        <v>-4819667.004099999</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1194,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.6145</v>
+        <v>0.6199</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6145</v>
+        <v>0.6199</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6145</v>
+        <v>0.6199</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6145</v>
+        <v>0.6199</v>
       </c>
       <c r="F23" t="n">
-        <v>515550.3375</v>
+        <v>818.9809</v>
       </c>
       <c r="G23" t="n">
-        <v>-6707445.9859</v>
+        <v>-4818848.023199999</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1230,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.6172</v>
+        <v>0.6181</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6172</v>
+        <v>0.6181</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6172</v>
+        <v>0.6181</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6172</v>
+        <v>0.6181</v>
       </c>
       <c r="F24" t="n">
-        <v>1507806.5507</v>
+        <v>1296526.6527</v>
       </c>
       <c r="G24" t="n">
-        <v>-5199639.4352</v>
+        <v>-6115374.675899999</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1266,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.6145</v>
+        <v>0.618</v>
       </c>
       <c r="C25" t="n">
-        <v>0.614</v>
+        <v>0.618</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6145</v>
+        <v>0.618</v>
       </c>
       <c r="E25" t="n">
-        <v>0.614</v>
+        <v>0.618</v>
       </c>
       <c r="F25" t="n">
-        <v>53558.0045</v>
+        <v>1079448.5621</v>
       </c>
       <c r="G25" t="n">
-        <v>-5253197.4397</v>
+        <v>-7194823.237999999</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1302,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.6145</v>
+        <v>0.6199</v>
       </c>
       <c r="C26" t="n">
-        <v>0.6145</v>
+        <v>0.6142</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6145</v>
+        <v>0.6199</v>
       </c>
       <c r="E26" t="n">
-        <v>0.6145</v>
+        <v>0.6142</v>
       </c>
       <c r="F26" t="n">
-        <v>757327.3989</v>
+        <v>580671.9075</v>
       </c>
       <c r="G26" t="n">
-        <v>-4495870.0408</v>
+        <v>-7775495.145499999</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.6149</v>
+        <v>0.6199</v>
       </c>
       <c r="C27" t="n">
-        <v>0.6149</v>
+        <v>0.6199</v>
       </c>
       <c r="D27" t="n">
-        <v>0.6149</v>
+        <v>0.6199</v>
       </c>
       <c r="E27" t="n">
-        <v>0.6149</v>
+        <v>0.6199</v>
       </c>
       <c r="F27" t="n">
-        <v>1385895.6728</v>
+        <v>842.4357</v>
       </c>
       <c r="G27" t="n">
-        <v>-3109974.368</v>
+        <v>-7774652.709799998</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1374,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.614</v>
+        <v>0.62</v>
       </c>
       <c r="C28" t="n">
-        <v>0.614</v>
+        <v>0.62</v>
       </c>
       <c r="D28" t="n">
-        <v>0.614</v>
+        <v>0.62</v>
       </c>
       <c r="E28" t="n">
-        <v>0.614</v>
+        <v>0.62</v>
       </c>
       <c r="F28" t="n">
-        <v>236688.8352</v>
+        <v>879.942</v>
       </c>
       <c r="G28" t="n">
-        <v>-3346663.2032</v>
+        <v>-7773772.767799999</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1410,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.6163</v>
+        <v>0.6175</v>
       </c>
       <c r="C29" t="n">
-        <v>0.6163</v>
+        <v>0.6175</v>
       </c>
       <c r="D29" t="n">
-        <v>0.6163</v>
+        <v>0.6175</v>
       </c>
       <c r="E29" t="n">
-        <v>0.6163</v>
+        <v>0.6175</v>
       </c>
       <c r="F29" t="n">
-        <v>774518.0422</v>
+        <v>453585.0451</v>
       </c>
       <c r="G29" t="n">
-        <v>-2572145.161</v>
+        <v>-8227357.812899998</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1446,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.6176</v>
+        <v>0.62</v>
       </c>
       <c r="C30" t="n">
-        <v>0.6176</v>
+        <v>0.62</v>
       </c>
       <c r="D30" t="n">
-        <v>0.6176</v>
+        <v>0.62</v>
       </c>
       <c r="E30" t="n">
-        <v>0.6176</v>
+        <v>0.62</v>
       </c>
       <c r="F30" t="n">
-        <v>1901376.3812</v>
+        <v>831.6643</v>
       </c>
       <c r="G30" t="n">
-        <v>-670768.7797999999</v>
+        <v>-8226526.148599998</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1482,22 +1482,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.6183</v>
+        <v>0.62</v>
       </c>
       <c r="C31" t="n">
-        <v>0.6183</v>
+        <v>0.62</v>
       </c>
       <c r="D31" t="n">
-        <v>0.6183</v>
+        <v>0.62</v>
       </c>
       <c r="E31" t="n">
-        <v>0.6183</v>
+        <v>0.62</v>
       </c>
       <c r="F31" t="n">
-        <v>1307616.6098</v>
+        <v>46233.3132</v>
       </c>
       <c r="G31" t="n">
-        <v>636847.8300000001</v>
+        <v>-8226526.148599998</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.6158</v>
+        <v>0.62</v>
       </c>
       <c r="C32" t="n">
-        <v>0.6158</v>
+        <v>0.62</v>
       </c>
       <c r="D32" t="n">
-        <v>0.6158</v>
+        <v>0.62</v>
       </c>
       <c r="E32" t="n">
-        <v>0.6158</v>
+        <v>0.62</v>
       </c>
       <c r="F32" t="n">
-        <v>2033757.7907</v>
+        <v>760218.2998</v>
       </c>
       <c r="G32" t="n">
-        <v>-1396909.9607</v>
+        <v>-8226526.148599998</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1554,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.6211</v>
+        <v>0.6253</v>
       </c>
       <c r="C33" t="n">
-        <v>0.6212</v>
+        <v>0.626</v>
       </c>
       <c r="D33" t="n">
-        <v>0.6212</v>
+        <v>0.626</v>
       </c>
       <c r="E33" t="n">
-        <v>0.6211</v>
+        <v>0.6253</v>
       </c>
       <c r="F33" t="n">
-        <v>1481085.8099</v>
+        <v>1584419.4739</v>
       </c>
       <c r="G33" t="n">
-        <v>84175.84920000006</v>
+        <v>-6642106.674699998</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1590,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.619</v>
+        <v>0.616</v>
       </c>
       <c r="C34" t="n">
-        <v>0.619</v>
+        <v>0.616</v>
       </c>
       <c r="D34" t="n">
-        <v>0.619</v>
+        <v>0.616</v>
       </c>
       <c r="E34" t="n">
-        <v>0.619</v>
+        <v>0.616</v>
       </c>
       <c r="F34" t="n">
-        <v>1036597.5943</v>
+        <v>695908.0876</v>
       </c>
       <c r="G34" t="n">
-        <v>-952421.7450999999</v>
+        <v>-7338014.762299998</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1626,22 +1626,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.615</v>
+        <v>0.6211</v>
       </c>
       <c r="C35" t="n">
-        <v>0.615</v>
+        <v>0.6211</v>
       </c>
       <c r="D35" t="n">
-        <v>0.615</v>
+        <v>0.6211</v>
       </c>
       <c r="E35" t="n">
-        <v>0.615</v>
+        <v>0.6211</v>
       </c>
       <c r="F35" t="n">
-        <v>606484.5848</v>
+        <v>1690644.2853</v>
       </c>
       <c r="G35" t="n">
-        <v>-1558906.3299</v>
+        <v>-5647370.476999998</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1662,22 +1662,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.6159</v>
+        <v>0.6193</v>
       </c>
       <c r="C36" t="n">
-        <v>0.6159</v>
+        <v>0.6193</v>
       </c>
       <c r="D36" t="n">
-        <v>0.6159</v>
+        <v>0.6193</v>
       </c>
       <c r="E36" t="n">
-        <v>0.6159</v>
+        <v>0.6193</v>
       </c>
       <c r="F36" t="n">
-        <v>1549629.8342</v>
+        <v>814255.2389</v>
       </c>
       <c r="G36" t="n">
-        <v>-9276.495699999854</v>
+        <v>-6461625.715899998</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1698,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.6194</v>
+        <v>0.6224</v>
       </c>
       <c r="C37" t="n">
-        <v>0.6194</v>
+        <v>0.6224</v>
       </c>
       <c r="D37" t="n">
-        <v>0.6194</v>
+        <v>0.6224</v>
       </c>
       <c r="E37" t="n">
-        <v>0.6194</v>
+        <v>0.6224</v>
       </c>
       <c r="F37" t="n">
-        <v>1485210.631</v>
+        <v>1859774.5197</v>
       </c>
       <c r="G37" t="n">
-        <v>1475934.1353</v>
+        <v>-4601851.196199998</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1734,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.6256</v>
+        <v>0.6172</v>
       </c>
       <c r="C38" t="n">
-        <v>0.6256</v>
+        <v>0.6172</v>
       </c>
       <c r="D38" t="n">
-        <v>0.6256</v>
+        <v>0.6172</v>
       </c>
       <c r="E38" t="n">
-        <v>0.6256</v>
+        <v>0.6172</v>
       </c>
       <c r="F38" t="n">
-        <v>1491.9542</v>
+        <v>1962619.6665</v>
       </c>
       <c r="G38" t="n">
-        <v>1477426.0895</v>
+        <v>-6564470.862699999</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1770,28 +1770,28 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.6253</v>
+        <v>0.622</v>
       </c>
       <c r="C39" t="n">
-        <v>0.6253</v>
+        <v>0.622</v>
       </c>
       <c r="D39" t="n">
-        <v>0.6253</v>
+        <v>0.622</v>
       </c>
       <c r="E39" t="n">
-        <v>0.6253</v>
+        <v>0.622</v>
       </c>
       <c r="F39" t="n">
-        <v>1413543.3952</v>
+        <v>1788765.4217</v>
       </c>
       <c r="G39" t="n">
-        <v>63882.69430000032</v>
+        <v>-4775705.440999999</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -1806,28 +1806,28 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.6148</v>
+        <v>0.6239</v>
       </c>
       <c r="C40" t="n">
-        <v>0.6148</v>
+        <v>0.6239</v>
       </c>
       <c r="D40" t="n">
-        <v>0.6148</v>
+        <v>0.6239</v>
       </c>
       <c r="E40" t="n">
-        <v>0.6148</v>
+        <v>0.6239</v>
       </c>
       <c r="F40" t="n">
-        <v>24528.6025</v>
+        <v>460838.4352</v>
       </c>
       <c r="G40" t="n">
-        <v>39354.09180000032</v>
+        <v>-4314867.005799999</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -1842,28 +1842,28 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.6254999999999999</v>
+        <v>0.6228</v>
       </c>
       <c r="C41" t="n">
-        <v>0.6254999999999999</v>
+        <v>0.6228</v>
       </c>
       <c r="D41" t="n">
-        <v>0.6254999999999999</v>
+        <v>0.6228</v>
       </c>
       <c r="E41" t="n">
-        <v>0.6254999999999999</v>
+        <v>0.6228</v>
       </c>
       <c r="F41" t="n">
-        <v>817.538</v>
+        <v>1972937.6755</v>
       </c>
       <c r="G41" t="n">
-        <v>40171.62980000032</v>
+        <v>-6287804.681299998</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
@@ -1878,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.6211</v>
+        <v>0.614</v>
       </c>
       <c r="C42" t="n">
-        <v>0.6211</v>
+        <v>0.614</v>
       </c>
       <c r="D42" t="n">
-        <v>0.6211</v>
+        <v>0.614</v>
       </c>
       <c r="E42" t="n">
-        <v>0.6211</v>
+        <v>0.614</v>
       </c>
       <c r="F42" t="n">
-        <v>804531.6403</v>
+        <v>296731.7048</v>
       </c>
       <c r="G42" t="n">
-        <v>-764360.0104999996</v>
+        <v>-6584536.386099999</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1914,28 +1914,28 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.6254999999999999</v>
+        <v>0.6173999999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>0.6254999999999999</v>
+        <v>0.6173999999999999</v>
       </c>
       <c r="D43" t="n">
-        <v>0.6254999999999999</v>
+        <v>0.6173999999999999</v>
       </c>
       <c r="E43" t="n">
-        <v>0.6254999999999999</v>
+        <v>0.6173999999999999</v>
       </c>
       <c r="F43" t="n">
-        <v>821.1477</v>
+        <v>1298676.7261</v>
       </c>
       <c r="G43" t="n">
-        <v>-763538.8627999997</v>
+        <v>-5285859.659999998</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
@@ -1950,28 +1950,28 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.6191</v>
+        <v>0.6256</v>
       </c>
       <c r="C44" t="n">
-        <v>0.6254999999999999</v>
+        <v>0.6256</v>
       </c>
       <c r="D44" t="n">
-        <v>0.6254999999999999</v>
+        <v>0.6256</v>
       </c>
       <c r="E44" t="n">
-        <v>0.6191</v>
+        <v>0.6256</v>
       </c>
       <c r="F44" t="n">
-        <v>1516948.6323</v>
+        <v>968.7019</v>
       </c>
       <c r="G44" t="n">
-        <v>-763538.8627999997</v>
+        <v>-5284890.958099999</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -1986,28 +1986,28 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.6241</v>
+        <v>0.6215000000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>0.6241</v>
+        <v>0.6215000000000001</v>
       </c>
       <c r="D45" t="n">
-        <v>0.6241</v>
+        <v>0.6215000000000001</v>
       </c>
       <c r="E45" t="n">
-        <v>0.6241</v>
+        <v>0.6215000000000001</v>
       </c>
       <c r="F45" t="n">
-        <v>1907313.6174</v>
+        <v>526297.2745000001</v>
       </c>
       <c r="G45" t="n">
-        <v>-2670852.4802</v>
+        <v>-5811188.232599999</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -2022,28 +2022,28 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.6169</v>
+        <v>0.6194</v>
       </c>
       <c r="C46" t="n">
-        <v>0.6169</v>
+        <v>0.6194</v>
       </c>
       <c r="D46" t="n">
-        <v>0.6169</v>
+        <v>0.6194</v>
       </c>
       <c r="E46" t="n">
-        <v>0.6169</v>
+        <v>0.6194</v>
       </c>
       <c r="F46" t="n">
-        <v>874207.9801</v>
+        <v>727319.6213</v>
       </c>
       <c r="G46" t="n">
-        <v>-3545060.460299999</v>
+        <v>-6538507.853899999</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
@@ -2058,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.6254999999999999</v>
+        <v>0.6182</v>
       </c>
       <c r="C47" t="n">
-        <v>0.6254999999999999</v>
+        <v>0.6182</v>
       </c>
       <c r="D47" t="n">
-        <v>0.6254999999999999</v>
+        <v>0.6182</v>
       </c>
       <c r="E47" t="n">
-        <v>0.6254999999999999</v>
+        <v>0.6182</v>
       </c>
       <c r="F47" t="n">
-        <v>804.9994</v>
+        <v>1127287.8897</v>
       </c>
       <c r="G47" t="n">
-        <v>-3544255.460899999</v>
+        <v>-7665795.743599999</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2094,28 +2094,28 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.6177</v>
+        <v>0.6145</v>
       </c>
       <c r="C48" t="n">
-        <v>0.6177</v>
+        <v>0.6145</v>
       </c>
       <c r="D48" t="n">
-        <v>0.6177</v>
+        <v>0.6145</v>
       </c>
       <c r="E48" t="n">
-        <v>0.6177</v>
+        <v>0.6145</v>
       </c>
       <c r="F48" t="n">
-        <v>1456642.7751</v>
+        <v>517070.7405</v>
       </c>
       <c r="G48" t="n">
-        <v>-5000898.236</v>
+        <v>-8182866.484099999</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -2130,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.6254999999999999</v>
+        <v>0.614</v>
       </c>
       <c r="C49" t="n">
-        <v>0.6254999999999999</v>
+        <v>0.614</v>
       </c>
       <c r="D49" t="n">
-        <v>0.6254999999999999</v>
+        <v>0.614</v>
       </c>
       <c r="E49" t="n">
-        <v>0.6254999999999999</v>
+        <v>0.614</v>
       </c>
       <c r="F49" t="n">
-        <v>828.7275</v>
+        <v>592290.5975</v>
       </c>
       <c r="G49" t="n">
-        <v>-5000069.5085</v>
+        <v>-8775157.081599999</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2166,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.6209</v>
+        <v>0.6141</v>
       </c>
       <c r="C50" t="n">
-        <v>0.6209</v>
+        <v>0.6141</v>
       </c>
       <c r="D50" t="n">
-        <v>0.6209</v>
+        <v>0.6141</v>
       </c>
       <c r="E50" t="n">
-        <v>0.6209</v>
+        <v>0.6141</v>
       </c>
       <c r="F50" t="n">
-        <v>1096428.3188</v>
+        <v>1734781.8362</v>
       </c>
       <c r="G50" t="n">
-        <v>-6096497.827299999</v>
+        <v>-7040375.245399999</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2202,28 +2202,28 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.6177</v>
+        <v>0.6145</v>
       </c>
       <c r="C51" t="n">
-        <v>0.6177</v>
+        <v>0.6145</v>
       </c>
       <c r="D51" t="n">
-        <v>0.6177</v>
+        <v>0.6145</v>
       </c>
       <c r="E51" t="n">
-        <v>0.6177</v>
+        <v>0.6145</v>
       </c>
       <c r="F51" t="n">
-        <v>1991101.7309</v>
+        <v>332929.2595</v>
       </c>
       <c r="G51" t="n">
-        <v>-8087599.558199999</v>
+        <v>-6707445.9859</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -2238,22 +2238,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.6254999999999999</v>
+        <v>0.6145</v>
       </c>
       <c r="C52" t="n">
-        <v>0.6254999999999999</v>
+        <v>0.6145</v>
       </c>
       <c r="D52" t="n">
-        <v>0.6254999999999999</v>
+        <v>0.6145</v>
       </c>
       <c r="E52" t="n">
-        <v>0.6254999999999999</v>
+        <v>0.6145</v>
       </c>
       <c r="F52" t="n">
-        <v>828.1821</v>
+        <v>515550.3375</v>
       </c>
       <c r="G52" t="n">
-        <v>-8086771.376099999</v>
+        <v>-6707445.9859</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2274,28 +2274,28 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.6182</v>
+        <v>0.6172</v>
       </c>
       <c r="C53" t="n">
-        <v>0.6182</v>
+        <v>0.6172</v>
       </c>
       <c r="D53" t="n">
-        <v>0.6182</v>
+        <v>0.6172</v>
       </c>
       <c r="E53" t="n">
-        <v>0.6182</v>
+        <v>0.6172</v>
       </c>
       <c r="F53" t="n">
-        <v>1425378.8208</v>
+        <v>1507806.5507</v>
       </c>
       <c r="G53" t="n">
-        <v>-9512150.196899999</v>
+        <v>-5199639.4352</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -2310,22 +2310,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.6163</v>
+        <v>0.6145</v>
       </c>
       <c r="C54" t="n">
-        <v>0.6163</v>
+        <v>0.614</v>
       </c>
       <c r="D54" t="n">
-        <v>0.6163</v>
+        <v>0.6145</v>
       </c>
       <c r="E54" t="n">
-        <v>0.6163</v>
+        <v>0.614</v>
       </c>
       <c r="F54" t="n">
-        <v>1377625.0329</v>
+        <v>53558.0045</v>
       </c>
       <c r="G54" t="n">
-        <v>-10889775.2298</v>
+        <v>-5253197.4397</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2346,22 +2346,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.6149</v>
+        <v>0.6145</v>
       </c>
       <c r="C55" t="n">
-        <v>0.6147</v>
+        <v>0.6145</v>
       </c>
       <c r="D55" t="n">
-        <v>0.6149</v>
+        <v>0.6145</v>
       </c>
       <c r="E55" t="n">
-        <v>0.6147</v>
+        <v>0.6145</v>
       </c>
       <c r="F55" t="n">
-        <v>2243917.0017</v>
+        <v>757327.3989</v>
       </c>
       <c r="G55" t="n">
-        <v>-13133692.2315</v>
+        <v>-4495870.0408</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2382,22 +2382,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.6176</v>
+        <v>0.6149</v>
       </c>
       <c r="C56" t="n">
-        <v>0.6176</v>
+        <v>0.6149</v>
       </c>
       <c r="D56" t="n">
-        <v>0.6176</v>
+        <v>0.6149</v>
       </c>
       <c r="E56" t="n">
-        <v>0.6176</v>
+        <v>0.6149</v>
       </c>
       <c r="F56" t="n">
-        <v>928998.3347</v>
+        <v>1385895.6728</v>
       </c>
       <c r="G56" t="n">
-        <v>-12204693.8968</v>
+        <v>-3109974.368</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2418,22 +2418,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.6178</v>
+        <v>0.614</v>
       </c>
       <c r="C57" t="n">
-        <v>0.6178</v>
+        <v>0.614</v>
       </c>
       <c r="D57" t="n">
-        <v>0.6178</v>
+        <v>0.614</v>
       </c>
       <c r="E57" t="n">
-        <v>0.6178</v>
+        <v>0.614</v>
       </c>
       <c r="F57" t="n">
-        <v>1902269.9223</v>
+        <v>236688.8352</v>
       </c>
       <c r="G57" t="n">
-        <v>-10302423.9745</v>
+        <v>-3346663.2032</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2454,22 +2454,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.619</v>
+        <v>0.6163</v>
       </c>
       <c r="C58" t="n">
-        <v>0.619</v>
+        <v>0.6163</v>
       </c>
       <c r="D58" t="n">
-        <v>0.619</v>
+        <v>0.6163</v>
       </c>
       <c r="E58" t="n">
-        <v>0.619</v>
+        <v>0.6163</v>
       </c>
       <c r="F58" t="n">
-        <v>1083204.269</v>
+        <v>774518.0422</v>
       </c>
       <c r="G58" t="n">
-        <v>-9219219.705500001</v>
+        <v>-2572145.161</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2490,22 +2490,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.6206</v>
+        <v>0.6176</v>
       </c>
       <c r="C59" t="n">
-        <v>0.6206</v>
+        <v>0.6176</v>
       </c>
       <c r="D59" t="n">
-        <v>0.6206</v>
+        <v>0.6176</v>
       </c>
       <c r="E59" t="n">
-        <v>0.6206</v>
+        <v>0.6176</v>
       </c>
       <c r="F59" t="n">
-        <v>585202.0429</v>
+        <v>1901376.3812</v>
       </c>
       <c r="G59" t="n">
-        <v>-8634017.662600001</v>
+        <v>-670768.7797999999</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.6194</v>
+        <v>0.6183</v>
       </c>
       <c r="C60" t="n">
-        <v>0.6194</v>
+        <v>0.6183</v>
       </c>
       <c r="D60" t="n">
-        <v>0.6194</v>
+        <v>0.6183</v>
       </c>
       <c r="E60" t="n">
-        <v>0.6194</v>
+        <v>0.6183</v>
       </c>
       <c r="F60" t="n">
-        <v>530266.2976</v>
+        <v>1307616.6098</v>
       </c>
       <c r="G60" t="n">
-        <v>-9164283.960200001</v>
+        <v>636847.8300000001</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2562,22 +2562,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.6156</v>
+        <v>0.6158</v>
       </c>
       <c r="C61" t="n">
-        <v>0.6156</v>
+        <v>0.6158</v>
       </c>
       <c r="D61" t="n">
-        <v>0.6156</v>
+        <v>0.6158</v>
       </c>
       <c r="E61" t="n">
-        <v>0.6156</v>
+        <v>0.6158</v>
       </c>
       <c r="F61" t="n">
-        <v>1982022.0421</v>
+        <v>2033757.7907</v>
       </c>
       <c r="G61" t="n">
-        <v>-11146306.0023</v>
+        <v>-1396909.9607</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2598,22 +2598,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.6147</v>
+        <v>0.6211</v>
       </c>
       <c r="C62" t="n">
-        <v>0.6147</v>
+        <v>0.6212</v>
       </c>
       <c r="D62" t="n">
-        <v>0.6147</v>
+        <v>0.6212</v>
       </c>
       <c r="E62" t="n">
-        <v>0.6147</v>
+        <v>0.6211</v>
       </c>
       <c r="F62" t="n">
-        <v>488312.2635</v>
+        <v>1481085.8099</v>
       </c>
       <c r="G62" t="n">
-        <v>-11634618.2658</v>
+        <v>84175.84920000006</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2634,22 +2634,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.615</v>
+        <v>0.619</v>
       </c>
       <c r="C63" t="n">
-        <v>0.615</v>
+        <v>0.619</v>
       </c>
       <c r="D63" t="n">
-        <v>0.615</v>
+        <v>0.619</v>
       </c>
       <c r="E63" t="n">
-        <v>0.615</v>
+        <v>0.619</v>
       </c>
       <c r="F63" t="n">
-        <v>1084097.9645</v>
+        <v>1036597.5943</v>
       </c>
       <c r="G63" t="n">
-        <v>-10550520.3013</v>
+        <v>-952421.7450999999</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2670,22 +2670,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.6199</v>
+        <v>0.615</v>
       </c>
       <c r="C64" t="n">
-        <v>0.6199</v>
+        <v>0.615</v>
       </c>
       <c r="D64" t="n">
-        <v>0.6199</v>
+        <v>0.615</v>
       </c>
       <c r="E64" t="n">
-        <v>0.6199</v>
+        <v>0.615</v>
       </c>
       <c r="F64" t="n">
-        <v>820.9135</v>
+        <v>606484.5848</v>
       </c>
       <c r="G64" t="n">
-        <v>-10549699.3878</v>
+        <v>-1558906.3299</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2706,22 +2706,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.6172</v>
+        <v>0.6159</v>
       </c>
       <c r="C65" t="n">
-        <v>0.6199</v>
+        <v>0.6159</v>
       </c>
       <c r="D65" t="n">
-        <v>0.6199</v>
+        <v>0.6159</v>
       </c>
       <c r="E65" t="n">
-        <v>0.6172</v>
+        <v>0.6159</v>
       </c>
       <c r="F65" t="n">
-        <v>1105254.0283</v>
+        <v>1549629.8342</v>
       </c>
       <c r="G65" t="n">
-        <v>-10549699.3878</v>
+        <v>-9276.495699999854</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2742,22 +2742,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.6195000000000001</v>
+        <v>0.6194</v>
       </c>
       <c r="C66" t="n">
-        <v>0.6195000000000001</v>
+        <v>0.6194</v>
       </c>
       <c r="D66" t="n">
-        <v>0.6195000000000001</v>
+        <v>0.6194</v>
       </c>
       <c r="E66" t="n">
-        <v>0.6195000000000001</v>
+        <v>0.6194</v>
       </c>
       <c r="F66" t="n">
-        <v>1941497.9133</v>
+        <v>1485210.631</v>
       </c>
       <c r="G66" t="n">
-        <v>-12491197.3011</v>
+        <v>1475934.1353</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.6183</v>
+        <v>0.6256</v>
       </c>
       <c r="C67" t="n">
-        <v>0.6183</v>
+        <v>0.6256</v>
       </c>
       <c r="D67" t="n">
-        <v>0.6183</v>
+        <v>0.6256</v>
       </c>
       <c r="E67" t="n">
-        <v>0.6183</v>
+        <v>0.6256</v>
       </c>
       <c r="F67" t="n">
-        <v>1917628.9286</v>
+        <v>1491.9542</v>
       </c>
       <c r="G67" t="n">
-        <v>-14408826.2297</v>
+        <v>1477426.0895</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2814,28 +2814,28 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.6197</v>
+        <v>0.6253</v>
       </c>
       <c r="C68" t="n">
-        <v>0.6197</v>
+        <v>0.6253</v>
       </c>
       <c r="D68" t="n">
-        <v>0.6197</v>
+        <v>0.6253</v>
       </c>
       <c r="E68" t="n">
-        <v>0.6197</v>
+        <v>0.6253</v>
       </c>
       <c r="F68" t="n">
-        <v>16136.84040664838</v>
+        <v>1413543.3952</v>
       </c>
       <c r="G68" t="n">
-        <v>-14392689.38929335</v>
+        <v>63882.69430000032</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
@@ -2850,28 +2850,28 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.6153</v>
+        <v>0.6148</v>
       </c>
       <c r="C69" t="n">
-        <v>0.6153</v>
+        <v>0.6148</v>
       </c>
       <c r="D69" t="n">
-        <v>0.6153</v>
+        <v>0.6148</v>
       </c>
       <c r="E69" t="n">
-        <v>0.6153</v>
+        <v>0.6148</v>
       </c>
       <c r="F69" t="n">
-        <v>1512407.2908</v>
+        <v>24528.6025</v>
       </c>
       <c r="G69" t="n">
-        <v>-15905096.68009335</v>
+        <v>39354.09180000032</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
@@ -2886,22 +2886,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.617</v>
+        <v>0.6254999999999999</v>
       </c>
       <c r="C70" t="n">
-        <v>0.617</v>
+        <v>0.6254999999999999</v>
       </c>
       <c r="D70" t="n">
-        <v>0.617</v>
+        <v>0.6254999999999999</v>
       </c>
       <c r="E70" t="n">
-        <v>0.617</v>
+        <v>0.6254999999999999</v>
       </c>
       <c r="F70" t="n">
-        <v>1126051.6935</v>
+        <v>817.538</v>
       </c>
       <c r="G70" t="n">
-        <v>-14779044.98659335</v>
+        <v>40171.62980000032</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.6168</v>
+        <v>0.6211</v>
       </c>
       <c r="C71" t="n">
-        <v>0.6168</v>
+        <v>0.6211</v>
       </c>
       <c r="D71" t="n">
-        <v>0.6168</v>
+        <v>0.6211</v>
       </c>
       <c r="E71" t="n">
-        <v>0.6168</v>
+        <v>0.6211</v>
       </c>
       <c r="F71" t="n">
-        <v>1637053.3584</v>
+        <v>804531.6403</v>
       </c>
       <c r="G71" t="n">
-        <v>-16416098.34499335</v>
+        <v>-764360.0104999996</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2958,22 +2958,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.6179</v>
+        <v>0.6254999999999999</v>
       </c>
       <c r="C72" t="n">
-        <v>0.6179</v>
+        <v>0.6254999999999999</v>
       </c>
       <c r="D72" t="n">
-        <v>0.6179</v>
+        <v>0.6254999999999999</v>
       </c>
       <c r="E72" t="n">
-        <v>0.6179</v>
+        <v>0.6254999999999999</v>
       </c>
       <c r="F72" t="n">
-        <v>835.4344</v>
+        <v>821.1477</v>
       </c>
       <c r="G72" t="n">
-        <v>-16415262.91059335</v>
+        <v>-763538.8627999997</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2994,22 +2994,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.6172</v>
+        <v>0.6191</v>
       </c>
       <c r="C73" t="n">
-        <v>0.6172</v>
+        <v>0.6254999999999999</v>
       </c>
       <c r="D73" t="n">
-        <v>0.6172</v>
+        <v>0.6254999999999999</v>
       </c>
       <c r="E73" t="n">
-        <v>0.6172</v>
+        <v>0.6191</v>
       </c>
       <c r="F73" t="n">
-        <v>1796398.3624</v>
+        <v>1516948.6323</v>
       </c>
       <c r="G73" t="n">
-        <v>-18211661.27299335</v>
+        <v>-763538.8627999997</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3030,22 +3030,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.6151</v>
+        <v>0.6241</v>
       </c>
       <c r="C74" t="n">
-        <v>0.6151</v>
+        <v>0.6241</v>
       </c>
       <c r="D74" t="n">
-        <v>0.6151</v>
+        <v>0.6241</v>
       </c>
       <c r="E74" t="n">
-        <v>0.6151</v>
+        <v>0.6241</v>
       </c>
       <c r="F74" t="n">
-        <v>602591.9989</v>
+        <v>1907313.6174</v>
       </c>
       <c r="G74" t="n">
-        <v>-18814253.27189335</v>
+        <v>-2670852.4802</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3066,28 +3066,28 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.6167</v>
+        <v>0.6169</v>
       </c>
       <c r="C75" t="n">
-        <v>0.6167</v>
+        <v>0.6169</v>
       </c>
       <c r="D75" t="n">
-        <v>0.6167</v>
+        <v>0.6169</v>
       </c>
       <c r="E75" t="n">
-        <v>0.6167</v>
+        <v>0.6169</v>
       </c>
       <c r="F75" t="n">
-        <v>817.8645</v>
+        <v>874207.9801</v>
       </c>
       <c r="G75" t="n">
-        <v>-18813435.40739335</v>
+        <v>-3545060.460299999</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
@@ -3102,22 +3102,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.6143</v>
+        <v>0.6254999999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>0.6143</v>
+        <v>0.6254999999999999</v>
       </c>
       <c r="D76" t="n">
-        <v>0.6143</v>
+        <v>0.6254999999999999</v>
       </c>
       <c r="E76" t="n">
-        <v>0.6143</v>
+        <v>0.6254999999999999</v>
       </c>
       <c r="F76" t="n">
-        <v>1729752.224</v>
+        <v>804.9994</v>
       </c>
       <c r="G76" t="n">
-        <v>-20543187.63139335</v>
+        <v>-3544255.460899999</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3138,28 +3138,28 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.6167</v>
+        <v>0.6177</v>
       </c>
       <c r="C77" t="n">
-        <v>0.6167</v>
+        <v>0.6177</v>
       </c>
       <c r="D77" t="n">
-        <v>0.6167</v>
+        <v>0.6177</v>
       </c>
       <c r="E77" t="n">
-        <v>0.6167</v>
+        <v>0.6177</v>
       </c>
       <c r="F77" t="n">
-        <v>820</v>
+        <v>1456642.7751</v>
       </c>
       <c r="G77" t="n">
-        <v>-20542367.63139335</v>
+        <v>-5000898.236</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
@@ -3174,28 +3174,28 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.6159</v>
+        <v>0.6254999999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>0.6159</v>
+        <v>0.6254999999999999</v>
       </c>
       <c r="D78" t="n">
-        <v>0.6159</v>
+        <v>0.6254999999999999</v>
       </c>
       <c r="E78" t="n">
-        <v>0.6159</v>
+        <v>0.6254999999999999</v>
       </c>
       <c r="F78" t="n">
-        <v>530384.7131000001</v>
+        <v>828.7275</v>
       </c>
       <c r="G78" t="n">
-        <v>-21072752.34449335</v>
+        <v>-5000069.5085</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
@@ -3210,28 +3210,28 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.6156</v>
+        <v>0.6209</v>
       </c>
       <c r="C79" t="n">
-        <v>0.6156</v>
+        <v>0.6209</v>
       </c>
       <c r="D79" t="n">
-        <v>0.6156</v>
+        <v>0.6209</v>
       </c>
       <c r="E79" t="n">
-        <v>0.6156</v>
+        <v>0.6209</v>
       </c>
       <c r="F79" t="n">
-        <v>940974.1533</v>
+        <v>1096428.3188</v>
       </c>
       <c r="G79" t="n">
-        <v>-22013726.49779335</v>
+        <v>-6096497.827299999</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
@@ -3246,22 +3246,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.6156</v>
+        <v>0.6177</v>
       </c>
       <c r="C80" t="n">
-        <v>0.6156</v>
+        <v>0.6177</v>
       </c>
       <c r="D80" t="n">
-        <v>0.6156</v>
+        <v>0.6177</v>
       </c>
       <c r="E80" t="n">
-        <v>0.6156</v>
+        <v>0.6177</v>
       </c>
       <c r="F80" t="n">
-        <v>2035020.0386</v>
+        <v>1991101.7309</v>
       </c>
       <c r="G80" t="n">
-        <v>-22013726.49779335</v>
+        <v>-8087599.558199999</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3282,22 +3282,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.6167</v>
+        <v>0.6254999999999999</v>
       </c>
       <c r="C81" t="n">
-        <v>0.6207</v>
+        <v>0.6254999999999999</v>
       </c>
       <c r="D81" t="n">
-        <v>0.6207</v>
+        <v>0.6254999999999999</v>
       </c>
       <c r="E81" t="n">
-        <v>0.6167</v>
+        <v>0.6254999999999999</v>
       </c>
       <c r="F81" t="n">
-        <v>8266427.7525</v>
+        <v>828.1821</v>
       </c>
       <c r="G81" t="n">
-        <v>-13747298.74529335</v>
+        <v>-8086771.376099999</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3318,22 +3318,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.6163</v>
+        <v>0.6182</v>
       </c>
       <c r="C82" t="n">
-        <v>0.6163</v>
+        <v>0.6182</v>
       </c>
       <c r="D82" t="n">
-        <v>0.6163</v>
+        <v>0.6182</v>
       </c>
       <c r="E82" t="n">
-        <v>0.6163</v>
+        <v>0.6182</v>
       </c>
       <c r="F82" t="n">
-        <v>741284.98</v>
+        <v>1425378.8208</v>
       </c>
       <c r="G82" t="n">
-        <v>-14488583.72529335</v>
+        <v>-9512150.196899999</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3354,22 +3354,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.6198</v>
+        <v>0.6163</v>
       </c>
       <c r="C83" t="n">
-        <v>0.6198</v>
+        <v>0.6163</v>
       </c>
       <c r="D83" t="n">
-        <v>0.6198</v>
+        <v>0.6163</v>
       </c>
       <c r="E83" t="n">
-        <v>0.6198</v>
+        <v>0.6163</v>
       </c>
       <c r="F83" t="n">
-        <v>1429572.0922</v>
+        <v>1377625.0329</v>
       </c>
       <c r="G83" t="n">
-        <v>-13059011.63309335</v>
+        <v>-10889775.2298</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3390,22 +3390,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.6148</v>
+        <v>0.6149</v>
       </c>
       <c r="C84" t="n">
-        <v>0.6148</v>
+        <v>0.6147</v>
       </c>
       <c r="D84" t="n">
-        <v>0.6148</v>
+        <v>0.6149</v>
       </c>
       <c r="E84" t="n">
-        <v>0.6148</v>
+        <v>0.6147</v>
       </c>
       <c r="F84" t="n">
-        <v>2039263.8212</v>
+        <v>2243917.0017</v>
       </c>
       <c r="G84" t="n">
-        <v>-15098275.45429335</v>
+        <v>-13133692.2315</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3426,22 +3426,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.6218</v>
+        <v>0.6176</v>
       </c>
       <c r="C85" t="n">
-        <v>0.6197</v>
+        <v>0.6176</v>
       </c>
       <c r="D85" t="n">
-        <v>0.6218</v>
+        <v>0.6176</v>
       </c>
       <c r="E85" t="n">
-        <v>0.6197</v>
+        <v>0.6176</v>
       </c>
       <c r="F85" t="n">
-        <v>688485.7514</v>
+        <v>928998.3347</v>
       </c>
       <c r="G85" t="n">
-        <v>-14409789.70289335</v>
+        <v>-12204693.8968</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3462,22 +3462,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.6193</v>
+        <v>0.6178</v>
       </c>
       <c r="C86" t="n">
-        <v>0.6193</v>
+        <v>0.6178</v>
       </c>
       <c r="D86" t="n">
-        <v>0.6193</v>
+        <v>0.6178</v>
       </c>
       <c r="E86" t="n">
-        <v>0.6193</v>
+        <v>0.6178</v>
       </c>
       <c r="F86" t="n">
-        <v>1712772.9561</v>
+        <v>1902269.9223</v>
       </c>
       <c r="G86" t="n">
-        <v>-16122562.65899335</v>
+        <v>-10302423.9745</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3498,22 +3498,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.6163999999999999</v>
+        <v>0.619</v>
       </c>
       <c r="C87" t="n">
-        <v>0.6163999999999999</v>
+        <v>0.619</v>
       </c>
       <c r="D87" t="n">
-        <v>0.6163999999999999</v>
+        <v>0.619</v>
       </c>
       <c r="E87" t="n">
-        <v>0.6163999999999999</v>
+        <v>0.619</v>
       </c>
       <c r="F87" t="n">
-        <v>1537730.1364</v>
+        <v>1083204.269</v>
       </c>
       <c r="G87" t="n">
-        <v>-17660292.79539335</v>
+        <v>-9219219.705500001</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3534,22 +3534,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.6151</v>
+        <v>0.6206</v>
       </c>
       <c r="C88" t="n">
-        <v>0.6151</v>
+        <v>0.6206</v>
       </c>
       <c r="D88" t="n">
-        <v>0.6151</v>
+        <v>0.6206</v>
       </c>
       <c r="E88" t="n">
-        <v>0.6151</v>
+        <v>0.6206</v>
       </c>
       <c r="F88" t="n">
-        <v>1072204.2458</v>
+        <v>585202.0429</v>
       </c>
       <c r="G88" t="n">
-        <v>-18732497.04119335</v>
+        <v>-8634017.662600001</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3570,22 +3570,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.6173999999999999</v>
+        <v>0.6194</v>
       </c>
       <c r="C89" t="n">
-        <v>0.6173999999999999</v>
+        <v>0.6194</v>
       </c>
       <c r="D89" t="n">
-        <v>0.6173999999999999</v>
+        <v>0.6194</v>
       </c>
       <c r="E89" t="n">
-        <v>0.6173999999999999</v>
+        <v>0.6194</v>
       </c>
       <c r="F89" t="n">
-        <v>998623.6198</v>
+        <v>530266.2976</v>
       </c>
       <c r="G89" t="n">
-        <v>-17733873.42139335</v>
+        <v>-9164283.960200001</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3606,22 +3606,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.6204</v>
+        <v>0.6156</v>
       </c>
       <c r="C90" t="n">
-        <v>0.6204</v>
+        <v>0.6156</v>
       </c>
       <c r="D90" t="n">
-        <v>0.6204</v>
+        <v>0.6156</v>
       </c>
       <c r="E90" t="n">
-        <v>0.6204</v>
+        <v>0.6156</v>
       </c>
       <c r="F90" t="n">
-        <v>1238057.744</v>
+        <v>1982022.0421</v>
       </c>
       <c r="G90" t="n">
-        <v>-16495815.67739335</v>
+        <v>-11146306.0023</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3642,22 +3642,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.6218</v>
+        <v>0.6147</v>
       </c>
       <c r="C91" t="n">
-        <v>0.6218</v>
+        <v>0.6147</v>
       </c>
       <c r="D91" t="n">
-        <v>0.6218</v>
+        <v>0.6147</v>
       </c>
       <c r="E91" t="n">
-        <v>0.6218</v>
+        <v>0.6147</v>
       </c>
       <c r="F91" t="n">
-        <v>954.5509</v>
+        <v>488312.2635</v>
       </c>
       <c r="G91" t="n">
-        <v>-16494861.12649335</v>
+        <v>-11634618.2658</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3678,22 +3678,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.618</v>
+        <v>0.615</v>
       </c>
       <c r="C92" t="n">
-        <v>0.618</v>
+        <v>0.615</v>
       </c>
       <c r="D92" t="n">
-        <v>0.618</v>
+        <v>0.615</v>
       </c>
       <c r="E92" t="n">
-        <v>0.618</v>
+        <v>0.615</v>
       </c>
       <c r="F92" t="n">
-        <v>773981.8509</v>
+        <v>1084097.9645</v>
       </c>
       <c r="G92" t="n">
-        <v>-17268842.97739335</v>
+        <v>-10550520.3013</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.6142</v>
+        <v>0.6199</v>
       </c>
       <c r="C93" t="n">
-        <v>0.6142</v>
+        <v>0.6199</v>
       </c>
       <c r="D93" t="n">
-        <v>0.6142</v>
+        <v>0.6199</v>
       </c>
       <c r="E93" t="n">
-        <v>0.6142</v>
+        <v>0.6199</v>
       </c>
       <c r="F93" t="n">
-        <v>250298.6283</v>
+        <v>820.9135</v>
       </c>
       <c r="G93" t="n">
-        <v>-17519141.60569335</v>
+        <v>-10549699.3878</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3750,22 +3750,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.6142</v>
+        <v>0.6172</v>
       </c>
       <c r="C94" t="n">
-        <v>0.6142</v>
+        <v>0.6199</v>
       </c>
       <c r="D94" t="n">
-        <v>0.6142</v>
+        <v>0.6199</v>
       </c>
       <c r="E94" t="n">
-        <v>0.6142</v>
+        <v>0.6172</v>
       </c>
       <c r="F94" t="n">
-        <v>3299.3318</v>
+        <v>1105254.0283</v>
       </c>
       <c r="G94" t="n">
-        <v>-17519141.60569335</v>
+        <v>-10549699.3878</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3786,22 +3786,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.6201</v>
+        <v>0.6195000000000001</v>
       </c>
       <c r="C95" t="n">
-        <v>0.6201</v>
+        <v>0.6195000000000001</v>
       </c>
       <c r="D95" t="n">
-        <v>0.6201</v>
+        <v>0.6195000000000001</v>
       </c>
       <c r="E95" t="n">
-        <v>0.6201</v>
+        <v>0.6195000000000001</v>
       </c>
       <c r="F95" t="n">
-        <v>843011.7892</v>
+        <v>1941497.9133</v>
       </c>
       <c r="G95" t="n">
-        <v>-16676129.81649335</v>
+        <v>-12491197.3011</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3822,22 +3822,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.6188</v>
+        <v>0.6183</v>
       </c>
       <c r="C96" t="n">
-        <v>0.6188</v>
+        <v>0.6183</v>
       </c>
       <c r="D96" t="n">
-        <v>0.6188</v>
+        <v>0.6183</v>
       </c>
       <c r="E96" t="n">
-        <v>0.6188</v>
+        <v>0.6183</v>
       </c>
       <c r="F96" t="n">
-        <v>1786647.8209</v>
+        <v>1917628.9286</v>
       </c>
       <c r="G96" t="n">
-        <v>-18462777.63739335</v>
+        <v>-14408826.2297</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3858,22 +3858,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.6199</v>
+        <v>0.6197</v>
       </c>
       <c r="C97" t="n">
-        <v>0.62</v>
+        <v>0.6197</v>
       </c>
       <c r="D97" t="n">
-        <v>0.62</v>
+        <v>0.6197</v>
       </c>
       <c r="E97" t="n">
-        <v>0.6199</v>
+        <v>0.6197</v>
       </c>
       <c r="F97" t="n">
-        <v>1461864.6689</v>
+        <v>16136.84040664838</v>
       </c>
       <c r="G97" t="n">
-        <v>-17000912.96849335</v>
+        <v>-14392689.38929335</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3894,22 +3894,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.6188</v>
+        <v>0.6153</v>
       </c>
       <c r="C98" t="n">
-        <v>0.6188</v>
+        <v>0.6153</v>
       </c>
       <c r="D98" t="n">
-        <v>0.6188</v>
+        <v>0.6153</v>
       </c>
       <c r="E98" t="n">
-        <v>0.6188</v>
+        <v>0.6153</v>
       </c>
       <c r="F98" t="n">
-        <v>829954.4963</v>
+        <v>1512407.2908</v>
       </c>
       <c r="G98" t="n">
-        <v>-17830867.46479335</v>
+        <v>-15905096.68009335</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3930,22 +3930,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.6161</v>
+        <v>0.617</v>
       </c>
       <c r="C99" t="n">
-        <v>0.6161</v>
+        <v>0.617</v>
       </c>
       <c r="D99" t="n">
-        <v>0.6161</v>
+        <v>0.617</v>
       </c>
       <c r="E99" t="n">
-        <v>0.6161</v>
+        <v>0.617</v>
       </c>
       <c r="F99" t="n">
-        <v>1177467.1835</v>
+        <v>1126051.6935</v>
       </c>
       <c r="G99" t="n">
-        <v>-19008334.64829335</v>
+        <v>-14779044.98659335</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3966,22 +3966,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.6147</v>
+        <v>0.6168</v>
       </c>
       <c r="C100" t="n">
-        <v>0.6131</v>
+        <v>0.6168</v>
       </c>
       <c r="D100" t="n">
-        <v>0.6147</v>
+        <v>0.6168</v>
       </c>
       <c r="E100" t="n">
-        <v>0.6131</v>
+        <v>0.6168</v>
       </c>
       <c r="F100" t="n">
-        <v>4135755.9916</v>
+        <v>1637053.3584</v>
       </c>
       <c r="G100" t="n">
-        <v>-23144090.63989335</v>
+        <v>-16416098.34499335</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4002,22 +4002,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.616</v>
+        <v>0.6179</v>
       </c>
       <c r="C101" t="n">
-        <v>0.616</v>
+        <v>0.6179</v>
       </c>
       <c r="D101" t="n">
-        <v>0.616</v>
+        <v>0.6179</v>
       </c>
       <c r="E101" t="n">
-        <v>0.616</v>
+        <v>0.6179</v>
       </c>
       <c r="F101" t="n">
-        <v>1637657.4948</v>
+        <v>835.4344</v>
       </c>
       <c r="G101" t="n">
-        <v>-21506433.14509335</v>
+        <v>-16415262.91059335</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4038,22 +4038,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>0.6183</v>
+        <v>0.6172</v>
       </c>
       <c r="C102" t="n">
-        <v>0.6183</v>
+        <v>0.6172</v>
       </c>
       <c r="D102" t="n">
-        <v>0.6183</v>
+        <v>0.6172</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6183</v>
+        <v>0.6172</v>
       </c>
       <c r="F102" t="n">
-        <v>1141500.1606</v>
+        <v>1796398.3624</v>
       </c>
       <c r="G102" t="n">
-        <v>-20364932.98449335</v>
+        <v>-18211661.27299335</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4074,22 +4074,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>0.6156</v>
+        <v>0.6151</v>
       </c>
       <c r="C103" t="n">
-        <v>0.6156</v>
+        <v>0.6151</v>
       </c>
       <c r="D103" t="n">
-        <v>0.6156</v>
+        <v>0.6151</v>
       </c>
       <c r="E103" t="n">
-        <v>0.6156</v>
+        <v>0.6151</v>
       </c>
       <c r="F103" t="n">
-        <v>1868078.0672</v>
+        <v>602591.9989</v>
       </c>
       <c r="G103" t="n">
-        <v>-22233011.05169335</v>
+        <v>-18814253.27189335</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4110,22 +4110,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0.6186</v>
+        <v>0.6167</v>
       </c>
       <c r="C104" t="n">
-        <v>0.6186</v>
+        <v>0.6167</v>
       </c>
       <c r="D104" t="n">
-        <v>0.6186</v>
+        <v>0.6167</v>
       </c>
       <c r="E104" t="n">
-        <v>0.6186</v>
+        <v>0.6167</v>
       </c>
       <c r="F104" t="n">
-        <v>1589024.5808</v>
+        <v>817.8645</v>
       </c>
       <c r="G104" t="n">
-        <v>-20643986.47089335</v>
+        <v>-18813435.40739335</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4146,22 +4146,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>0.6187</v>
+        <v>0.6143</v>
       </c>
       <c r="C105" t="n">
-        <v>0.6187</v>
+        <v>0.6143</v>
       </c>
       <c r="D105" t="n">
-        <v>0.6187</v>
+        <v>0.6143</v>
       </c>
       <c r="E105" t="n">
-        <v>0.6187</v>
+        <v>0.6143</v>
       </c>
       <c r="F105" t="n">
-        <v>1292074.8858</v>
+        <v>1729752.224</v>
       </c>
       <c r="G105" t="n">
-        <v>-19351911.58509335</v>
+        <v>-20543187.63139335</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>0.616</v>
+        <v>0.6167</v>
       </c>
       <c r="C106" t="n">
-        <v>0.616</v>
+        <v>0.6167</v>
       </c>
       <c r="D106" t="n">
-        <v>0.616</v>
+        <v>0.6167</v>
       </c>
       <c r="E106" t="n">
-        <v>0.616</v>
+        <v>0.6167</v>
       </c>
       <c r="F106" t="n">
-        <v>836867.6621</v>
+        <v>820</v>
       </c>
       <c r="G106" t="n">
-        <v>-20188779.24719335</v>
+        <v>-20542367.63139335</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4218,22 +4218,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>0.6186</v>
+        <v>0.6159</v>
       </c>
       <c r="C107" t="n">
-        <v>0.6186</v>
+        <v>0.6159</v>
       </c>
       <c r="D107" t="n">
-        <v>0.6186</v>
+        <v>0.6159</v>
       </c>
       <c r="E107" t="n">
-        <v>0.6186</v>
+        <v>0.6159</v>
       </c>
       <c r="F107" t="n">
-        <v>502691.6078</v>
+        <v>530384.7131000001</v>
       </c>
       <c r="G107" t="n">
-        <v>-19686087.63939335</v>
+        <v>-21072752.34449335</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4254,22 +4254,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>0.6132</v>
+        <v>0.6156</v>
       </c>
       <c r="C108" t="n">
-        <v>0.6132</v>
+        <v>0.6156</v>
       </c>
       <c r="D108" t="n">
-        <v>0.6132</v>
+        <v>0.6156</v>
       </c>
       <c r="E108" t="n">
-        <v>0.6132</v>
+        <v>0.6156</v>
       </c>
       <c r="F108" t="n">
-        <v>1972975.6305</v>
+        <v>940974.1533</v>
       </c>
       <c r="G108" t="n">
-        <v>-21659063.26989335</v>
+        <v>-22013726.49779335</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4290,22 +4290,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>0.617</v>
+        <v>0.6156</v>
       </c>
       <c r="C109" t="n">
-        <v>0.617</v>
+        <v>0.6156</v>
       </c>
       <c r="D109" t="n">
-        <v>0.617</v>
+        <v>0.6156</v>
       </c>
       <c r="E109" t="n">
-        <v>0.617</v>
+        <v>0.6156</v>
       </c>
       <c r="F109" t="n">
-        <v>1645530.6235</v>
+        <v>2035020.0386</v>
       </c>
       <c r="G109" t="n">
-        <v>-20013532.64639335</v>
+        <v>-22013726.49779335</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4326,35 +4326,31 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.6198</v>
+        <v>0.6167</v>
       </c>
       <c r="C110" t="n">
-        <v>0.6198</v>
+        <v>0.6207</v>
       </c>
       <c r="D110" t="n">
-        <v>0.6198</v>
+        <v>0.6207</v>
       </c>
       <c r="E110" t="n">
-        <v>0.6198</v>
+        <v>0.6167</v>
       </c>
       <c r="F110" t="n">
-        <v>1745183.1009</v>
+        <v>8266427.7525</v>
       </c>
       <c r="G110" t="n">
-        <v>-18268349.54549335</v>
+        <v>-13747298.74529335</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>0.617</v>
-      </c>
-      <c r="K110" t="n">
-        <v>0.617</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
@@ -4366,22 +4362,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.6167</v>
+        <v>0.6163</v>
       </c>
       <c r="C111" t="n">
-        <v>0.6167</v>
+        <v>0.6163</v>
       </c>
       <c r="D111" t="n">
-        <v>0.6167</v>
+        <v>0.6163</v>
       </c>
       <c r="E111" t="n">
-        <v>0.6167</v>
+        <v>0.6163</v>
       </c>
       <c r="F111" t="n">
-        <v>1641119.2219</v>
+        <v>741284.98</v>
       </c>
       <c r="G111" t="n">
-        <v>-19909468.76739335</v>
+        <v>-14488583.72529335</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4390,14 +4386,8 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>0.617</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4408,40 +4398,32 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.6197</v>
+        <v>0.6198</v>
       </c>
       <c r="C112" t="n">
-        <v>0.6197</v>
+        <v>0.6198</v>
       </c>
       <c r="D112" t="n">
-        <v>0.6197</v>
+        <v>0.6198</v>
       </c>
       <c r="E112" t="n">
-        <v>0.6197</v>
+        <v>0.6198</v>
       </c>
       <c r="F112" t="n">
-        <v>948576.6705</v>
+        <v>1429572.0922</v>
       </c>
       <c r="G112" t="n">
-        <v>-18960892.09689335</v>
+        <v>-13059011.63309335</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>0.6167</v>
-      </c>
-      <c r="K112" t="n">
-        <v>0.617</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4452,22 +4434,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.6217</v>
+        <v>0.6148</v>
       </c>
       <c r="C113" t="n">
-        <v>0.6217</v>
+        <v>0.6148</v>
       </c>
       <c r="D113" t="n">
-        <v>0.6217</v>
+        <v>0.6148</v>
       </c>
       <c r="E113" t="n">
-        <v>0.6217</v>
+        <v>0.6148</v>
       </c>
       <c r="F113" t="n">
-        <v>843.91</v>
+        <v>2039263.8212</v>
       </c>
       <c r="G113" t="n">
-        <v>-18960048.18689335</v>
+        <v>-15098275.45429335</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4488,22 +4470,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>0.6158</v>
+        <v>0.6218</v>
       </c>
       <c r="C114" t="n">
-        <v>0.6158</v>
+        <v>0.6197</v>
       </c>
       <c r="D114" t="n">
-        <v>0.6158</v>
+        <v>0.6218</v>
       </c>
       <c r="E114" t="n">
-        <v>0.6158</v>
+        <v>0.6197</v>
       </c>
       <c r="F114" t="n">
-        <v>499500.0548</v>
+        <v>688485.7514</v>
       </c>
       <c r="G114" t="n">
-        <v>-19459548.24169335</v>
+        <v>-14409789.70289335</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4524,22 +4506,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>0.6217</v>
+        <v>0.6193</v>
       </c>
       <c r="C115" t="n">
-        <v>0.6217</v>
+        <v>0.6193</v>
       </c>
       <c r="D115" t="n">
-        <v>0.6217</v>
+        <v>0.6193</v>
       </c>
       <c r="E115" t="n">
-        <v>0.6217</v>
+        <v>0.6193</v>
       </c>
       <c r="F115" t="n">
-        <v>9701.1139</v>
+        <v>1712772.9561</v>
       </c>
       <c r="G115" t="n">
-        <v>-19449847.12779335</v>
+        <v>-16122562.65899335</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4560,22 +4542,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>0.6182</v>
+        <v>0.6163999999999999</v>
       </c>
       <c r="C116" t="n">
-        <v>0.6182</v>
+        <v>0.6163999999999999</v>
       </c>
       <c r="D116" t="n">
-        <v>0.6182</v>
+        <v>0.6163999999999999</v>
       </c>
       <c r="E116" t="n">
-        <v>0.6182</v>
+        <v>0.6163999999999999</v>
       </c>
       <c r="F116" t="n">
-        <v>1697209.4454</v>
+        <v>1537730.1364</v>
       </c>
       <c r="G116" t="n">
-        <v>-21147056.57319335</v>
+        <v>-17660292.79539335</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4596,22 +4578,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>0.6217</v>
+        <v>0.6151</v>
       </c>
       <c r="C117" t="n">
-        <v>0.6217</v>
+        <v>0.6151</v>
       </c>
       <c r="D117" t="n">
-        <v>0.6217</v>
+        <v>0.6151</v>
       </c>
       <c r="E117" t="n">
-        <v>0.6217</v>
+        <v>0.6151</v>
       </c>
       <c r="F117" t="n">
-        <v>9217.82</v>
+        <v>1072204.2458</v>
       </c>
       <c r="G117" t="n">
-        <v>-21137838.75319335</v>
+        <v>-18732497.04119335</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4632,22 +4614,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>0.6189</v>
+        <v>0.6173999999999999</v>
       </c>
       <c r="C118" t="n">
-        <v>0.6189</v>
+        <v>0.6173999999999999</v>
       </c>
       <c r="D118" t="n">
-        <v>0.6189</v>
+        <v>0.6173999999999999</v>
       </c>
       <c r="E118" t="n">
-        <v>0.6189</v>
+        <v>0.6173999999999999</v>
       </c>
       <c r="F118" t="n">
-        <v>599672.1915</v>
+        <v>998623.6198</v>
       </c>
       <c r="G118" t="n">
-        <v>-21737510.94469335</v>
+        <v>-17733873.42139335</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4668,22 +4650,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>0.6157</v>
+        <v>0.6204</v>
       </c>
       <c r="C119" t="n">
-        <v>0.6157</v>
+        <v>0.6204</v>
       </c>
       <c r="D119" t="n">
-        <v>0.6157</v>
+        <v>0.6204</v>
       </c>
       <c r="E119" t="n">
-        <v>0.6157</v>
+        <v>0.6204</v>
       </c>
       <c r="F119" t="n">
-        <v>1981897.035</v>
+        <v>1238057.744</v>
       </c>
       <c r="G119" t="n">
-        <v>-23719407.97969335</v>
+        <v>-16495815.67739335</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4704,22 +4686,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>0.6173999999999999</v>
+        <v>0.6218</v>
       </c>
       <c r="C120" t="n">
-        <v>0.6173999999999999</v>
+        <v>0.6218</v>
       </c>
       <c r="D120" t="n">
-        <v>0.6173999999999999</v>
+        <v>0.6218</v>
       </c>
       <c r="E120" t="n">
-        <v>0.6173999999999999</v>
+        <v>0.6218</v>
       </c>
       <c r="F120" t="n">
-        <v>625007.0057</v>
+        <v>954.5509</v>
       </c>
       <c r="G120" t="n">
-        <v>-23094400.97399335</v>
+        <v>-16494861.12649335</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4740,522 +4722,1634 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
+        <v>0.618</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0.618</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.618</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.618</v>
+      </c>
+      <c r="F121" t="n">
+        <v>773981.8509</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-17268842.97739335</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.6142</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0.6142</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.6142</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.6142</v>
+      </c>
+      <c r="F122" t="n">
+        <v>250298.6283</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-17519141.60569335</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.6142</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0.6142</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.6142</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.6142</v>
+      </c>
+      <c r="F123" t="n">
+        <v>3299.3318</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-17519141.60569335</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.6201</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0.6201</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.6201</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.6201</v>
+      </c>
+      <c r="F124" t="n">
+        <v>843011.7892</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-16676129.81649335</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.6188</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0.6188</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.6188</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.6188</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1786647.8209</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-18462777.63739335</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.6199</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.6199</v>
+      </c>
+      <c r="F126" t="n">
+        <v>1461864.6689</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-17000912.96849335</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0.6188</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0.6188</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.6188</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.6188</v>
+      </c>
+      <c r="F127" t="n">
+        <v>829954.4963</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-17830867.46479335</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.6161</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0.6161</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.6161</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.6161</v>
+      </c>
+      <c r="F128" t="n">
+        <v>1177467.1835</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-19008334.64829335</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0.6147</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0.6131</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.6147</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.6131</v>
+      </c>
+      <c r="F129" t="n">
+        <v>4135755.9916</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-23144090.63989335</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0.616</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0.616</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.616</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.616</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1637657.4948</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-21506433.14509335</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0.6183</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0.6183</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.6183</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.6183</v>
+      </c>
+      <c r="F131" t="n">
+        <v>1141500.1606</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-20364932.98449335</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0.6156</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0.6156</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.6156</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.6156</v>
+      </c>
+      <c r="F132" t="n">
+        <v>1868078.0672</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-22233011.05169335</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0.6186</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0.6186</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.6186</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.6186</v>
+      </c>
+      <c r="F133" t="n">
+        <v>1589024.5808</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-20643986.47089335</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0.6187</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0.6187</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.6187</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.6187</v>
+      </c>
+      <c r="F134" t="n">
+        <v>1292074.8858</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-19351911.58509335</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0.616</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0.616</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.616</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.616</v>
+      </c>
+      <c r="F135" t="n">
+        <v>836867.6621</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-20188779.24719335</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0.6186</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0.6186</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.6186</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.6186</v>
+      </c>
+      <c r="F136" t="n">
+        <v>502691.6078</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-19686087.63939335</v>
+      </c>
+      <c r="H136" t="n">
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0.616</v>
+      </c>
+      <c r="K136" t="n">
+        <v>0.616</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
         <v>0.6132</v>
       </c>
-      <c r="C121" t="n">
+      <c r="C137" t="n">
+        <v>0.6132</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.6132</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.6132</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1972975.6305</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-21659063.26989335</v>
+      </c>
+      <c r="H137" t="n">
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0.6186</v>
+      </c>
+      <c r="K137" t="n">
+        <v>0.616</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0.617</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0.617</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.617</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.617</v>
+      </c>
+      <c r="F138" t="n">
+        <v>1645530.6235</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-20013532.64639335</v>
+      </c>
+      <c r="H138" t="n">
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0.6132</v>
+      </c>
+      <c r="K138" t="n">
+        <v>0.616</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0.6198</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0.6198</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.6198</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.6198</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1745183.1009</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-18268349.54549335</v>
+      </c>
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0.617</v>
+      </c>
+      <c r="K139" t="n">
+        <v>0.617</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0.6167</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0.6167</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.6167</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.6167</v>
+      </c>
+      <c r="F140" t="n">
+        <v>1641119.2219</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-19909468.76739335</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>0.617</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0.6197</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0.6197</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.6197</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.6197</v>
+      </c>
+      <c r="F141" t="n">
+        <v>948576.6705</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-18960892.09689335</v>
+      </c>
+      <c r="H141" t="n">
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0.6167</v>
+      </c>
+      <c r="K141" t="n">
+        <v>0.617</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
         <v>0.6217</v>
       </c>
-      <c r="D121" t="n">
+      <c r="C142" t="n">
         <v>0.6217</v>
       </c>
-      <c r="E121" t="n">
+      <c r="D142" t="n">
+        <v>0.6217</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.6217</v>
+      </c>
+      <c r="F142" t="n">
+        <v>843.91</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-18960048.18689335</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0.6158</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0.6158</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0.6158</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.6158</v>
+      </c>
+      <c r="F143" t="n">
+        <v>499500.0548</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-19459548.24169335</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0.6217</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0.6217</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.6217</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0.6217</v>
+      </c>
+      <c r="F144" t="n">
+        <v>9701.1139</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-19449847.12779335</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.6182</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0.6182</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.6182</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0.6182</v>
+      </c>
+      <c r="F145" t="n">
+        <v>1697209.4454</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-21147056.57319335</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.6217</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0.6217</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.6217</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0.6217</v>
+      </c>
+      <c r="F146" t="n">
+        <v>9217.82</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-21137838.75319335</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.6189</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0.6189</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.6189</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0.6189</v>
+      </c>
+      <c r="F147" t="n">
+        <v>599672.1915</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-21737510.94469335</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.6157</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0.6157</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.6157</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0.6157</v>
+      </c>
+      <c r="F148" t="n">
+        <v>1981897.035</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-23719407.97969335</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.6173999999999999</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0.6173999999999999</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.6173999999999999</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0.6173999999999999</v>
+      </c>
+      <c r="F149" t="n">
+        <v>625007.0057</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-23094400.97399335</v>
+      </c>
+      <c r="H149" t="n">
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0.6157</v>
+      </c>
+      <c r="K149" t="n">
+        <v>0.6157</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
         <v>0.6132</v>
       </c>
-      <c r="F121" t="n">
+      <c r="C150" t="n">
+        <v>0.6217</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.6217</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0.6132</v>
+      </c>
+      <c r="F150" t="n">
         <v>4865.721</v>
       </c>
-      <c r="G121" t="n">
+      <c r="G150" t="n">
         <v>-23089535.25299335</v>
       </c>
-      <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="n">
-        <v>0.6173999999999999</v>
-      </c>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>0.6157</v>
+      </c>
+      <c r="L150" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
         <v>0.6217</v>
       </c>
-      <c r="C122" t="n">
+      <c r="C151" t="n">
         <v>0.6217</v>
       </c>
-      <c r="D122" t="n">
+      <c r="D151" t="n">
         <v>0.6217</v>
       </c>
-      <c r="E122" t="n">
+      <c r="E151" t="n">
         <v>0.6217</v>
       </c>
-      <c r="F122" t="n">
+      <c r="F151" t="n">
         <v>820.6097</v>
       </c>
-      <c r="G122" t="n">
+      <c r="G151" t="n">
         <v>-23089535.25299335</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
+      <c r="H151" t="n">
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0.6217</v>
+      </c>
+      <c r="K151" t="n">
+        <v>0.6157</v>
+      </c>
+      <c r="L151" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
         <v>0.6209</v>
       </c>
-      <c r="C123" t="n">
+      <c r="C152" t="n">
         <v>0.6209</v>
       </c>
-      <c r="D123" t="n">
+      <c r="D152" t="n">
         <v>0.6209</v>
       </c>
-      <c r="E123" t="n">
+      <c r="E152" t="n">
         <v>0.6209</v>
       </c>
-      <c r="F123" t="n">
+      <c r="F152" t="n">
         <v>1273591.2501</v>
       </c>
-      <c r="G123" t="n">
+      <c r="G152" t="n">
         <v>-24363126.50309335</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>0.6157</v>
+      </c>
+      <c r="L152" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
         <v>0.6163999999999999</v>
       </c>
-      <c r="C124" t="n">
+      <c r="C153" t="n">
         <v>0.6163999999999999</v>
       </c>
-      <c r="D124" t="n">
+      <c r="D153" t="n">
         <v>0.6163999999999999</v>
       </c>
-      <c r="E124" t="n">
+      <c r="E153" t="n">
         <v>0.6163999999999999</v>
       </c>
-      <c r="F124" t="n">
+      <c r="F153" t="n">
         <v>1744415.0205</v>
       </c>
-      <c r="G124" t="n">
+      <c r="G153" t="n">
         <v>-26107541.52359335</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>0.6157</v>
+      </c>
+      <c r="L153" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
         <v>0.6215000000000001</v>
       </c>
-      <c r="C125" t="n">
+      <c r="C154" t="n">
         <v>0.6215000000000001</v>
       </c>
-      <c r="D125" t="n">
+      <c r="D154" t="n">
         <v>0.6215000000000001</v>
       </c>
-      <c r="E125" t="n">
+      <c r="E154" t="n">
         <v>0.6215000000000001</v>
       </c>
-      <c r="F125" t="n">
+      <c r="F154" t="n">
         <v>864063.3504999999</v>
       </c>
-      <c r="G125" t="n">
+      <c r="G154" t="n">
         <v>-25243478.17309336</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>0.6157</v>
+      </c>
+      <c r="L154" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
         <v>0.617</v>
       </c>
-      <c r="C126" t="n">
+      <c r="C155" t="n">
         <v>0.617</v>
       </c>
-      <c r="D126" t="n">
+      <c r="D155" t="n">
         <v>0.617</v>
       </c>
-      <c r="E126" t="n">
+      <c r="E155" t="n">
         <v>0.617</v>
       </c>
-      <c r="F126" t="n">
+      <c r="F155" t="n">
         <v>1640572.9964</v>
       </c>
-      <c r="G126" t="n">
+      <c r="G155" t="n">
         <v>-26884051.16949335</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>0.6157</v>
+      </c>
+      <c r="L155" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
         <v>0.6173999999999999</v>
       </c>
-      <c r="C127" t="n">
+      <c r="C156" t="n">
         <v>0.6173999999999999</v>
       </c>
-      <c r="D127" t="n">
+      <c r="D156" t="n">
         <v>0.6173999999999999</v>
       </c>
-      <c r="E127" t="n">
+      <c r="E156" t="n">
         <v>0.6173999999999999</v>
       </c>
-      <c r="F127" t="n">
+      <c r="F156" t="n">
         <v>640825.3709</v>
       </c>
-      <c r="G127" t="n">
+      <c r="G156" t="n">
         <v>-26243225.79859335</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>0.6157</v>
+      </c>
+      <c r="L156" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
         <v>0.6176</v>
       </c>
-      <c r="C128" t="n">
+      <c r="C157" t="n">
         <v>0.6176</v>
       </c>
-      <c r="D128" t="n">
+      <c r="D157" t="n">
         <v>0.6176</v>
       </c>
-      <c r="E128" t="n">
+      <c r="E157" t="n">
         <v>0.6176</v>
       </c>
-      <c r="F128" t="n">
+      <c r="F157" t="n">
         <v>1603813.4924</v>
       </c>
-      <c r="G128" t="n">
+      <c r="G157" t="n">
         <v>-24639412.30619335</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>0.6157</v>
+      </c>
+      <c r="L157" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
         <v>0.6202</v>
       </c>
-      <c r="C129" t="n">
+      <c r="C158" t="n">
         <v>0.6202</v>
       </c>
-      <c r="D129" t="n">
+      <c r="D158" t="n">
         <v>0.6202</v>
       </c>
-      <c r="E129" t="n">
+      <c r="E158" t="n">
         <v>0.6202</v>
       </c>
-      <c r="F129" t="n">
+      <c r="F158" t="n">
         <v>572786.759</v>
       </c>
-      <c r="G129" t="n">
+      <c r="G158" t="n">
         <v>-24066625.54719335</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>0.6157</v>
+      </c>
+      <c r="L158" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
         <v>0.6216</v>
       </c>
-      <c r="C130" t="n">
+      <c r="C159" t="n">
         <v>0.6216</v>
       </c>
-      <c r="D130" t="n">
+      <c r="D159" t="n">
         <v>0.6216</v>
       </c>
-      <c r="E130" t="n">
+      <c r="E159" t="n">
         <v>0.6216</v>
       </c>
-      <c r="F130" t="n">
+      <c r="F159" t="n">
         <v>830.9085</v>
       </c>
-      <c r="G130" t="n">
+      <c r="G159" t="n">
         <v>-24065794.63869335</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>0.6157</v>
+      </c>
+      <c r="L159" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
         <v>0.6203</v>
       </c>
-      <c r="C131" t="n">
+      <c r="C160" t="n">
         <v>0.6203</v>
       </c>
-      <c r="D131" t="n">
+      <c r="D160" t="n">
         <v>0.6203</v>
       </c>
-      <c r="E131" t="n">
+      <c r="E160" t="n">
         <v>0.6203</v>
       </c>
-      <c r="F131" t="n">
+      <c r="F160" t="n">
         <v>1007193.1872</v>
       </c>
-      <c r="G131" t="n">
+      <c r="G160" t="n">
         <v>-25072987.82589335</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>0.6157</v>
+      </c>
+      <c r="L160" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
         <v>0.6137</v>
       </c>
-      <c r="C132" t="n">
+      <c r="C161" t="n">
         <v>0.6137</v>
       </c>
-      <c r="D132" t="n">
+      <c r="D161" t="n">
         <v>0.6137</v>
       </c>
-      <c r="E132" t="n">
+      <c r="E161" t="n">
         <v>0.6137</v>
       </c>
-      <c r="F132" t="n">
+      <c r="F161" t="n">
         <v>513422.0242</v>
       </c>
-      <c r="G132" t="n">
+      <c r="G161" t="n">
         <v>-25586409.85009335</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>0.6157</v>
+      </c>
+      <c r="L161" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
         <v>0.6141</v>
       </c>
-      <c r="C133" t="n">
+      <c r="C162" t="n">
         <v>0.6141</v>
       </c>
-      <c r="D133" t="n">
+      <c r="D162" t="n">
         <v>0.6141</v>
       </c>
-      <c r="E133" t="n">
+      <c r="E162" t="n">
         <v>0.6141</v>
       </c>
-      <c r="F133" t="n">
+      <c r="F162" t="n">
         <v>589943.362</v>
       </c>
-      <c r="G133" t="n">
+      <c r="G162" t="n">
         <v>-24996466.48809335</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>0.6157</v>
+      </c>
+      <c r="L162" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-14 BackTest APIS.xlsx
+++ b/BackTest/2020-01-14 BackTest APIS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N162"/>
+  <dimension ref="A1:M162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1860,18 +1738,15 @@
         <v>-6287804.681299998</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1896,18 +1771,15 @@
         <v>-6584536.386099999</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1932,18 +1804,15 @@
         <v>-5285859.659999998</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2040,18 +1903,15 @@
         <v>-6538507.853899999</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2328,18 +2167,15 @@
         <v>-5253197.4397</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2436,18 +2266,15 @@
         <v>-3346663.2032</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2472,18 +2299,15 @@
         <v>-2572145.161</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2580,18 +2398,15 @@
         <v>-1396909.9607</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2652,18 +2464,15 @@
         <v>-952421.7450999999</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2724,18 +2530,15 @@
         <v>-9276.495699999854</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>1</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3048,18 +2827,15 @@
         <v>-2670852.4802</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3084,18 +2860,15 @@
         <v>-3545060.460299999</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3156,18 +2926,15 @@
         <v>-5000898.236</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3192,18 +2959,15 @@
         <v>-5000069.5085</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3228,18 +2992,15 @@
         <v>-6096497.827299999</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3264,18 +3025,15 @@
         <v>-8087599.558199999</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3300,18 +3058,15 @@
         <v>-8086771.376099999</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3516,18 +3256,15 @@
         <v>-9219219.705500001</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3753,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3918,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +3951,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +3984,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4017,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4050,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4083,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4116,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4149,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4182,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4215,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4248,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4281,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4314,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4347,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4380,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4778,16 +4413,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +4446,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4479,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4512,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +4545,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +4578,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,16 +4611,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5030,16 +4644,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5066,16 +4677,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5102,16 +4710,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5138,16 +4743,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5172,18 +4774,19 @@
         <v>-20643986.47089335</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
+        <v>0.6156</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0.6156</v>
+      </c>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5210,16 +4813,19 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0.6156</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5246,16 +4852,19 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0.6156</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5280,22 +4889,15 @@
         <v>-19686087.63939335</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="n">
-        <v>0.616</v>
-      </c>
-      <c r="K136" t="n">
-        <v>0.616</v>
-      </c>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5320,110 +4922,99 @@
         <v>-21659063.26989335</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
+        <v>0.6186</v>
       </c>
       <c r="J137" t="n">
         <v>0.6186</v>
       </c>
-      <c r="K137" t="n">
-        <v>0.616</v>
-      </c>
-      <c r="L137" t="inlineStr">
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0.617</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0.617</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.617</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.617</v>
+      </c>
+      <c r="F138" t="n">
+        <v>1645530.6235</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-20013532.64639335</v>
+      </c>
+      <c r="H138" t="n">
+        <v>2</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0.6132</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0.6186</v>
+      </c>
+      <c r="K138" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>0.617</v>
-      </c>
-      <c r="C138" t="n">
-        <v>0.617</v>
-      </c>
-      <c r="D138" t="n">
-        <v>0.617</v>
-      </c>
-      <c r="E138" t="n">
-        <v>0.617</v>
-      </c>
-      <c r="F138" t="n">
-        <v>1645530.6235</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-20013532.64639335</v>
-      </c>
-      <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="n">
-        <v>0.6132</v>
-      </c>
-      <c r="K138" t="n">
-        <v>0.616</v>
-      </c>
-      <c r="L138" t="inlineStr">
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0.6198</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0.6198</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.6198</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.6198</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1745183.1009</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-18268349.54549335</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0.6186</v>
+      </c>
+      <c r="K139" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>0.6198</v>
-      </c>
-      <c r="C139" t="n">
-        <v>0.6198</v>
-      </c>
-      <c r="D139" t="n">
-        <v>0.6198</v>
-      </c>
-      <c r="E139" t="n">
-        <v>0.6198</v>
-      </c>
-      <c r="F139" t="n">
-        <v>1745183.1009</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-18268349.54549335</v>
-      </c>
-      <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="n">
-        <v>0.617</v>
-      </c>
-      <c r="K139" t="n">
-        <v>0.617</v>
-      </c>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5450,246 +5041,229 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>0.617</v>
-      </c>
-      <c r="L140" t="inlineStr">
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0.6197</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0.6197</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.6197</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.6197</v>
+      </c>
+      <c r="F141" t="n">
+        <v>948576.6705</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-18960892.09689335</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.6217</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0.6217</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.6217</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.6217</v>
+      </c>
+      <c r="F142" t="n">
+        <v>843.91</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-18960048.18689335</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0.6158</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0.6158</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0.6158</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.6158</v>
+      </c>
+      <c r="F143" t="n">
+        <v>499500.0548</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-19459548.24169335</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0.6217</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0.6217</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.6217</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0.6217</v>
+      </c>
+      <c r="F144" t="n">
+        <v>9701.1139</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-19449847.12779335</v>
+      </c>
+      <c r="H144" t="n">
+        <v>2</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0.6158</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0.6158</v>
+      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.6182</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0.6182</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.6182</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0.6182</v>
+      </c>
+      <c r="F145" t="n">
+        <v>1697209.4454</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-21147056.57319335</v>
+      </c>
+      <c r="H145" t="n">
+        <v>2</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0.6217</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0.6158</v>
+      </c>
+      <c r="K145" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>0.6197</v>
-      </c>
-      <c r="C141" t="n">
-        <v>0.6197</v>
-      </c>
-      <c r="D141" t="n">
-        <v>0.6197</v>
-      </c>
-      <c r="E141" t="n">
-        <v>0.6197</v>
-      </c>
-      <c r="F141" t="n">
-        <v>948576.6705</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-18960892.09689335</v>
-      </c>
-      <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="n">
-        <v>0.6167</v>
-      </c>
-      <c r="K141" t="n">
-        <v>0.617</v>
-      </c>
-      <c r="L141" t="inlineStr">
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.6217</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0.6217</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.6217</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0.6217</v>
+      </c>
+      <c r="F146" t="n">
+        <v>9217.82</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-21137838.75319335</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0.6158</v>
+      </c>
+      <c r="K146" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>0.6217</v>
-      </c>
-      <c r="C142" t="n">
-        <v>0.6217</v>
-      </c>
-      <c r="D142" t="n">
-        <v>0.6217</v>
-      </c>
-      <c r="E142" t="n">
-        <v>0.6217</v>
-      </c>
-      <c r="F142" t="n">
-        <v>843.91</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-18960048.18689335</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>0.6158</v>
-      </c>
-      <c r="C143" t="n">
-        <v>0.6158</v>
-      </c>
-      <c r="D143" t="n">
-        <v>0.6158</v>
-      </c>
-      <c r="E143" t="n">
-        <v>0.6158</v>
-      </c>
-      <c r="F143" t="n">
-        <v>499500.0548</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-19459548.24169335</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>0.6217</v>
-      </c>
-      <c r="C144" t="n">
-        <v>0.6217</v>
-      </c>
-      <c r="D144" t="n">
-        <v>0.6217</v>
-      </c>
-      <c r="E144" t="n">
-        <v>0.6217</v>
-      </c>
-      <c r="F144" t="n">
-        <v>9701.1139</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-19449847.12779335</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>0.6182</v>
-      </c>
-      <c r="C145" t="n">
-        <v>0.6182</v>
-      </c>
-      <c r="D145" t="n">
-        <v>0.6182</v>
-      </c>
-      <c r="E145" t="n">
-        <v>0.6182</v>
-      </c>
-      <c r="F145" t="n">
-        <v>1697209.4454</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-21147056.57319335</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>0.6217</v>
-      </c>
-      <c r="C146" t="n">
-        <v>0.6217</v>
-      </c>
-      <c r="D146" t="n">
-        <v>0.6217</v>
-      </c>
-      <c r="E146" t="n">
-        <v>0.6217</v>
-      </c>
-      <c r="F146" t="n">
-        <v>9217.82</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-21137838.75319335</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5716,16 +5290,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5752,16 +5323,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5786,22 +5354,15 @@
         <v>-23094400.97399335</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="n">
-        <v>0.6157</v>
-      </c>
-      <c r="K149" t="n">
-        <v>0.6157</v>
-      </c>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5828,22 +5389,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>0.6157</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5868,26 +5420,15 @@
         <v>-23089535.25299335</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="n">
-        <v>0.6217</v>
-      </c>
-      <c r="K151" t="n">
-        <v>0.6157</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5914,22 +5455,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>0.6157</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5956,22 +5488,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>0.6157</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5998,22 +5521,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>0.6157</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6040,22 +5554,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>0.6157</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6082,22 +5587,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>0.6157</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6124,22 +5620,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>0.6157</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6166,22 +5653,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>0.6157</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6208,22 +5686,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>0.6157</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6250,22 +5719,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>0.6157</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6292,22 +5752,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>0.6157</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6334,24 +5785,15 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>0.6157</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest APIS.xlsx
+++ b/BackTest/2020-01-14 BackTest APIS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -550,7 +550,7 @@
         <v>-571991.7488999995</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>785301.0467000005</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>25831.87490000052</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-481028.8404999995</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-1185368.753899999</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-2094109.983199999</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>657447.6899000006</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-349452.1422999993</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-4727159.590399999</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-7774652.709799998</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-7773772.767799999</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-8227357.812899998</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-8226526.148599998</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-8226526.148599998</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-4601851.196199998</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-6564470.862699999</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-4314867.005799999</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-6287804.681299998</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-6584536.386099999</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-5285859.659999998</v>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-5284890.958099999</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-6538507.853899999</v>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-8182866.484099999</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-8775157.081599999</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-7040375.245399999</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-6707445.9859</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-6707445.9859</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-5199639.4352</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-5253197.4397</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-4495870.0408</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-3109974.368</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-3346663.2032</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-2572145.161</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>636847.8300000001</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-1396909.9607</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>84175.84920000006</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-952421.7450999999</v>
       </c>
       <c r="H63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-1558906.3299</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-9276.495699999854</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>1475934.1353</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-2670852.4802</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-3545060.460299999</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-5000898.236</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-5000069.5085</v>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-6096497.827299999</v>
       </c>
       <c r="H79" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-8087599.558199999</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-8086771.376099999</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-9512150.196899999</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-10889775.2298</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-9219219.705500001</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-8634017.662600001</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-9164283.960200001</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-11146306.0023</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-11634618.2658</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-10550520.3013</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-10549699.3878</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-12491197.3011</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-14408826.2297</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-14392689.38929335</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-15905096.68009335</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-17733873.42139335</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4774,14 +4774,10 @@
         <v>-20643986.47089335</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0.6156</v>
-      </c>
-      <c r="J133" t="n">
-        <v>0.6156</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
@@ -4814,123 +4810,119 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>0.6156</v>
-      </c>
-      <c r="K134" t="inlineStr">
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0.616</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0.616</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.616</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.616</v>
+      </c>
+      <c r="F135" t="n">
+        <v>836867.6621</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-20188779.24719335</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0.6186</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0.6186</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.6186</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.6186</v>
+      </c>
+      <c r="F136" t="n">
+        <v>502691.6078</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-19686087.63939335</v>
+      </c>
+      <c r="H136" t="n">
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0.616</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0.616</v>
+      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0.6132</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0.6132</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.6132</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.6132</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1972975.6305</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-21659063.26989335</v>
+      </c>
+      <c r="H137" t="n">
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0.6186</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0.616</v>
+      </c>
+      <c r="K137" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>0.616</v>
-      </c>
-      <c r="C135" t="n">
-        <v>0.616</v>
-      </c>
-      <c r="D135" t="n">
-        <v>0.616</v>
-      </c>
-      <c r="E135" t="n">
-        <v>0.616</v>
-      </c>
-      <c r="F135" t="n">
-        <v>836867.6621</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-20188779.24719335</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>0.6156</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>0.6186</v>
-      </c>
-      <c r="C136" t="n">
-        <v>0.6186</v>
-      </c>
-      <c r="D136" t="n">
-        <v>0.6186</v>
-      </c>
-      <c r="E136" t="n">
-        <v>0.6186</v>
-      </c>
-      <c r="F136" t="n">
-        <v>502691.6078</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-19686087.63939335</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>0.6132</v>
-      </c>
-      <c r="C137" t="n">
-        <v>0.6132</v>
-      </c>
-      <c r="D137" t="n">
-        <v>0.6132</v>
-      </c>
-      <c r="E137" t="n">
-        <v>0.6132</v>
-      </c>
-      <c r="F137" t="n">
-        <v>1972975.6305</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-21659063.26989335</v>
-      </c>
-      <c r="H137" t="n">
-        <v>2</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0.6186</v>
-      </c>
-      <c r="J137" t="n">
-        <v>0.6186</v>
-      </c>
-      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4959,13 +4951,13 @@
         <v>-20013532.64639335</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
         <v>0.6132</v>
       </c>
       <c r="J138" t="n">
-        <v>0.6186</v>
+        <v>0.616</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5000,50 +4992,54 @@
         <v>-18268349.54549335</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0.617</v>
+      </c>
       <c r="J139" t="n">
-        <v>0.6186</v>
-      </c>
-      <c r="K139" t="inlineStr">
+        <v>0.617</v>
+      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0.6167</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0.6167</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.6167</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.6167</v>
+      </c>
+      <c r="F140" t="n">
+        <v>1641119.2219</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-19909468.76739335</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0.617</v>
+      </c>
+      <c r="K140" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>0.6167</v>
-      </c>
-      <c r="C140" t="n">
-        <v>0.6167</v>
-      </c>
-      <c r="D140" t="n">
-        <v>0.6167</v>
-      </c>
-      <c r="E140" t="n">
-        <v>0.6167</v>
-      </c>
-      <c r="F140" t="n">
-        <v>1641119.2219</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-19909468.76739335</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5072,11 +5068,19 @@
         <v>-18960892.09689335</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0.6167</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0.617</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5171,7 +5175,7 @@
         <v>-19449847.12779335</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
         <v>0.6158</v>
@@ -5208,11 +5212,9 @@
         <v>-21147056.57319335</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0.6217</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
         <v>0.6158</v>
       </c>
@@ -5354,10 +5356,14 @@
         <v>-23094400.97399335</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0.6157</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0.6157</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
@@ -5387,11 +5393,19 @@
         <v>-23089535.25299335</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0.6173999999999999</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0.6157</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5420,11 +5434,19 @@
         <v>-23089535.25299335</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0.6217</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0.6157</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5456,8 +5478,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0.6157</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5489,8 +5517,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0.6157</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5519,11 +5553,19 @@
         <v>-25243478.17309336</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0.6163999999999999</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0.6157</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5552,11 +5594,19 @@
         <v>-26884051.16949335</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0.6215000000000001</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0.6157</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5585,11 +5635,19 @@
         <v>-26243225.79859335</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0.617</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0.6157</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5618,11 +5676,19 @@
         <v>-24639412.30619335</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0.6173999999999999</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0.6157</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5654,8 +5720,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0.6157</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5687,8 +5759,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0.6157</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5720,8 +5798,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0.6157</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5753,8 +5837,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0.6157</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5786,14 +5876,20 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0.6157</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
       <c r="M162" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest APIS.xlsx
+++ b/BackTest/2020-01-14 BackTest APIS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -550,7 +550,7 @@
         <v>-571991.7488999995</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>785301.0467000005</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>25831.87490000052</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-481028.8404999995</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-1185368.753899999</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-2094109.983199999</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>657447.6899000006</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-349452.1422999993</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-4727159.590399999</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-7775495.145499999</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-7774652.709799998</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-8227357.812899998</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-8226526.148599998</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-8226526.148599998</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-4601851.196199998</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-6564470.862699999</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-4314867.005799999</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-6287804.681299998</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-6584536.386099999</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-5285859.659999998</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-5284890.958099999</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-6538507.853899999</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-8182866.484099999</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-8775157.081599999</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-7040375.245399999</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-6707445.9859</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-6707445.9859</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-5199639.4352</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-5253197.4397</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-4495870.0408</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-3109974.368</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-3346663.2032</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-2572145.161</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>636847.8300000001</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>84175.84920000006</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-952421.7450999999</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-1558906.3299</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>1475934.1353</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-9512150.196899999</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-10889775.2298</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-8634017.662600001</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-9164283.960200001</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-11146306.0023</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-11634618.2658</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-10550520.3013</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-10549699.3878</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-12491197.3011</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-14408826.2297</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-14392689.38929335</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-15905096.68009335</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-16415262.91059335</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-22013726.49779335</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-17733873.42139335</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4675,10 +4675,14 @@
         <v>-21506433.14509335</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0.6131</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0.6131</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
@@ -4708,11 +4712,19 @@
         <v>-20364932.98449335</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0.616</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.6131</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4744,8 +4756,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0.6131</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4873,14 +4891,10 @@
         <v>-19686087.63939335</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0.616</v>
-      </c>
-      <c r="J136" t="n">
-        <v>0.616</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
@@ -4916,13 +4930,9 @@
         <v>0.6186</v>
       </c>
       <c r="J137" t="n">
-        <v>0.616</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0.6186</v>
+      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4957,7 +4967,7 @@
         <v>0.6132</v>
       </c>
       <c r="J138" t="n">
-        <v>0.616</v>
+        <v>0.6186</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -4998,9 +5008,13 @@
         <v>0.617</v>
       </c>
       <c r="J139" t="n">
-        <v>0.617</v>
-      </c>
-      <c r="K139" t="inlineStr"/>
+        <v>0.6186</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5032,14 +5046,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>0.617</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5068,19 +5076,11 @@
         <v>-18960892.09689335</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0.6167</v>
-      </c>
-      <c r="J141" t="n">
-        <v>0.617</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5175,14 +5175,10 @@
         <v>-19449847.12779335</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0.6158</v>
-      </c>
-      <c r="J144" t="n">
-        <v>0.6158</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
@@ -5215,14 +5211,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>0.6158</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5254,14 +5244,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>0.6158</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5356,14 +5340,10 @@
         <v>-23094400.97399335</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0.6157</v>
-      </c>
-      <c r="J149" t="n">
-        <v>0.6157</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
@@ -5393,19 +5373,11 @@
         <v>-23089535.25299335</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0.6173999999999999</v>
-      </c>
-      <c r="J150" t="n">
-        <v>0.6157</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5434,19 +5406,11 @@
         <v>-23089535.25299335</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0.6217</v>
-      </c>
-      <c r="J151" t="n">
-        <v>0.6157</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5478,14 +5442,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>0.6157</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5517,14 +5475,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>0.6157</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5553,19 +5505,11 @@
         <v>-25243478.17309336</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0.6163999999999999</v>
-      </c>
-      <c r="J154" t="n">
-        <v>0.6157</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5594,19 +5538,11 @@
         <v>-26884051.16949335</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0.6215000000000001</v>
-      </c>
-      <c r="J155" t="n">
-        <v>0.6157</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5635,19 +5571,11 @@
         <v>-26243225.79859335</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0.617</v>
-      </c>
-      <c r="J156" t="n">
-        <v>0.6157</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5676,19 +5604,11 @@
         <v>-24639412.30619335</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0.6173999999999999</v>
-      </c>
-      <c r="J157" t="n">
-        <v>0.6157</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5720,14 +5640,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>0.6157</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5759,14 +5673,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>0.6157</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5798,14 +5706,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>0.6157</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5837,14 +5739,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>0.6157</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5876,20 +5772,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>0.6157</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
       <c r="M162" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest APIS.xlsx
+++ b/BackTest/2020-01-14 BackTest APIS.xlsx
@@ -1243,7 +1243,7 @@
         <v>-7775495.145499999</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-7773772.767799999</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-6287804.681299998</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>63882.69430000032</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>39354.09180000032</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-764360.0104999996</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-763538.8627999997</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-16415262.91059335</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-22013726.49779335</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4675,14 +4675,10 @@
         <v>-21506433.14509335</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0.6131</v>
-      </c>
-      <c r="J130" t="n">
-        <v>0.6131</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
@@ -4712,19 +4708,11 @@
         <v>-20364932.98449335</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0.616</v>
-      </c>
-      <c r="J131" t="n">
-        <v>0.6131</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4756,14 +4744,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>0.6131</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4891,10 +4873,14 @@
         <v>-19686087.63939335</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0.616</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0.616</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
@@ -4930,9 +4916,13 @@
         <v>0.6186</v>
       </c>
       <c r="J137" t="n">
-        <v>0.6186</v>
-      </c>
-      <c r="K137" t="inlineStr"/>
+        <v>0.616</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4967,7 +4957,7 @@
         <v>0.6132</v>
       </c>
       <c r="J138" t="n">
-        <v>0.6186</v>
+        <v>0.616</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5008,46 +4998,48 @@
         <v>0.617</v>
       </c>
       <c r="J139" t="n">
-        <v>0.6186</v>
-      </c>
-      <c r="K139" t="inlineStr">
+        <v>0.617</v>
+      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0.6167</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0.6167</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.6167</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.6167</v>
+      </c>
+      <c r="F140" t="n">
+        <v>1641119.2219</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-19909468.76739335</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0.617</v>
+      </c>
+      <c r="K140" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>0.6167</v>
-      </c>
-      <c r="C140" t="n">
-        <v>0.6167</v>
-      </c>
-      <c r="D140" t="n">
-        <v>0.6167</v>
-      </c>
-      <c r="E140" t="n">
-        <v>0.6167</v>
-      </c>
-      <c r="F140" t="n">
-        <v>1641119.2219</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-19909468.76739335</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5076,11 +5068,19 @@
         <v>-18960892.09689335</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0.6167</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0.617</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5109,10 +5109,14 @@
         <v>-18960048.18689335</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0.6197</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0.6197</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
@@ -5145,8 +5149,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0.6197</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5175,11 +5185,19 @@
         <v>-19449847.12779335</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0.6158</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0.6197</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5208,10 +5226,14 @@
         <v>-21147056.57319335</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0.6217</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0.6217</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
@@ -5241,11 +5263,19 @@
         <v>-21137838.75319335</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0.6182</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0.6217</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5277,8 +5307,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0.6217</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5307,10 +5343,14 @@
         <v>-23719407.97969335</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0.6189</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0.6189</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
@@ -5343,8 +5383,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0.6189</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5373,11 +5419,19 @@
         <v>-23089535.25299335</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0.6173999999999999</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0.6189</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5409,8 +5463,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0.6189</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5439,11 +5499,19 @@
         <v>-24363126.50309335</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0.6217</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0.6189</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5475,8 +5543,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0.6189</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5505,11 +5579,19 @@
         <v>-25243478.17309336</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0.6163999999999999</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0.6189</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5541,8 +5623,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0.6189</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5571,11 +5659,19 @@
         <v>-26243225.79859335</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0.617</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0.6189</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5604,11 +5700,19 @@
         <v>-24639412.30619335</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0.6173999999999999</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0.6189</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5637,11 +5741,19 @@
         <v>-24066625.54719335</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0.6176</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0.6189</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5670,11 +5782,19 @@
         <v>-24065794.63869335</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0.6202</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0.6189</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5706,8 +5826,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0.6189</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5739,8 +5865,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0.6189</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5772,8 +5904,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0.6189</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-14 BackTest APIS.xlsx
+++ b/BackTest/2020-01-14 BackTest APIS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M162"/>
+  <dimension ref="A1:L162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>1444677.9511</v>
       </c>
       <c r="G2" t="n">
-        <v>-1710019.7046</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>1224696.6605</v>
       </c>
       <c r="G3" t="n">
-        <v>-485323.0440999996</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>1109352.7896</v>
       </c>
       <c r="G4" t="n">
-        <v>624029.7455000004</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>1196021.4944</v>
       </c>
       <c r="G5" t="n">
-        <v>-571991.7488999995</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>1357292.7956</v>
       </c>
       <c r="G6" t="n">
-        <v>785301.0467000005</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>759469.1718</v>
       </c>
       <c r="G7" t="n">
-        <v>25831.87490000052</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>506860.7154</v>
       </c>
       <c r="G8" t="n">
-        <v>-481028.8404999995</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>704339.9134</v>
       </c>
       <c r="G9" t="n">
-        <v>-1185368.753899999</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>908741.2293</v>
       </c>
       <c r="G10" t="n">
-        <v>-2094109.983199999</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>1063764.72</v>
       </c>
       <c r="G11" t="n">
-        <v>-1030345.263199999</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>1687792.9531</v>
       </c>
       <c r="G12" t="n">
-        <v>657447.6899000006</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>947281.7387</v>
       </c>
       <c r="G13" t="n">
-        <v>1604729.428600001</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>111472.4895</v>
       </c>
       <c r="G14" t="n">
-        <v>1604729.428600001</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>1954181.5709</v>
       </c>
       <c r="G15" t="n">
-        <v>-349452.1422999993</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>842.3786</v>
       </c>
       <c r="G16" t="n">
-        <v>-348609.7636999993</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>77825.92230000001</v>
       </c>
       <c r="G17" t="n">
-        <v>-348609.7636999993</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>1683261.8594</v>
       </c>
       <c r="G18" t="n">
-        <v>-2031871.623099999</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>979818.5986</v>
       </c>
       <c r="G19" t="n">
-        <v>-3011690.221699999</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>1715469.3687</v>
       </c>
       <c r="G20" t="n">
-        <v>-4727159.590399999</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>1235060.5803</v>
       </c>
       <c r="G21" t="n">
-        <v>-3492099.010099999</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>1327567.994</v>
       </c>
       <c r="G22" t="n">
-        <v>-4819667.004099999</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>818.9809</v>
       </c>
       <c r="G23" t="n">
-        <v>-4818848.023199999</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>1296526.6527</v>
       </c>
       <c r="G24" t="n">
-        <v>-6115374.675899999</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>1079448.5621</v>
       </c>
       <c r="G25" t="n">
-        <v>-7194823.237999999</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>580671.9075</v>
       </c>
       <c r="G26" t="n">
-        <v>-7775495.145499999</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>842.4357</v>
       </c>
       <c r="G27" t="n">
-        <v>-7774652.709799998</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>879.942</v>
       </c>
       <c r="G28" t="n">
-        <v>-7773772.767799999</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>453585.0451</v>
       </c>
       <c r="G29" t="n">
-        <v>-8227357.812899998</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,19 @@
         <v>831.6643</v>
       </c>
       <c r="G30" t="n">
-        <v>-8226526.148599998</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>0.6175</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.6175</v>
+      </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1317,21 @@
         <v>46233.3132</v>
       </c>
       <c r="G31" t="n">
-        <v>-8226526.148599998</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>0.6175</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1353,21 @@
         <v>760218.2998</v>
       </c>
       <c r="G32" t="n">
-        <v>-8226526.148599998</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>0.6175</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1389,15 @@
         <v>1584419.4739</v>
       </c>
       <c r="G33" t="n">
-        <v>-6642106.674699998</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1419,15 @@
         <v>695908.0876</v>
       </c>
       <c r="G34" t="n">
-        <v>-7338014.762299998</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1449,15 @@
         <v>1690644.2853</v>
       </c>
       <c r="G35" t="n">
-        <v>-5647370.476999998</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1479,15 @@
         <v>814255.2389</v>
       </c>
       <c r="G36" t="n">
-        <v>-6461625.715899998</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1509,15 @@
         <v>1859774.5197</v>
       </c>
       <c r="G37" t="n">
-        <v>-4601851.196199998</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1539,15 @@
         <v>1962619.6665</v>
       </c>
       <c r="G38" t="n">
-        <v>-6564470.862699999</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1569,15 @@
         <v>1788765.4217</v>
       </c>
       <c r="G39" t="n">
-        <v>-4775705.440999999</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1599,15 @@
         <v>460838.4352</v>
       </c>
       <c r="G40" t="n">
-        <v>-4314867.005799999</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1629,15 @@
         <v>1972937.6755</v>
       </c>
       <c r="G41" t="n">
-        <v>-6287804.681299998</v>
-      </c>
-      <c r="H41" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1659,15 @@
         <v>296731.7048</v>
       </c>
       <c r="G42" t="n">
-        <v>-6584536.386099999</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1689,15 @@
         <v>1298676.7261</v>
       </c>
       <c r="G43" t="n">
-        <v>-5285859.659999998</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1719,15 @@
         <v>968.7019</v>
       </c>
       <c r="G44" t="n">
-        <v>-5284890.958099999</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1749,15 @@
         <v>526297.2745000001</v>
       </c>
       <c r="G45" t="n">
-        <v>-5811188.232599999</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1779,15 @@
         <v>727319.6213</v>
       </c>
       <c r="G46" t="n">
-        <v>-6538507.853899999</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1809,15 @@
         <v>1127287.8897</v>
       </c>
       <c r="G47" t="n">
-        <v>-7665795.743599999</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1839,15 @@
         <v>517070.7405</v>
       </c>
       <c r="G48" t="n">
-        <v>-8182866.484099999</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1869,15 @@
         <v>592290.5975</v>
       </c>
       <c r="G49" t="n">
-        <v>-8775157.081599999</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1899,15 @@
         <v>1734781.8362</v>
       </c>
       <c r="G50" t="n">
-        <v>-7040375.245399999</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1929,15 @@
         <v>332929.2595</v>
       </c>
       <c r="G51" t="n">
-        <v>-6707445.9859</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1959,15 @@
         <v>515550.3375</v>
       </c>
       <c r="G52" t="n">
-        <v>-6707445.9859</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1989,19 @@
         <v>1507806.5507</v>
       </c>
       <c r="G53" t="n">
-        <v>-5199639.4352</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>0.6145</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.6145</v>
+      </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2023,21 @@
         <v>53558.0045</v>
       </c>
       <c r="G54" t="n">
-        <v>-5253197.4397</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>0.6145</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2059,23 @@
         <v>757327.3989</v>
       </c>
       <c r="G55" t="n">
-        <v>-4495870.0408</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>0.614</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.6145</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2097,23 @@
         <v>1385895.6728</v>
       </c>
       <c r="G56" t="n">
-        <v>-3109974.368</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>0.6145</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.6145</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2135,21 @@
         <v>236688.8352</v>
       </c>
       <c r="G57" t="n">
-        <v>-3346663.2032</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>0.6145</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2171,21 @@
         <v>774518.0422</v>
       </c>
       <c r="G58" t="n">
-        <v>-2572145.161</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>0.6145</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2207,21 @@
         <v>1901376.3812</v>
       </c>
       <c r="G59" t="n">
-        <v>-670768.7797999999</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>0.6145</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2243,21 @@
         <v>1307616.6098</v>
       </c>
       <c r="G60" t="n">
-        <v>636847.8300000001</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>0.6145</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2279,21 @@
         <v>2033757.7907</v>
       </c>
       <c r="G61" t="n">
-        <v>-1396909.9607</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>0.6145</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2315,21 @@
         <v>1481085.8099</v>
       </c>
       <c r="G62" t="n">
-        <v>84175.84920000006</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>0.6145</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2351,21 @@
         <v>1036597.5943</v>
       </c>
       <c r="G63" t="n">
-        <v>-952421.7450999999</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>0.6145</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2387,21 @@
         <v>606484.5848</v>
       </c>
       <c r="G64" t="n">
-        <v>-1558906.3299</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>0.6145</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2423,23 @@
         <v>1549629.8342</v>
       </c>
       <c r="G65" t="n">
-        <v>-9276.495699999854</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0.615</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.6145</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2461,21 @@
         <v>1485210.631</v>
       </c>
       <c r="G66" t="n">
-        <v>1475934.1353</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>0.6145</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2497,21 @@
         <v>1491.9542</v>
       </c>
       <c r="G67" t="n">
-        <v>1477426.0895</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>0.6145</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2533,21 @@
         <v>1413543.3952</v>
       </c>
       <c r="G68" t="n">
-        <v>63882.69430000032</v>
-      </c>
-      <c r="H68" t="n">
-        <v>2</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>0.6145</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2569,21 @@
         <v>24528.6025</v>
       </c>
       <c r="G69" t="n">
-        <v>39354.09180000032</v>
-      </c>
-      <c r="H69" t="n">
-        <v>2</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>0.6145</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2605,21 @@
         <v>817.538</v>
       </c>
       <c r="G70" t="n">
-        <v>40171.62980000032</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>0.6145</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2641,21 @@
         <v>804531.6403</v>
       </c>
       <c r="G71" t="n">
-        <v>-764360.0104999996</v>
-      </c>
-      <c r="H71" t="n">
-        <v>2</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>0.6145</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2677,21 @@
         <v>821.1477</v>
       </c>
       <c r="G72" t="n">
-        <v>-763538.8627999997</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>0.6145</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2713,21 @@
         <v>1516948.6323</v>
       </c>
       <c r="G73" t="n">
-        <v>-763538.8627999997</v>
-      </c>
-      <c r="H73" t="n">
         <v>2</v>
       </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>0.6145</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1.012900732302685</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2749,15 @@
         <v>1907313.6174</v>
       </c>
       <c r="G74" t="n">
-        <v>-2670852.4802</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2779,15 @@
         <v>874207.9801</v>
       </c>
       <c r="G75" t="n">
-        <v>-3545060.460299999</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2809,15 @@
         <v>804.9994</v>
       </c>
       <c r="G76" t="n">
-        <v>-3544255.460899999</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2839,15 @@
         <v>1456642.7751</v>
       </c>
       <c r="G77" t="n">
-        <v>-5000898.236</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2869,15 @@
         <v>828.7275</v>
       </c>
       <c r="G78" t="n">
-        <v>-5000069.5085</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2899,15 @@
         <v>1096428.3188</v>
       </c>
       <c r="G79" t="n">
-        <v>-6096497.827299999</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2929,15 @@
         <v>1991101.7309</v>
       </c>
       <c r="G80" t="n">
-        <v>-8087599.558199999</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2959,15 @@
         <v>828.1821</v>
       </c>
       <c r="G81" t="n">
-        <v>-8086771.376099999</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2989,15 @@
         <v>1425378.8208</v>
       </c>
       <c r="G82" t="n">
-        <v>-9512150.196899999</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +3019,15 @@
         <v>1377625.0329</v>
       </c>
       <c r="G83" t="n">
-        <v>-10889775.2298</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +3049,15 @@
         <v>2243917.0017</v>
       </c>
       <c r="G84" t="n">
-        <v>-13133692.2315</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +3079,15 @@
         <v>928998.3347</v>
       </c>
       <c r="G85" t="n">
-        <v>-12204693.8968</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +3109,15 @@
         <v>1902269.9223</v>
       </c>
       <c r="G86" t="n">
-        <v>-10302423.9745</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3139,15 @@
         <v>1083204.269</v>
       </c>
       <c r="G87" t="n">
-        <v>-9219219.705500001</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3169,15 @@
         <v>585202.0429</v>
       </c>
       <c r="G88" t="n">
-        <v>-8634017.662600001</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3199,15 @@
         <v>530266.2976</v>
       </c>
       <c r="G89" t="n">
-        <v>-9164283.960200001</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3229,15 @@
         <v>1982022.0421</v>
       </c>
       <c r="G90" t="n">
-        <v>-11146306.0023</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3259,15 @@
         <v>488312.2635</v>
       </c>
       <c r="G91" t="n">
-        <v>-11634618.2658</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3289,15 @@
         <v>1084097.9645</v>
       </c>
       <c r="G92" t="n">
-        <v>-10550520.3013</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3319,15 @@
         <v>820.9135</v>
       </c>
       <c r="G93" t="n">
-        <v>-10549699.3878</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3349,15 @@
         <v>1105254.0283</v>
       </c>
       <c r="G94" t="n">
-        <v>-10549699.3878</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3379,15 @@
         <v>1941497.9133</v>
       </c>
       <c r="G95" t="n">
-        <v>-12491197.3011</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3409,15 @@
         <v>1917628.9286</v>
       </c>
       <c r="G96" t="n">
-        <v>-14408826.2297</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3439,15 @@
         <v>16136.84040664838</v>
       </c>
       <c r="G97" t="n">
-        <v>-14392689.38929335</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3469,15 @@
         <v>1512407.2908</v>
       </c>
       <c r="G98" t="n">
-        <v>-15905096.68009335</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3499,15 @@
         <v>1126051.6935</v>
       </c>
       <c r="G99" t="n">
-        <v>-14779044.98659335</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3529,15 @@
         <v>1637053.3584</v>
       </c>
       <c r="G100" t="n">
-        <v>-16416098.34499335</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3559,15 @@
         <v>835.4344</v>
       </c>
       <c r="G101" t="n">
-        <v>-16415262.91059335</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3589,15 @@
         <v>1796398.3624</v>
       </c>
       <c r="G102" t="n">
-        <v>-18211661.27299335</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3619,15 @@
         <v>602591.9989</v>
       </c>
       <c r="G103" t="n">
-        <v>-18814253.27189335</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3649,15 @@
         <v>817.8645</v>
       </c>
       <c r="G104" t="n">
-        <v>-18813435.40739335</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3679,15 @@
         <v>1729752.224</v>
       </c>
       <c r="G105" t="n">
-        <v>-20543187.63139335</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3709,15 @@
         <v>820</v>
       </c>
       <c r="G106" t="n">
-        <v>-20542367.63139335</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3739,15 @@
         <v>530384.7131000001</v>
       </c>
       <c r="G107" t="n">
-        <v>-21072752.34449335</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3769,15 @@
         <v>940974.1533</v>
       </c>
       <c r="G108" t="n">
-        <v>-22013726.49779335</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3799,15 @@
         <v>2035020.0386</v>
       </c>
       <c r="G109" t="n">
-        <v>-22013726.49779335</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3829,15 @@
         <v>8266427.7525</v>
       </c>
       <c r="G110" t="n">
-        <v>-13747298.74529335</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3859,15 @@
         <v>741284.98</v>
       </c>
       <c r="G111" t="n">
-        <v>-14488583.72529335</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3889,15 @@
         <v>1429572.0922</v>
       </c>
       <c r="G112" t="n">
-        <v>-13059011.63309335</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3919,15 @@
         <v>2039263.8212</v>
       </c>
       <c r="G113" t="n">
-        <v>-15098275.45429335</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3949,15 @@
         <v>688485.7514</v>
       </c>
       <c r="G114" t="n">
-        <v>-14409789.70289335</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3979,15 @@
         <v>1712772.9561</v>
       </c>
       <c r="G115" t="n">
-        <v>-16122562.65899335</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +4009,15 @@
         <v>1537730.1364</v>
       </c>
       <c r="G116" t="n">
-        <v>-17660292.79539335</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +4039,15 @@
         <v>1072204.2458</v>
       </c>
       <c r="G117" t="n">
-        <v>-18732497.04119335</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +4069,15 @@
         <v>998623.6198</v>
       </c>
       <c r="G118" t="n">
-        <v>-17733873.42139335</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +4099,15 @@
         <v>1238057.744</v>
       </c>
       <c r="G119" t="n">
-        <v>-16495815.67739335</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +4129,15 @@
         <v>954.5509</v>
       </c>
       <c r="G120" t="n">
-        <v>-16494861.12649335</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4159,15 @@
         <v>773981.8509</v>
       </c>
       <c r="G121" t="n">
-        <v>-17268842.97739335</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4189,15 @@
         <v>250298.6283</v>
       </c>
       <c r="G122" t="n">
-        <v>-17519141.60569335</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4219,15 @@
         <v>3299.3318</v>
       </c>
       <c r="G123" t="n">
-        <v>-17519141.60569335</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4249,15 @@
         <v>843011.7892</v>
       </c>
       <c r="G124" t="n">
-        <v>-16676129.81649335</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4279,15 @@
         <v>1786647.8209</v>
       </c>
       <c r="G125" t="n">
-        <v>-18462777.63739335</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4309,15 @@
         <v>1461864.6689</v>
       </c>
       <c r="G126" t="n">
-        <v>-17000912.96849335</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4339,15 @@
         <v>829954.4963</v>
       </c>
       <c r="G127" t="n">
-        <v>-17830867.46479335</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4369,15 @@
         <v>1177467.1835</v>
       </c>
       <c r="G128" t="n">
-        <v>-19008334.64829335</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4399,15 @@
         <v>4135755.9916</v>
       </c>
       <c r="G129" t="n">
-        <v>-23144090.63989335</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4429,15 @@
         <v>1637657.4948</v>
       </c>
       <c r="G130" t="n">
-        <v>-21506433.14509335</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4459,19 @@
         <v>1141500.1606</v>
       </c>
       <c r="G131" t="n">
-        <v>-20364932.98449335</v>
+        <v>1</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
+        <v>0.616</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0.616</v>
+      </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4493,21 @@
         <v>1868078.0672</v>
       </c>
       <c r="G132" t="n">
-        <v>-22233011.05169335</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="n">
+        <v>0.616</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4529,23 @@
         <v>1589024.5808</v>
       </c>
       <c r="G133" t="n">
-        <v>-20643986.47089335</v>
+        <v>1</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>0.6156</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0.616</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4567,19 @@
         <v>1292074.8858</v>
       </c>
       <c r="G134" t="n">
-        <v>-19351911.58509335</v>
+        <v>1</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
+        <v>0.6186</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0.6186</v>
+      </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4601,23 @@
         <v>836867.6621</v>
       </c>
       <c r="G135" t="n">
-        <v>-20188779.24719335</v>
+        <v>1</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>0.6187</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0.6186</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,22 +4639,23 @@
         <v>502691.6078</v>
       </c>
       <c r="G136" t="n">
-        <v>-19686087.63939335</v>
+        <v>1</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0.616</v>
       </c>
       <c r="I136" t="n">
-        <v>0.616</v>
-      </c>
-      <c r="J136" t="n">
-        <v>0.616</v>
-      </c>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>0.6186</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4907,104 +4677,95 @@
         <v>1972975.6305</v>
       </c>
       <c r="G137" t="n">
-        <v>-21659063.26989335</v>
+        <v>1</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0.6186</v>
       </c>
       <c r="I137" t="n">
         <v>0.6186</v>
       </c>
-      <c r="J137" t="n">
-        <v>0.616</v>
-      </c>
-      <c r="K137" t="inlineStr">
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0.617</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0.617</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.617</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.617</v>
+      </c>
+      <c r="F138" t="n">
+        <v>1645530.6235</v>
+      </c>
+      <c r="G138" t="n">
+        <v>1</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0.6132</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0.6186</v>
+      </c>
+      <c r="J138" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0.6198</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0.6198</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.6198</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.6198</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1745183.1009</v>
+      </c>
+      <c r="G139" t="n">
+        <v>1</v>
+      </c>
+      <c r="H139" t="n">
         <v>0.617</v>
       </c>
-      <c r="C138" t="n">
-        <v>0.617</v>
-      </c>
-      <c r="D138" t="n">
-        <v>0.617</v>
-      </c>
-      <c r="E138" t="n">
-        <v>0.617</v>
-      </c>
-      <c r="F138" t="n">
-        <v>1645530.6235</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-20013532.64639335</v>
-      </c>
-      <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0.6132</v>
-      </c>
-      <c r="J138" t="n">
-        <v>0.616</v>
-      </c>
-      <c r="K138" t="inlineStr">
+      <c r="I139" t="n">
+        <v>0.6186</v>
+      </c>
+      <c r="J139" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>0.6198</v>
-      </c>
-      <c r="C139" t="n">
-        <v>0.6198</v>
-      </c>
-      <c r="D139" t="n">
-        <v>0.6198</v>
-      </c>
-      <c r="E139" t="n">
-        <v>0.6198</v>
-      </c>
-      <c r="F139" t="n">
-        <v>1745183.1009</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-18268349.54549335</v>
-      </c>
-      <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0.617</v>
-      </c>
-      <c r="J139" t="n">
-        <v>0.617</v>
-      </c>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5026,102 +4787,95 @@
         <v>1641119.2219</v>
       </c>
       <c r="G140" t="n">
-        <v>-19909468.76739335</v>
+        <v>1</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>0.617</v>
-      </c>
-      <c r="K140" t="inlineStr">
+        <v>0.6198</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0.6198</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0.6197</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0.6197</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.6197</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.6197</v>
+      </c>
+      <c r="F141" t="n">
+        <v>948576.6705</v>
+      </c>
+      <c r="G141" t="n">
+        <v>1</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0.6167</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0.6198</v>
+      </c>
+      <c r="J141" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.6217</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0.6217</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.6217</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.6217</v>
+      </c>
+      <c r="F142" t="n">
+        <v>843.91</v>
+      </c>
+      <c r="G142" t="n">
+        <v>1</v>
+      </c>
+      <c r="H142" t="n">
         <v>0.6197</v>
       </c>
-      <c r="C141" t="n">
-        <v>0.6197</v>
-      </c>
-      <c r="D141" t="n">
-        <v>0.6197</v>
-      </c>
-      <c r="E141" t="n">
-        <v>0.6197</v>
-      </c>
-      <c r="F141" t="n">
-        <v>948576.6705</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-18960892.09689335</v>
-      </c>
-      <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0.6167</v>
-      </c>
-      <c r="J141" t="n">
-        <v>0.617</v>
-      </c>
-      <c r="K141" t="inlineStr">
+      <c r="I142" t="n">
+        <v>0.6198</v>
+      </c>
+      <c r="J142" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>0.6217</v>
-      </c>
-      <c r="C142" t="n">
-        <v>0.6217</v>
-      </c>
-      <c r="D142" t="n">
-        <v>0.6217</v>
-      </c>
-      <c r="E142" t="n">
-        <v>0.6217</v>
-      </c>
-      <c r="F142" t="n">
-        <v>843.91</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-18960048.18689335</v>
-      </c>
-      <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0.6197</v>
-      </c>
-      <c r="J142" t="n">
-        <v>0.6197</v>
-      </c>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5143,24 +4897,15 @@
         <v>499500.0548</v>
       </c>
       <c r="G143" t="n">
-        <v>-19459548.24169335</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>0.6197</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5182,26 +4927,15 @@
         <v>9701.1139</v>
       </c>
       <c r="G144" t="n">
-        <v>-19449847.12779335</v>
-      </c>
-      <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0.6158</v>
-      </c>
-      <c r="J144" t="n">
-        <v>0.6197</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5223,22 +4957,15 @@
         <v>1697209.4454</v>
       </c>
       <c r="G145" t="n">
-        <v>-21147056.57319335</v>
-      </c>
-      <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0.6217</v>
-      </c>
-      <c r="J145" t="n">
-        <v>0.6217</v>
-      </c>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5260,26 +4987,15 @@
         <v>9217.82</v>
       </c>
       <c r="G146" t="n">
-        <v>-21137838.75319335</v>
-      </c>
-      <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0.6182</v>
-      </c>
-      <c r="J146" t="n">
-        <v>0.6217</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5301,24 +5017,15 @@
         <v>599672.1915</v>
       </c>
       <c r="G147" t="n">
-        <v>-21737510.94469335</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>0.6217</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5340,22 +5047,15 @@
         <v>1981897.035</v>
       </c>
       <c r="G148" t="n">
-        <v>-23719407.97969335</v>
-      </c>
-      <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0.6189</v>
-      </c>
-      <c r="J148" t="n">
-        <v>0.6189</v>
-      </c>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5377,24 +5077,15 @@
         <v>625007.0057</v>
       </c>
       <c r="G149" t="n">
-        <v>-23094400.97399335</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>0.6189</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5416,26 +5107,21 @@
         <v>4865.721</v>
       </c>
       <c r="G150" t="n">
-        <v>-23089535.25299335</v>
+        <v>1</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
         <v>0.6173999999999999</v>
       </c>
-      <c r="J150" t="n">
-        <v>0.6189</v>
-      </c>
-      <c r="K150" t="inlineStr">
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5457,24 +5143,19 @@
         <v>820.6097</v>
       </c>
       <c r="G151" t="n">
-        <v>-23089535.25299335</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>0.6189</v>
-      </c>
-      <c r="K151" t="inlineStr">
+      <c r="J151" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5496,26 +5177,19 @@
         <v>1273591.2501</v>
       </c>
       <c r="G152" t="n">
-        <v>-24363126.50309335</v>
-      </c>
-      <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0.6217</v>
-      </c>
-      <c r="J152" t="n">
-        <v>0.6189</v>
-      </c>
-      <c r="K152" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5537,24 +5211,19 @@
         <v>1744415.0205</v>
       </c>
       <c r="G153" t="n">
-        <v>-26107541.52359335</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>0.6189</v>
-      </c>
-      <c r="K153" t="inlineStr">
+      <c r="J153" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5576,26 +5245,19 @@
         <v>864063.3504999999</v>
       </c>
       <c r="G154" t="n">
-        <v>-25243478.17309336</v>
-      </c>
-      <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0.6163999999999999</v>
-      </c>
-      <c r="J154" t="n">
-        <v>0.6189</v>
-      </c>
-      <c r="K154" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5617,24 +5279,19 @@
         <v>1640572.9964</v>
       </c>
       <c r="G155" t="n">
-        <v>-26884051.16949335</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>0.6189</v>
-      </c>
-      <c r="K155" t="inlineStr">
+      <c r="J155" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5656,26 +5313,19 @@
         <v>640825.3709</v>
       </c>
       <c r="G156" t="n">
-        <v>-26243225.79859335</v>
-      </c>
-      <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0.617</v>
-      </c>
-      <c r="J156" t="n">
-        <v>0.6189</v>
-      </c>
-      <c r="K156" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5697,26 +5347,19 @@
         <v>1603813.4924</v>
       </c>
       <c r="G157" t="n">
-        <v>-24639412.30619335</v>
-      </c>
-      <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0.6173999999999999</v>
-      </c>
-      <c r="J157" t="n">
-        <v>0.6189</v>
-      </c>
-      <c r="K157" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5738,26 +5381,19 @@
         <v>572786.759</v>
       </c>
       <c r="G158" t="n">
-        <v>-24066625.54719335</v>
-      </c>
-      <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0.6176</v>
-      </c>
-      <c r="J158" t="n">
-        <v>0.6189</v>
-      </c>
-      <c r="K158" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5779,26 +5415,19 @@
         <v>830.9085</v>
       </c>
       <c r="G159" t="n">
-        <v>-24065794.63869335</v>
-      </c>
-      <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0.6202</v>
-      </c>
-      <c r="J159" t="n">
-        <v>0.6189</v>
-      </c>
-      <c r="K159" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5820,24 +5449,19 @@
         <v>1007193.1872</v>
       </c>
       <c r="G160" t="n">
-        <v>-25072987.82589335</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>0.6189</v>
-      </c>
-      <c r="K160" t="inlineStr">
+      <c r="J160" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5859,24 +5483,19 @@
         <v>513422.0242</v>
       </c>
       <c r="G161" t="n">
-        <v>-25586409.85009335</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>0.6189</v>
-      </c>
-      <c r="K161" t="inlineStr">
+      <c r="J161" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5898,24 +5517,19 @@
         <v>589943.362</v>
       </c>
       <c r="G162" t="n">
-        <v>-24996466.48809335</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>0.6189</v>
-      </c>
-      <c r="K162" t="inlineStr">
+      <c r="J162" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
